--- a/src/dati_ceramiche_classificati.xlsx
+++ b/src/dati_ceramiche_classificati.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenti\GitHub\tirocinio\src\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CABFD11-83C0-4676-9CC6-DEC9B5819746}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -286,8 +280,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,23 +340,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -404,7 +390,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -436,27 +422,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -488,24 +456,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -681,23 +631,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -759,7 +700,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -773,10 +714,10 @@
         <v>19.48709660039869</v>
       </c>
       <c r="E2">
-        <v>34.238456979688593</v>
+        <v>34.23845697968859</v>
       </c>
       <c r="F2">
-        <v>4.4879047465115018</v>
+        <v>4.487904746511502</v>
       </c>
       <c r="G2">
         <v>0.598028123484726</v>
@@ -788,13 +729,13 @@
         <v>39.8685415656484</v>
       </c>
       <c r="J2">
-        <v>5.3876407521146502E-2</v>
+        <v>0.0538764075211465</v>
       </c>
       <c r="K2">
-        <v>0.14546630030709551</v>
+        <v>0.1454663003070955</v>
       </c>
       <c r="L2">
-        <v>0.21550563008458601</v>
+        <v>0.215505630084586</v>
       </c>
       <c r="M2">
         <v>100</v>
@@ -818,10 +759,10 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.16666666666666671</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -829,34 +770,34 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>19.904944314393131</v>
+        <v>19.90494431439313</v>
       </c>
       <c r="E3">
-        <v>29.623324111513089</v>
+        <v>29.62332411151309</v>
       </c>
       <c r="F3">
-        <v>3.1850748386181449</v>
+        <v>3.185074838618145</v>
       </c>
       <c r="G3">
-        <v>0.55330921472653749</v>
+        <v>0.5533092147265375</v>
       </c>
       <c r="H3">
-        <v>0.78740157480314965</v>
+        <v>0.7874015748031497</v>
       </c>
       <c r="I3">
-        <v>45.640916507058243</v>
+        <v>45.64091650705824</v>
       </c>
       <c r="J3">
-        <v>7.0937078811094553E-2</v>
+        <v>0.07093707881109455</v>
       </c>
       <c r="K3">
-        <v>9.2218202454422915E-2</v>
+        <v>0.09221820245442292</v>
       </c>
       <c r="L3">
-        <v>0.14187415762218911</v>
+        <v>0.1418741576221891</v>
       </c>
       <c r="M3">
-        <v>99.999999999999986</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -880,7 +821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -894,31 +835,31 @@
         <v>20.49430161675059</v>
       </c>
       <c r="E4">
-        <v>20.375033130135169</v>
+        <v>20.37503313013517</v>
       </c>
       <c r="F4">
-        <v>5.7447654386429896</v>
+        <v>5.74476543864299</v>
       </c>
       <c r="G4">
-        <v>0.77524516300026491</v>
+        <v>0.7752451630002649</v>
       </c>
       <c r="H4">
-        <v>0.83487940630797763</v>
+        <v>0.8348794063079776</v>
       </c>
       <c r="I4">
-        <v>51.186058839120058</v>
+        <v>51.18605883912006</v>
       </c>
       <c r="J4">
-        <v>6.6260270341902988E-2</v>
+        <v>0.06626027034190299</v>
       </c>
       <c r="K4">
-        <v>0.17890272992313799</v>
+        <v>0.178902729923138</v>
       </c>
       <c r="L4">
-        <v>0.34455340577789562</v>
+        <v>0.3445534057778956</v>
       </c>
       <c r="M4">
-        <v>99.999999999999986</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -942,7 +883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -950,34 +891,34 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>21.914517838219709</v>
+        <v>21.91451783821971</v>
       </c>
       <c r="E5">
-        <v>22.387848816672559</v>
+        <v>22.38784881667256</v>
       </c>
       <c r="F5">
-        <v>6.9798657718120793</v>
+        <v>6.979865771812079</v>
       </c>
       <c r="G5">
         <v>1.321087954786295</v>
       </c>
       <c r="H5">
-        <v>1.0031790886612499</v>
+        <v>1.00317908866125</v>
       </c>
       <c r="I5">
-        <v>45.898975626986918</v>
+        <v>45.89897562698692</v>
       </c>
       <c r="J5">
-        <v>8.477569763334511E-2</v>
+        <v>0.08477569763334511</v>
       </c>
       <c r="K5">
-        <v>0.12716354645001771</v>
+        <v>0.1271635464500177</v>
       </c>
       <c r="L5">
-        <v>0.28258565877781711</v>
+        <v>0.2825856587778171</v>
       </c>
       <c r="M5">
-        <v>99.999999999999986</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1001,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1012,28 +953,28 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>4.4845748683220474</v>
+        <v>4.484574868322047</v>
       </c>
       <c r="E6">
-        <v>56.227740155505387</v>
+        <v>56.22774015550539</v>
       </c>
       <c r="F6">
-        <v>2.9295209430649609</v>
+        <v>2.929520943064961</v>
       </c>
       <c r="G6">
-        <v>0.13042387760220719</v>
+        <v>0.1304238776022072</v>
       </c>
       <c r="H6">
-        <v>0.63707047905693504</v>
+        <v>0.637070479056935</v>
       </c>
       <c r="I6">
         <v>35.30975670930524</v>
       </c>
       <c r="J6">
-        <v>4.0130423877602212E-2</v>
+        <v>0.04013042387760221</v>
       </c>
       <c r="K6">
-        <v>0.10534236267870579</v>
+        <v>0.1053423626787058</v>
       </c>
       <c r="L6">
         <v>0.1354401805869074</v>
@@ -1060,10 +1001,10 @@
         <v>1</v>
       </c>
       <c r="T6">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1071,34 +1012,34 @@
         <v>24</v>
       </c>
       <c r="D7">
-        <v>3.7644528098951331</v>
+        <v>3.764452809895133</v>
       </c>
       <c r="E7">
-        <v>56.144124764721703</v>
+        <v>56.1441247647217</v>
       </c>
       <c r="F7">
         <v>2.828717397149771</v>
       </c>
       <c r="G7">
-        <v>0.20435600968002149</v>
+        <v>0.2043560096800215</v>
       </c>
       <c r="H7">
         <v>0.9249798332885184</v>
       </c>
       <c r="I7">
-        <v>35.837590750201663</v>
+        <v>35.83759075020166</v>
       </c>
       <c r="J7">
-        <v>4.3022317827372952E-2</v>
+        <v>0.04302231782737295</v>
       </c>
       <c r="K7">
-        <v>0.10755579456843239</v>
+        <v>0.1075557945684324</v>
       </c>
       <c r="L7">
         <v>0.1452003226673837</v>
       </c>
       <c r="M7">
-        <v>99.999999999999986</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1119,10 +1060,10 @@
         <v>1</v>
       </c>
       <c r="T7">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1133,34 +1074,34 @@
         <v>26</v>
       </c>
       <c r="D8">
-        <v>12.466884837151319</v>
+        <v>12.46688483715132</v>
       </c>
       <c r="E8">
-        <v>47.039114851176564</v>
+        <v>47.03911485117656</v>
       </c>
       <c r="F8">
-        <v>2.9141343306841199</v>
+        <v>2.91413433068412</v>
       </c>
       <c r="G8">
-        <v>0.28829671185912409</v>
+        <v>0.2882967118591241</v>
       </c>
       <c r="H8">
         <v>1.223313074645473</v>
       </c>
       <c r="I8">
-        <v>35.647498831229527</v>
+        <v>35.64749883122953</v>
       </c>
       <c r="J8">
-        <v>9.3501636278634864E-2</v>
+        <v>0.09350163627863486</v>
       </c>
       <c r="K8">
-        <v>9.3501636278634864E-2</v>
+        <v>0.09350163627863486</v>
       </c>
       <c r="L8">
-        <v>0.23375409069658709</v>
+        <v>0.2337540906965871</v>
       </c>
       <c r="M8">
-        <v>99.999999999999986</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1184,7 +1125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1195,28 +1136,28 @@
         <v>12.75096598227139</v>
       </c>
       <c r="E9">
-        <v>46.541404651867573</v>
+        <v>46.54140465186757</v>
       </c>
       <c r="F9">
-        <v>3.1290249261307679</v>
+        <v>3.129024926130768</v>
       </c>
       <c r="G9">
-        <v>0.21971361466777789</v>
+        <v>0.2197136146677779</v>
       </c>
       <c r="H9">
         <v>1.030381089476476</v>
       </c>
       <c r="I9">
-        <v>35.904235169331017</v>
+        <v>35.90423516933102</v>
       </c>
       <c r="J9">
-        <v>9.0915978483218432E-2</v>
+        <v>0.09091597848321843</v>
       </c>
       <c r="K9">
-        <v>8.3339646942950221E-2</v>
+        <v>0.08333964694295022</v>
       </c>
       <c r="L9">
-        <v>0.25001894082885068</v>
+        <v>0.2500189408288507</v>
       </c>
       <c r="M9">
         <v>100</v>
@@ -1243,7 +1184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1254,28 +1195,28 @@
         <v>13.57353129399719</v>
       </c>
       <c r="E10">
-        <v>54.473313707922713</v>
+        <v>54.47331370792271</v>
       </c>
       <c r="F10">
-        <v>2.1374632023550499</v>
+        <v>2.13746320235505</v>
       </c>
       <c r="G10">
-        <v>0.19198771278638169</v>
+        <v>0.1919877127863817</v>
       </c>
       <c r="H10">
         <v>0.902342250095994</v>
       </c>
       <c r="I10">
-        <v>28.318187635991301</v>
+        <v>28.3181876359913</v>
       </c>
       <c r="J10">
-        <v>7.6795085114552672E-2</v>
+        <v>0.07679508511455267</v>
       </c>
       <c r="K10">
-        <v>8.3194675540765414E-2</v>
+        <v>0.08319467554076541</v>
       </c>
       <c r="L10">
-        <v>0.24318443619608349</v>
+        <v>0.2431844361960835</v>
       </c>
       <c r="M10">
         <v>100</v>
@@ -1302,7 +1243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1313,28 +1254,28 @@
         <v>12.13792032305661</v>
       </c>
       <c r="E11">
-        <v>55.393336957365847</v>
+        <v>55.39333695736585</v>
       </c>
       <c r="F11">
-        <v>2.2054826434728581</v>
+        <v>2.205482643472858</v>
       </c>
       <c r="G11">
         <v>0.2329735186767104</v>
       </c>
       <c r="H11">
-        <v>0.89306515492739003</v>
+        <v>0.89306515492739</v>
       </c>
       <c r="I11">
-        <v>28.741166420750179</v>
+        <v>28.74116642075018</v>
       </c>
       <c r="J11">
-        <v>7.7657839558903471E-2</v>
+        <v>0.07765783955890347</v>
       </c>
       <c r="K11">
-        <v>7.7657839558903471E-2</v>
+        <v>0.07765783955890347</v>
       </c>
       <c r="L11">
-        <v>0.24073930263260071</v>
+        <v>0.2407393026326007</v>
       </c>
       <c r="M11">
         <v>100</v>
@@ -1361,7 +1302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1372,31 +1313,31 @@
         <v>30</v>
       </c>
       <c r="D12">
-        <v>17.286256927579551</v>
+        <v>17.28625692757955</v>
       </c>
       <c r="E12">
-        <v>46.111214895074419</v>
+        <v>46.11121489507442</v>
       </c>
       <c r="F12">
-        <v>2.3725014010835048</v>
+        <v>2.372501401083505</v>
       </c>
       <c r="G12">
-        <v>0.44834672146459931</v>
+        <v>0.4483467214645993</v>
       </c>
       <c r="H12">
-        <v>0.76592564916869044</v>
+        <v>0.7659256491686904</v>
       </c>
       <c r="I12">
-        <v>32.449093966000383</v>
+        <v>32.44909396600038</v>
       </c>
       <c r="J12">
-        <v>6.8497415779313772E-2</v>
+        <v>0.06849741577931377</v>
       </c>
       <c r="K12">
         <v>0.1120866803661498</v>
       </c>
       <c r="L12">
-        <v>0.38607634348340503</v>
+        <v>0.386076343483405</v>
       </c>
       <c r="M12">
         <v>100</v>
@@ -1420,10 +1361,10 @@
         <v>1</v>
       </c>
       <c r="T12">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1431,31 +1372,31 @@
         <v>31</v>
       </c>
       <c r="D13">
-        <v>16.539376486791031</v>
+        <v>16.53937648679103</v>
       </c>
       <c r="E13">
-        <v>45.574057843996499</v>
+        <v>45.5740578439965</v>
       </c>
       <c r="F13">
         <v>2.760736196319018</v>
       </c>
       <c r="G13">
-        <v>0.35056967572304998</v>
+        <v>0.35056967572305</v>
       </c>
       <c r="H13">
-        <v>0.92024539877300615</v>
+        <v>0.9202453987730062</v>
       </c>
       <c r="I13">
         <v>33.30411919368975</v>
       </c>
       <c r="J13">
-        <v>8.1382246149993745E-2</v>
+        <v>0.08138224614999374</v>
       </c>
       <c r="K13">
         <v>0.1064229372730687</v>
       </c>
       <c r="L13">
-        <v>0.36309002128458739</v>
+        <v>0.3630900212845874</v>
       </c>
       <c r="M13">
         <v>100</v>
@@ -1479,10 +1420,10 @@
         <v>1</v>
       </c>
       <c r="T13">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1493,28 +1434,28 @@
         <v>8.303001755663086</v>
       </c>
       <c r="E14">
-        <v>59.114460668864822</v>
+        <v>59.11446066886482</v>
       </c>
       <c r="F14">
         <v>2.226694643086542</v>
       </c>
       <c r="G14">
-        <v>0.19269472872864299</v>
+        <v>0.192694728728643</v>
       </c>
       <c r="H14">
-        <v>0.89495996231747521</v>
+        <v>0.8949599623174752</v>
       </c>
       <c r="I14">
-        <v>28.805720892390699</v>
+        <v>28.8057208923907</v>
       </c>
       <c r="J14">
-        <v>9.4206311822892158E-2</v>
+        <v>0.09420631182289216</v>
       </c>
       <c r="K14">
-        <v>7.7077891491457204E-2</v>
+        <v>0.0770778914914572</v>
       </c>
       <c r="L14">
-        <v>0.29118314563439401</v>
+        <v>0.291183145634394</v>
       </c>
       <c r="M14">
         <v>100</v>
@@ -1541,7 +1482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1555,28 +1496,28 @@
         <v>23.49809885931559</v>
       </c>
       <c r="E15">
-        <v>34.513015501608663</v>
+        <v>34.51301550160866</v>
       </c>
       <c r="F15">
-        <v>2.4568587306229892</v>
+        <v>2.456858730622989</v>
       </c>
       <c r="G15">
-        <v>0.27493419128400121</v>
+        <v>0.2749341912840012</v>
       </c>
       <c r="H15">
-        <v>0.59666569172272599</v>
+        <v>0.596665691722726</v>
       </c>
       <c r="I15">
-        <v>38.250950570342212</v>
+        <v>38.25095057034221</v>
       </c>
       <c r="J15">
-        <v>9.3594618309447222E-2</v>
+        <v>0.09359461830944722</v>
       </c>
       <c r="K15">
-        <v>0.11114360924246861</v>
+        <v>0.1111436092424686</v>
       </c>
       <c r="L15">
-        <v>0.20473822755191581</v>
+        <v>0.2047382275519158</v>
       </c>
       <c r="M15">
         <v>100</v>
@@ -1600,10 +1541,10 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>0.16666666666666671</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1614,19 +1555,19 @@
         <v>27.83474776049033</v>
       </c>
       <c r="E16">
-        <v>28.365157944365869</v>
+        <v>28.36515794436587</v>
       </c>
       <c r="F16">
-        <v>2.6874115983026869</v>
+        <v>2.687411598302687</v>
       </c>
       <c r="G16">
-        <v>0.54219707685054219</v>
+        <v>0.5421970768505422</v>
       </c>
       <c r="H16">
-        <v>0.87812352663837812</v>
+        <v>0.8781235266383781</v>
       </c>
       <c r="I16">
-        <v>39.238566713814237</v>
+        <v>39.23856671381424</v>
       </c>
       <c r="J16">
         <v>0.1178689297501179</v>
@@ -1635,7 +1576,7 @@
         <v>0.1237623762376238</v>
       </c>
       <c r="L16">
-        <v>0.21216407355021219</v>
+        <v>0.2121640735502122</v>
       </c>
       <c r="M16">
         <v>100</v>
@@ -1662,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1673,34 +1614,34 @@
         <v>34</v>
       </c>
       <c r="D17">
-        <v>20.877279448003939</v>
+        <v>20.87727944800394</v>
       </c>
       <c r="E17">
-        <v>7.9053721044849681</v>
+        <v>7.905372104484968</v>
       </c>
       <c r="F17">
-        <v>4.5835386890093641</v>
+        <v>4.583538689009364</v>
       </c>
       <c r="G17">
-        <v>0.20699852143913261</v>
+        <v>0.2069985214391326</v>
       </c>
       <c r="H17">
-        <v>0.60128141941843272</v>
+        <v>0.6012814194184327</v>
       </c>
       <c r="I17">
-        <v>65.352390340068993</v>
+        <v>65.35239034006899</v>
       </c>
       <c r="J17">
-        <v>6.8999507146377523E-2</v>
+        <v>0.06899950714637752</v>
       </c>
       <c r="K17">
-        <v>0.12814194184327249</v>
+        <v>0.1281419418432725</v>
       </c>
       <c r="L17">
-        <v>0.27599802858551009</v>
+        <v>0.2759980285855101</v>
       </c>
       <c r="M17">
-        <v>99.999999999999986</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1724,7 +1665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1732,34 +1673,34 @@
         <v>27</v>
       </c>
       <c r="D18">
-        <v>19.657384747668491</v>
+        <v>19.65738474766849</v>
       </c>
       <c r="E18">
-        <v>7.8708909319399432</v>
+        <v>7.870890931939943</v>
       </c>
       <c r="F18">
-        <v>5.2384416958793576</v>
+        <v>5.238441695879358</v>
       </c>
       <c r="G18">
-        <v>0.74078973477081811</v>
+        <v>0.7407897347708181</v>
       </c>
       <c r="H18">
-        <v>0.98551491500760613</v>
+        <v>0.9855149150076061</v>
       </c>
       <c r="I18">
         <v>64.97784244989748</v>
       </c>
       <c r="J18">
-        <v>0.11244129902771351</v>
+        <v>0.1124412990277135</v>
       </c>
       <c r="K18">
-        <v>0.13228388120907469</v>
+        <v>0.1322838812090747</v>
       </c>
       <c r="L18">
-        <v>0.28441034459951048</v>
+        <v>0.2844103445995105</v>
       </c>
       <c r="M18">
-        <v>99.999999999999986</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1783,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1791,31 +1732,31 @@
         <v>35</v>
       </c>
       <c r="D19">
-        <v>23.676156913660389</v>
+        <v>23.67615691366039</v>
       </c>
       <c r="E19">
-        <v>8.1238987294815903</v>
+        <v>8.12389872948159</v>
       </c>
       <c r="F19">
-        <v>4.7018454975424291</v>
+        <v>4.701845497542429</v>
       </c>
       <c r="G19">
-        <v>0.18547713994250209</v>
+        <v>0.1854771399425021</v>
       </c>
       <c r="H19">
-        <v>0.61207456181025699</v>
+        <v>0.612074561810257</v>
       </c>
       <c r="I19">
-        <v>62.218306593712327</v>
+        <v>62.21830659371233</v>
       </c>
       <c r="J19">
-        <v>7.4190855977000841E-2</v>
+        <v>0.07419085597700084</v>
       </c>
       <c r="K19">
-        <v>0.12983399795975151</v>
+        <v>0.1298339979597515</v>
       </c>
       <c r="L19">
-        <v>0.27821570991375311</v>
+        <v>0.2782157099137531</v>
       </c>
       <c r="M19">
         <v>100</v>
@@ -1842,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1853,34 +1794,34 @@
         <v>36</v>
       </c>
       <c r="D20">
-        <v>20.028375502482849</v>
+        <v>20.02837550248285</v>
       </c>
       <c r="E20">
-        <v>33.388507921494437</v>
+        <v>33.38850792149444</v>
       </c>
       <c r="F20">
-        <v>4.0592732718530771</v>
+        <v>4.059273271853077</v>
       </c>
       <c r="G20">
-        <v>0.42563253724284689</v>
+        <v>0.4256325372428469</v>
       </c>
       <c r="H20">
-        <v>0.85914715850870949</v>
+        <v>0.8591471585087095</v>
       </c>
       <c r="I20">
-        <v>40.687317726806967</v>
+        <v>40.68731772680697</v>
       </c>
       <c r="J20">
-        <v>7.8820840230156841E-2</v>
+        <v>0.07882084023015684</v>
       </c>
       <c r="K20">
-        <v>0.15764168046031371</v>
+        <v>0.1576416804603137</v>
       </c>
       <c r="L20">
-        <v>0.31528336092062742</v>
+        <v>0.3152833609206274</v>
       </c>
       <c r="M20">
-        <v>99.999999999999986</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1904,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1915,28 +1856,28 @@
         <v>20.74595682117155</v>
       </c>
       <c r="E21">
-        <v>33.219840594289259</v>
+        <v>33.21984059428926</v>
       </c>
       <c r="F21">
-        <v>4.0625241816915576</v>
+        <v>4.062524181691558</v>
       </c>
       <c r="G21">
-        <v>0.44107405401222632</v>
+        <v>0.4410740540122263</v>
       </c>
       <c r="H21">
-        <v>0.83571926023369192</v>
+        <v>0.8357192602336919</v>
       </c>
       <c r="I21">
-        <v>40.091310067321828</v>
+        <v>40.09131006732183</v>
       </c>
       <c r="J21">
-        <v>7.7381412984601106E-2</v>
+        <v>0.07738141298460111</v>
       </c>
       <c r="K21">
-        <v>0.17797724986458249</v>
+        <v>0.1779772498645825</v>
       </c>
       <c r="L21">
-        <v>0.34821635843070492</v>
+        <v>0.3482163584307049</v>
       </c>
       <c r="M21">
         <v>100</v>
@@ -1963,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1980,28 +1921,28 @@
         <v>24.7325968788357</v>
       </c>
       <c r="F22">
-        <v>3.1036296685954752</v>
+        <v>3.103629668595475</v>
       </c>
       <c r="G22">
-        <v>0.62247939680869702</v>
+        <v>0.622479396808697</v>
       </c>
       <c r="H22">
-        <v>0.68385060494476579</v>
+        <v>0.6838506049447658</v>
       </c>
       <c r="I22">
-        <v>54.962300543573548</v>
+        <v>54.96230054357355</v>
       </c>
       <c r="J22">
-        <v>6.1371208136068729E-2</v>
+        <v>0.06137120813606873</v>
       </c>
       <c r="K22">
-        <v>0.13150973172014729</v>
+        <v>0.1315097317201473</v>
       </c>
       <c r="L22">
-        <v>0.19288093985621599</v>
+        <v>0.192880939856216</v>
       </c>
       <c r="M22">
-        <v>99.999999999999972</v>
+        <v>99.99999999999997</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -2022,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>0.16666666666666671</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2039,22 +1980,22 @@
         <v>25.1539061822596</v>
       </c>
       <c r="F23">
-        <v>2.8873666868984662</v>
+        <v>2.887366686898466</v>
       </c>
       <c r="G23">
-        <v>0.40752622908176539</v>
+        <v>0.4075262290817654</v>
       </c>
       <c r="H23">
-        <v>0.57227087488077699</v>
+        <v>0.572270874880777</v>
       </c>
       <c r="I23">
-        <v>53.923523801265937</v>
+        <v>53.92352380126594</v>
       </c>
       <c r="J23">
-        <v>6.0695395820688461E-2</v>
+        <v>0.06069539582068846</v>
       </c>
       <c r="K23">
-        <v>0.13006156247290379</v>
+        <v>0.1300615624729038</v>
       </c>
       <c r="L23">
         <v>0.1820861874620654</v>
@@ -2081,10 +2022,10 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>0.16666666666666671</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2092,34 +2033,34 @@
         <v>31</v>
       </c>
       <c r="D24">
-        <v>23.115346192269261</v>
+        <v>23.11534619226926</v>
       </c>
       <c r="E24">
         <v>11.09659571198033</v>
       </c>
       <c r="F24">
-        <v>4.9950049950049964</v>
+        <v>4.995004995004996</v>
       </c>
       <c r="G24">
-        <v>1.0220548682087141</v>
+        <v>1.022054868208714</v>
       </c>
       <c r="H24">
-        <v>1.1142703450395759</v>
+        <v>1.114270345039576</v>
       </c>
       <c r="I24">
-        <v>58.149542764927382</v>
+        <v>58.14954276492738</v>
       </c>
       <c r="J24">
         <v>0.1383232152462921</v>
       </c>
       <c r="K24">
-        <v>0.15369246138476911</v>
+        <v>0.1536924613847691</v>
       </c>
       <c r="L24">
-        <v>0.21516944593867671</v>
+        <v>0.2151694459386767</v>
       </c>
       <c r="M24">
-        <v>99.999999999999986</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2143,7 +2084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2151,25 +2092,25 @@
         <v>27</v>
       </c>
       <c r="D25">
-        <v>23.335636950011519</v>
+        <v>23.33563695001152</v>
       </c>
       <c r="E25">
-        <v>10.089841050449211</v>
+        <v>10.08984105044921</v>
       </c>
       <c r="F25">
-        <v>4.3999078553328719</v>
+        <v>4.399907855332872</v>
       </c>
       <c r="G25">
         <v>1.098057283268064</v>
       </c>
       <c r="H25">
-        <v>1.2055593949166861</v>
+        <v>1.205559394916686</v>
       </c>
       <c r="I25">
-        <v>59.364201796821007</v>
+        <v>59.36420179682101</v>
       </c>
       <c r="J25">
-        <v>0.14589572295170081</v>
+        <v>0.1458957229517008</v>
       </c>
       <c r="K25">
         <v>0.1535744452123167</v>
@@ -2202,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2213,31 +2154,31 @@
         <v>38</v>
       </c>
       <c r="D26">
-        <v>25.304878048780491</v>
+        <v>25.30487804878049</v>
       </c>
       <c r="E26">
         <v>17.26829268292683</v>
       </c>
       <c r="F26">
-        <v>4.8536585365853657</v>
+        <v>4.853658536585366</v>
       </c>
       <c r="G26">
-        <v>0.90243902439024393</v>
+        <v>0.9024390243902439</v>
       </c>
       <c r="H26">
-        <v>1.0853658536585371</v>
+        <v>1.085365853658537</v>
       </c>
       <c r="I26">
-        <v>50.170731707317067</v>
+        <v>50.17073170731707</v>
       </c>
       <c r="J26">
-        <v>8.5365853658536592E-2</v>
+        <v>0.08536585365853659</v>
       </c>
       <c r="K26">
-        <v>0.15853658536585369</v>
+        <v>0.1585365853658537</v>
       </c>
       <c r="L26">
-        <v>0.17073170731707321</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="M26">
         <v>100</v>
@@ -2264,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2275,28 +2216,28 @@
         <v>43.03147810218978</v>
       </c>
       <c r="E27">
-        <v>8.0976277372262775</v>
+        <v>8.097627737226277</v>
       </c>
       <c r="F27">
-        <v>5.6797445255474441</v>
+        <v>5.679744525547444</v>
       </c>
       <c r="G27">
-        <v>0.61587591240875916</v>
+        <v>0.6158759124087592</v>
       </c>
       <c r="H27">
-        <v>0.72992700729927007</v>
+        <v>0.7299270072992701</v>
       </c>
       <c r="I27">
-        <v>41.309306569343057</v>
+        <v>41.30930656934306</v>
       </c>
       <c r="J27">
-        <v>0.11405109489051091</v>
+        <v>0.1140510948905109</v>
       </c>
       <c r="K27">
         <v>0.2281021897810219</v>
       </c>
       <c r="L27">
-        <v>0.19388686131386859</v>
+        <v>0.1938868613138686</v>
       </c>
       <c r="M27">
         <v>100</v>
@@ -2323,7 +2264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2331,22 +2272,22 @@
         <v>40</v>
       </c>
       <c r="D28">
-        <v>32.456371130404271</v>
+        <v>32.45637113040427</v>
       </c>
       <c r="E28">
-        <v>16.811365430149959</v>
+        <v>16.81136543014996</v>
       </c>
       <c r="F28">
-        <v>4.3760413926159778</v>
+        <v>4.376041392615978</v>
       </c>
       <c r="G28">
-        <v>0.38586336928878351</v>
+        <v>0.3858633692887835</v>
       </c>
       <c r="H28">
-        <v>0.70156976234324286</v>
+        <v>0.7015697623432429</v>
       </c>
       <c r="I28">
-        <v>44.839077435762512</v>
+        <v>44.83907743576251</v>
       </c>
       <c r="J28">
         <v>0.1052354643514864</v>
@@ -2355,10 +2296,10 @@
         <v>0.1490835744979391</v>
       </c>
       <c r="L28">
-        <v>0.17539244058581069</v>
+        <v>0.1753924405858107</v>
       </c>
       <c r="M28">
-        <v>99.999999999999957</v>
+        <v>99.99999999999996</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2382,7 +2323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2393,31 +2334,31 @@
         <v>41</v>
       </c>
       <c r="D29">
-        <v>16.206535034073038</v>
+        <v>16.20653503407304</v>
       </c>
       <c r="E29">
-        <v>38.284116721998963</v>
+        <v>38.28411672199896</v>
       </c>
       <c r="F29">
-        <v>2.8219465315394028</v>
+        <v>2.821946531539403</v>
       </c>
       <c r="G29">
-        <v>0.32325703302463737</v>
+        <v>0.3232570330246374</v>
       </c>
       <c r="H29">
-        <v>1.0484011881880131</v>
+        <v>1.048401188188013</v>
       </c>
       <c r="I29">
-        <v>40.896383015900753</v>
+        <v>40.89638301590075</v>
       </c>
       <c r="J29">
-        <v>6.9893412545867561E-2</v>
+        <v>0.06989341254586756</v>
       </c>
       <c r="K29">
-        <v>9.6103442250567897E-2</v>
+        <v>0.0961034422505679</v>
       </c>
       <c r="L29">
-        <v>0.25336362047876992</v>
+        <v>0.2533636204787699</v>
       </c>
       <c r="M29">
         <v>100</v>
@@ -2444,7 +2385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2452,31 +2393,31 @@
         <v>24</v>
       </c>
       <c r="D30">
-        <v>19.226574951765791</v>
+        <v>19.22657495176579</v>
       </c>
       <c r="E30">
-        <v>37.572351312809317</v>
+        <v>37.57235131280932</v>
       </c>
       <c r="F30">
-        <v>2.9695495344350298</v>
+        <v>2.96954953443503</v>
       </c>
       <c r="G30">
-        <v>0.31876520426138749</v>
+        <v>0.3187652042613875</v>
       </c>
       <c r="H30">
         <v>1.023404076839191</v>
       </c>
       <c r="I30">
-        <v>38.511869809579743</v>
+        <v>38.51186980957974</v>
       </c>
       <c r="J30">
-        <v>5.0331348041271699E-2</v>
+        <v>0.0503313480412717</v>
       </c>
       <c r="K30">
-        <v>9.2274138075664786E-2</v>
+        <v>0.09227413807566479</v>
       </c>
       <c r="L30">
-        <v>0.23487962419260131</v>
+        <v>0.2348796241926013</v>
       </c>
       <c r="M30">
         <v>100</v>
@@ -2500,10 +2441,10 @@
         <v>1</v>
       </c>
       <c r="T30">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2517,28 +2458,28 @@
         <v>17.5602255253716</v>
       </c>
       <c r="E31">
-        <v>36.268580215274213</v>
+        <v>36.26858021527421</v>
       </c>
       <c r="F31">
-        <v>3.5981547924141459</v>
+        <v>3.598154792414146</v>
       </c>
       <c r="G31">
-        <v>0.21527421834956431</v>
+        <v>0.2152742183495643</v>
       </c>
       <c r="H31">
-        <v>1.0661199384930811</v>
+        <v>1.066119938493081</v>
       </c>
       <c r="I31">
-        <v>40.994361865709891</v>
+        <v>40.99436186570989</v>
       </c>
       <c r="J31">
-        <v>6.1506919528446953E-2</v>
+        <v>0.06150691952844695</v>
       </c>
       <c r="K31">
-        <v>8.2009226037929261E-2</v>
+        <v>0.08200922603792926</v>
       </c>
       <c r="L31">
-        <v>0.15376729882111739</v>
+        <v>0.1537672988211174</v>
       </c>
       <c r="M31">
         <v>100</v>
@@ -2565,7 +2506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2573,7 +2514,7 @@
         <v>27</v>
       </c>
       <c r="D32">
-        <v>17.921716669978139</v>
+        <v>17.92171666997814</v>
       </c>
       <c r="E32">
         <v>36.41963043910193</v>
@@ -2582,25 +2523,25 @@
         <v>3.67574011523942</v>
       </c>
       <c r="G32">
-        <v>0.25829525134114839</v>
+        <v>0.2582952513411484</v>
       </c>
       <c r="H32">
         <v>1.102722034571826</v>
       </c>
       <c r="I32">
-        <v>40.333796940194709</v>
+        <v>40.33379694019471</v>
       </c>
       <c r="J32">
-        <v>5.9606596463341939E-2</v>
+        <v>0.05960659646334194</v>
       </c>
       <c r="K32">
-        <v>7.9475461951122595E-2</v>
+        <v>0.07947546195112259</v>
       </c>
       <c r="L32">
         <v>0.1490164911583548</v>
       </c>
       <c r="M32">
-        <v>99.999999999999986</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2621,10 +2562,10 @@
         <v>0</v>
       </c>
       <c r="T32">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2632,13 +2573,13 @@
         <v>35</v>
       </c>
       <c r="D33">
-        <v>18.228571428571431</v>
+        <v>18.22857142857143</v>
       </c>
       <c r="E33">
-        <v>35.885714285714293</v>
+        <v>35.88571428571429</v>
       </c>
       <c r="F33">
-        <v>3.1523809523809532</v>
+        <v>3.152380952380953</v>
       </c>
       <c r="G33">
         <v>0.1428571428571429</v>
@@ -2647,13 +2588,13 @@
         <v>1.142857142857143</v>
       </c>
       <c r="I33">
-        <v>41.152380952380938</v>
+        <v>41.15238095238094</v>
       </c>
       <c r="J33">
-        <v>6.666666666666668E-2</v>
+        <v>0.06666666666666668</v>
       </c>
       <c r="K33">
-        <v>8.5714285714285715E-2</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="L33">
         <v>0.1428571428571429</v>
@@ -2680,10 +2621,10 @@
         <v>0</v>
       </c>
       <c r="T33">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2691,34 +2632,34 @@
         <v>32</v>
       </c>
       <c r="D34">
-        <v>15.176558978211871</v>
+        <v>15.17655897821187</v>
       </c>
       <c r="E34">
-        <v>36.181174197703122</v>
+        <v>36.18117419770312</v>
       </c>
       <c r="F34">
         <v>3.337984329719867</v>
       </c>
       <c r="G34">
-        <v>0.16099602876462379</v>
+        <v>0.1609960287646238</v>
       </c>
       <c r="H34">
-        <v>1.3738327787914559</v>
+        <v>1.373832778791456</v>
       </c>
       <c r="I34">
         <v>43.39379628635826</v>
       </c>
       <c r="J34">
-        <v>6.4398411505849518E-2</v>
+        <v>0.06439841150584952</v>
       </c>
       <c r="K34">
         <v>0.1073306858430825</v>
       </c>
       <c r="L34">
-        <v>0.20392830310185681</v>
+        <v>0.2039283031018568</v>
       </c>
       <c r="M34">
-        <v>99.999999999999972</v>
+        <v>99.99999999999997</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2742,7 +2683,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2750,31 +2691,31 @@
         <v>43</v>
       </c>
       <c r="D35">
-        <v>16.476482048427499</v>
+        <v>16.4764820484275</v>
       </c>
       <c r="E35">
-        <v>36.557194544948523</v>
+        <v>36.55719454494852</v>
       </c>
       <c r="F35">
-        <v>3.8268856109101042</v>
+        <v>3.826885610910104</v>
       </c>
       <c r="G35">
-        <v>0.25048705816866129</v>
+        <v>0.2504870581686613</v>
       </c>
       <c r="H35">
-        <v>1.3637628722516011</v>
+        <v>1.363762872251601</v>
       </c>
       <c r="I35">
-        <v>41.177289173392722</v>
+        <v>41.17728917339272</v>
       </c>
       <c r="J35">
-        <v>6.9579738380183706E-2</v>
+        <v>0.06957973838018371</v>
       </c>
       <c r="K35">
-        <v>0.11132758140829389</v>
+        <v>0.1113275814082939</v>
       </c>
       <c r="L35">
-        <v>0.16699137211244089</v>
+        <v>0.1669913721124409</v>
       </c>
       <c r="M35">
         <v>100</v>
@@ -2798,10 +2739,10 @@
         <v>0</v>
       </c>
       <c r="T35">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2815,25 +2756,25 @@
         <v>37.48783915252406</v>
       </c>
       <c r="F36">
-        <v>3.6212301372824571</v>
+        <v>3.621230137282457</v>
       </c>
       <c r="G36">
-        <v>0.41076640363203981</v>
+        <v>0.4107664036320398</v>
       </c>
       <c r="H36">
         <v>1.643065614528159</v>
       </c>
       <c r="I36">
-        <v>46.362555399416287</v>
+        <v>46.36255539941629</v>
       </c>
       <c r="J36">
-        <v>8.6477137606745233E-2</v>
+        <v>0.08647713760674523</v>
       </c>
       <c r="K36">
         <v>0.140525348610961</v>
       </c>
       <c r="L36">
-        <v>0.21619284401686309</v>
+        <v>0.2161928440168631</v>
       </c>
       <c r="M36">
         <v>100</v>
@@ -2860,7 +2801,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2871,19 +2812,19 @@
         <v>45</v>
       </c>
       <c r="D37">
-        <v>24.177908937605391</v>
+        <v>24.17790893760539</v>
       </c>
       <c r="E37">
-        <v>43.107082630691387</v>
+        <v>43.10708263069139</v>
       </c>
       <c r="F37">
-        <v>2.0657672849915678</v>
+        <v>2.065767284991568</v>
       </c>
       <c r="G37">
-        <v>0.32672849915682961</v>
+        <v>0.3267284991568296</v>
       </c>
       <c r="H37">
-        <v>1.0645025295109609</v>
+        <v>1.064502529510961</v>
       </c>
       <c r="I37">
         <v>28.87858347386172</v>
@@ -2892,7 +2833,7 @@
         <v>0.1053962900505902</v>
       </c>
       <c r="K37">
-        <v>0.12647554806070821</v>
+        <v>0.1264755480607082</v>
       </c>
       <c r="L37">
         <v>0.1475548060708263</v>
@@ -2922,7 +2863,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2930,16 +2871,16 @@
         <v>43</v>
       </c>
       <c r="D38">
-        <v>16.756756756756751</v>
+        <v>16.75675675675675</v>
       </c>
       <c r="E38">
-        <v>47.156756756756742</v>
+        <v>47.15675675675674</v>
       </c>
       <c r="F38">
         <v>2.021621621621621</v>
       </c>
       <c r="G38">
-        <v>0.39999999999999991</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="H38">
         <v>1.2</v>
@@ -2948,16 +2889,16 @@
         <v>31.92432432432431</v>
       </c>
       <c r="J38">
-        <v>0.19459459459459449</v>
+        <v>0.1945945945945945</v>
       </c>
       <c r="K38">
         <v>0.1513513513513513</v>
       </c>
       <c r="L38">
-        <v>0.19459459459459449</v>
+        <v>0.1945945945945945</v>
       </c>
       <c r="M38">
-        <v>99.999999999999972</v>
+        <v>99.99999999999997</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2978,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="T38">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2989,31 +2930,31 @@
         <v>44</v>
       </c>
       <c r="D39">
-        <v>2.6904559614839991</v>
+        <v>2.690455961483999</v>
       </c>
       <c r="E39">
-        <v>49.773435287453971</v>
+        <v>49.77343528745397</v>
       </c>
       <c r="F39">
         <v>1.713395638629283</v>
       </c>
       <c r="G39">
-        <v>0.56641178136505221</v>
+        <v>0.5664117813650522</v>
       </c>
       <c r="H39">
-        <v>1.6992353440951571</v>
+        <v>1.699235344095157</v>
       </c>
       <c r="I39">
-        <v>42.934013027470968</v>
+        <v>42.93401302747097</v>
       </c>
       <c r="J39">
-        <v>0.16992353440951569</v>
+        <v>0.1699235344095157</v>
       </c>
       <c r="K39">
-        <v>0.21240441801189461</v>
+        <v>0.2124044180118946</v>
       </c>
       <c r="L39">
-        <v>0.24072500708014721</v>
+        <v>0.2407250070801472</v>
       </c>
       <c r="M39">
         <v>100</v>
@@ -3037,10 +2978,10 @@
         <v>0</v>
       </c>
       <c r="T39">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3051,34 +2992,34 @@
         <v>46</v>
       </c>
       <c r="D40">
-        <v>11.629482650147599</v>
+        <v>11.6294826501476</v>
       </c>
       <c r="E40">
         <v>61.10438948845762</v>
       </c>
       <c r="F40">
-        <v>4.4959589604607277</v>
+        <v>4.495958960460728</v>
       </c>
       <c r="G40">
-        <v>0.45491942118763001</v>
+        <v>0.45491942118763</v>
       </c>
       <c r="H40">
-        <v>0.91951797899627352</v>
+        <v>0.9195179789962735</v>
       </c>
       <c r="I40">
         <v>20.90693510138895</v>
       </c>
       <c r="J40">
-        <v>4.8395683105067019E-2</v>
+        <v>0.04839568310506702</v>
       </c>
       <c r="K40">
-        <v>7.7433092968107242E-2</v>
+        <v>0.07743309296810724</v>
       </c>
       <c r="L40">
-        <v>0.36296762328800269</v>
+        <v>0.3629676232880027</v>
       </c>
       <c r="M40">
-        <v>99.999999999999972</v>
+        <v>99.99999999999997</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -3102,7 +3043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3113,31 +3054,31 @@
         <v>11.58564520234156</v>
       </c>
       <c r="E41">
-        <v>61.063883939933817</v>
+        <v>61.06388393993382</v>
       </c>
       <c r="F41">
-        <v>4.4795113260371586</v>
+        <v>4.479511326037159</v>
       </c>
       <c r="G41">
-        <v>0.46322219394247888</v>
+        <v>0.4632221939424789</v>
       </c>
       <c r="H41">
-        <v>1.0944260626113509</v>
+        <v>1.094426062611351</v>
       </c>
       <c r="I41">
-        <v>20.819546958513609</v>
+        <v>20.81954695851361</v>
       </c>
       <c r="J41">
-        <v>5.5993891575464479E-2</v>
+        <v>0.05599389157546448</v>
       </c>
       <c r="K41">
-        <v>7.6355306693815211E-2</v>
+        <v>0.07635530669381521</v>
       </c>
       <c r="L41">
-        <v>0.36141511835072537</v>
+        <v>0.3614151183507254</v>
       </c>
       <c r="M41">
-        <v>99.999999999999986</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -3161,7 +3102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3175,28 +3116,28 @@
         <v>17.41092739660634</v>
       </c>
       <c r="E42">
-        <v>54.827930391008117</v>
+        <v>54.82793039100812</v>
       </c>
       <c r="F42">
-        <v>5.5070954302825141</v>
+        <v>5.507095430282514</v>
       </c>
       <c r="G42">
-        <v>0.19962678470685241</v>
+        <v>0.1996267847068524</v>
       </c>
       <c r="H42">
         <v>1.176062144686022</v>
       </c>
       <c r="I42">
-        <v>20.340233476543851</v>
+        <v>20.34023347654385</v>
       </c>
       <c r="J42">
-        <v>5.2076552532222348E-2</v>
+        <v>0.05207655253222235</v>
       </c>
       <c r="K42">
-        <v>7.8114828798333535E-2</v>
+        <v>0.07811482879833354</v>
       </c>
       <c r="L42">
-        <v>0.40793299483574191</v>
+        <v>0.4079329948357419</v>
       </c>
       <c r="M42">
         <v>100</v>
@@ -3223,7 +3164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3234,31 +3175,31 @@
         <v>16.53589413280244</v>
       </c>
       <c r="E43">
-        <v>55.006441035250027</v>
+        <v>55.00644103525003</v>
       </c>
       <c r="F43">
-        <v>5.6720146777530553</v>
+        <v>5.672014677753055</v>
       </c>
       <c r="G43">
         <v>0.2420267790920092</v>
       </c>
       <c r="H43">
-        <v>1.2569777881875319</v>
+        <v>1.256977788187532</v>
       </c>
       <c r="I43">
-        <v>20.759651793730718</v>
+        <v>20.75965179373072</v>
       </c>
       <c r="J43">
-        <v>5.0747550454776129E-2</v>
+        <v>0.05074755045477613</v>
       </c>
       <c r="K43">
-        <v>8.19768122730999E-2</v>
+        <v>0.0819768122730999</v>
       </c>
       <c r="L43">
-        <v>0.39426943045633772</v>
+        <v>0.3942694304563377</v>
       </c>
       <c r="M43">
-        <v>99.999999999999986</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -3282,7 +3223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3293,10 +3234,10 @@
         <v>48</v>
       </c>
       <c r="D44">
-        <v>18.101324299353251</v>
+        <v>18.10132429935325</v>
       </c>
       <c r="E44">
-        <v>33.107483831228834</v>
+        <v>33.10748383122883</v>
       </c>
       <c r="F44">
         <v>3.926701570680629</v>
@@ -3305,22 +3246,22 @@
         <v>0.1154912226670773</v>
       </c>
       <c r="H44">
-        <v>0.77764089929165392</v>
+        <v>0.7776408992916539</v>
       </c>
       <c r="I44">
-        <v>43.178318447797963</v>
+        <v>43.17831844779796</v>
       </c>
       <c r="J44">
-        <v>9.2392978133661846E-2</v>
+        <v>0.09239297813366185</v>
       </c>
       <c r="K44">
-        <v>0.22328303048968279</v>
+        <v>0.2232830304896828</v>
       </c>
       <c r="L44">
-        <v>0.47736372035725277</v>
+        <v>0.4773637203572528</v>
       </c>
       <c r="M44">
-        <v>99.999999999999986</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -3341,10 +3282,10 @@
         <v>0</v>
       </c>
       <c r="T44">
-        <v>0.16666666666666671</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3355,25 +3296,25 @@
         <v>13.40338493623165</v>
       </c>
       <c r="E45">
-        <v>33.696959974332231</v>
+        <v>33.69695997433223</v>
       </c>
       <c r="F45">
-        <v>4.2191385257078693</v>
+        <v>4.219138525707869</v>
       </c>
       <c r="G45">
-        <v>0.25667762894040258</v>
+        <v>0.2566776289404026</v>
       </c>
       <c r="H45">
         <v>0.9785834603352852</v>
       </c>
       <c r="I45">
-        <v>46.570947300874309</v>
+        <v>46.57094730087431</v>
       </c>
       <c r="J45">
-        <v>9.6254110852651009E-2</v>
+        <v>0.09625411085265101</v>
       </c>
       <c r="K45">
-        <v>0.24865645303601511</v>
+        <v>0.2486564530360151</v>
       </c>
       <c r="L45">
         <v>0.5293976096895805</v>
@@ -3400,10 +3341,10 @@
         <v>0</v>
       </c>
       <c r="T45">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3414,34 +3355,34 @@
         <v>49</v>
       </c>
       <c r="D46">
-        <v>15.775900400177861</v>
+        <v>15.77590040017786</v>
       </c>
       <c r="E46">
-        <v>22.276567363272559</v>
+        <v>22.27656736327256</v>
       </c>
       <c r="F46">
         <v>4.144064028457092</v>
       </c>
       <c r="G46">
-        <v>0.92485549132947964</v>
+        <v>0.9248554913294796</v>
       </c>
       <c r="H46">
-        <v>1.6096042685638059</v>
+        <v>1.609604268563806</v>
       </c>
       <c r="I46">
-        <v>54.762116496220543</v>
+        <v>54.76211649622054</v>
       </c>
       <c r="J46">
         <v>0.1956425077812361</v>
       </c>
       <c r="K46">
-        <v>0.18674966651845271</v>
+        <v>0.1867496665184527</v>
       </c>
       <c r="L46">
         <v>0.1244997776789684</v>
       </c>
       <c r="M46">
-        <v>99.999999999999986</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3465,7 +3406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3473,34 +3414,34 @@
         <v>24</v>
       </c>
       <c r="D47">
-        <v>18.755883275807971</v>
+        <v>18.75588327580797</v>
       </c>
       <c r="E47">
-        <v>22.207405083150299</v>
+        <v>22.2074050831503</v>
       </c>
       <c r="F47">
-        <v>3.9770944461876381</v>
+        <v>3.977094446187638</v>
       </c>
       <c r="G47">
         <v>0.6118606840288674</v>
       </c>
       <c r="H47">
-        <v>1.4433636648886099</v>
+        <v>1.44336366488861</v>
       </c>
       <c r="I47">
-        <v>52.549419516786948</v>
+        <v>52.54941951678695</v>
       </c>
       <c r="J47">
-        <v>0.18042045811107629</v>
+        <v>0.1804204581110763</v>
       </c>
       <c r="K47">
-        <v>0.16473172262315661</v>
+        <v>0.1647317226231566</v>
       </c>
       <c r="L47">
-        <v>0.10982114841543771</v>
+        <v>0.1098211484154377</v>
       </c>
       <c r="M47">
-        <v>99.999999999999986</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3524,7 +3465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3538,31 +3479,31 @@
         <v>16.49914334665905</v>
       </c>
       <c r="E48">
-        <v>45.391205025699598</v>
+        <v>45.3912050256996</v>
       </c>
       <c r="F48">
-        <v>3.1810394060536828</v>
+        <v>3.181039406053683</v>
       </c>
       <c r="G48">
-        <v>0.51970302684180458</v>
+        <v>0.5197030268418046</v>
       </c>
       <c r="H48">
-        <v>0.81667618503712158</v>
+        <v>0.8166761850371216</v>
       </c>
       <c r="I48">
-        <v>33.192461450599652</v>
+        <v>33.19246145059965</v>
       </c>
       <c r="J48">
         <v>0.1599086236436322</v>
       </c>
       <c r="K48">
-        <v>8.5665334094802967E-2</v>
+        <v>0.08566533409480297</v>
       </c>
       <c r="L48">
-        <v>0.15419760137064531</v>
+        <v>0.1541976013706453</v>
       </c>
       <c r="M48">
-        <v>99.999999999999986</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3583,10 +3524,10 @@
         <v>0</v>
       </c>
       <c r="T48">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3594,31 +3535,31 @@
         <v>24</v>
       </c>
       <c r="D49">
-        <v>16.064627813040971</v>
+        <v>16.06462781304097</v>
       </c>
       <c r="E49">
-        <v>45.793421811886908</v>
+        <v>45.79342181188691</v>
       </c>
       <c r="F49">
-        <v>2.9774956722446628</v>
+        <v>2.977495672244663</v>
       </c>
       <c r="G49">
-        <v>0.53087132140796311</v>
+        <v>0.5308713214079631</v>
       </c>
       <c r="H49">
-        <v>0.79630698211194462</v>
+        <v>0.7963069821119446</v>
       </c>
       <c r="I49">
-        <v>33.439122908251591</v>
+        <v>33.43912290825159</v>
       </c>
       <c r="J49">
-        <v>0.16156953260242349</v>
+        <v>0.1615695326024235</v>
       </c>
       <c r="K49">
-        <v>9.2325447201384886E-2</v>
+        <v>0.09232544720138489</v>
       </c>
       <c r="L49">
-        <v>0.14425851125216391</v>
+        <v>0.1442585112521639</v>
       </c>
       <c r="M49">
         <v>100</v>
@@ -3642,10 +3583,10 @@
         <v>0</v>
       </c>
       <c r="T49">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3656,31 +3597,31 @@
         <v>18.86923562855338</v>
       </c>
       <c r="E50">
-        <v>49.172457359444088</v>
+        <v>49.17245735944409</v>
       </c>
       <c r="F50">
-        <v>3.2533164876816181</v>
+        <v>3.253316487681618</v>
       </c>
       <c r="G50">
-        <v>0.48010107391029688</v>
+        <v>0.4801010739102969</v>
       </c>
       <c r="H50">
-        <v>0.81490840176879342</v>
+        <v>0.8149084017687934</v>
       </c>
       <c r="I50">
-        <v>26.974099810486411</v>
+        <v>26.97409981048641</v>
       </c>
       <c r="J50">
-        <v>0.15792798483891349</v>
+        <v>0.1579279848389135</v>
       </c>
       <c r="K50">
         <v>0.1137081490840177</v>
       </c>
       <c r="L50">
-        <v>0.16424510423246999</v>
+        <v>0.16424510423247</v>
       </c>
       <c r="M50">
-        <v>99.999999999999972</v>
+        <v>99.99999999999997</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3701,10 +3642,10 @@
         <v>0</v>
       </c>
       <c r="T50">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3715,10 +3656,10 @@
         <v>51</v>
       </c>
       <c r="D51">
-        <v>20.829348271621811</v>
+        <v>20.82934827162181</v>
       </c>
       <c r="E51">
-        <v>41.754338024320283</v>
+        <v>41.75433802432028</v>
       </c>
       <c r="F51">
         <v>3.169831944254681</v>
@@ -3727,19 +3668,19 @@
         <v>0.3689028555813636</v>
       </c>
       <c r="H51">
-        <v>0.78562645170105239</v>
+        <v>0.7856264517010524</v>
       </c>
       <c r="I51">
-        <v>32.647902718950682</v>
+        <v>32.64790271895068</v>
       </c>
       <c r="J51">
-        <v>9.564148107664984E-2</v>
+        <v>0.09564148107664984</v>
       </c>
       <c r="K51">
-        <v>0.10247301543926771</v>
+        <v>0.1024730154392677</v>
       </c>
       <c r="L51">
-        <v>0.24593523705424239</v>
+        <v>0.2459352370542424</v>
       </c>
       <c r="M51">
         <v>100</v>
@@ -3763,10 +3704,10 @@
         <v>1</v>
       </c>
       <c r="T51">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3774,31 +3715,31 @@
         <v>27</v>
       </c>
       <c r="D52">
-        <v>17.430368373764601</v>
+        <v>17.4303683737646</v>
       </c>
       <c r="E52">
-        <v>42.879604672057518</v>
+        <v>42.87960467205752</v>
       </c>
       <c r="F52">
-        <v>3.2869122491764009</v>
+        <v>3.286912249176401</v>
       </c>
       <c r="G52">
-        <v>0.35190176699610659</v>
+        <v>0.3519017669961066</v>
       </c>
       <c r="H52">
-        <v>0.88349805330937425</v>
+        <v>0.8834980533093743</v>
       </c>
       <c r="I52">
-        <v>34.688529499850262</v>
+        <v>34.68852949985026</v>
       </c>
       <c r="J52">
-        <v>8.9847259658580425E-2</v>
+        <v>0.08984725965858043</v>
       </c>
       <c r="K52">
         <v>0.1197963462114406</v>
       </c>
       <c r="L52">
-        <v>0.26954177897574128</v>
+        <v>0.2695417789757413</v>
       </c>
       <c r="M52">
         <v>100</v>
@@ -3822,10 +3763,10 @@
         <v>0</v>
       </c>
       <c r="T52">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3836,28 +3777,28 @@
         <v>52</v>
       </c>
       <c r="D53">
-        <v>13.383838383838381</v>
+        <v>13.38383838383838</v>
       </c>
       <c r="E53">
-        <v>43.676767676767668</v>
+        <v>43.67676767676767</v>
       </c>
       <c r="F53">
-        <v>4.5050505050505052</v>
+        <v>4.505050505050505</v>
       </c>
       <c r="G53">
-        <v>0.69191919191919204</v>
+        <v>0.691919191919192</v>
       </c>
       <c r="H53">
-        <v>0.84343434343434354</v>
+        <v>0.8434343434343435</v>
       </c>
       <c r="I53">
-        <v>36.227272727272727</v>
+        <v>36.22727272727273</v>
       </c>
       <c r="J53">
-        <v>0.36363636363636359</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="K53">
-        <v>6.5656565656565649E-2</v>
+        <v>0.06565656565656565</v>
       </c>
       <c r="L53">
         <v>0.2424242424242424</v>
@@ -3884,10 +3825,10 @@
         <v>0</v>
       </c>
       <c r="T53">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3901,25 +3842,25 @@
         <v>42.49417957283125</v>
       </c>
       <c r="F54">
-        <v>5.0258123291831147</v>
+        <v>5.025812329183115</v>
       </c>
       <c r="G54">
-        <v>0.72375746533049878</v>
+        <v>0.7237574653304988</v>
       </c>
       <c r="H54">
-        <v>0.77436987549347081</v>
+        <v>0.7743698754934708</v>
       </c>
       <c r="I54">
-        <v>35.373013462901099</v>
+        <v>35.3730134629011</v>
       </c>
       <c r="J54">
-        <v>0.35934811215710077</v>
+        <v>0.3593481121571008</v>
       </c>
       <c r="K54">
-        <v>6.0734892195566353E-2</v>
+        <v>0.06073489219556635</v>
       </c>
       <c r="L54">
-        <v>0.23787832776596821</v>
+        <v>0.2378783277659682</v>
       </c>
       <c r="M54">
         <v>100</v>
@@ -3943,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="T54">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3957,34 +3898,34 @@
         <v>53</v>
       </c>
       <c r="D55">
-        <v>22.775657762602929</v>
+        <v>22.77565776260293</v>
       </c>
       <c r="E55">
         <v>21.39987949387427</v>
       </c>
       <c r="F55">
-        <v>4.2980518176340627</v>
+        <v>4.298051817634063</v>
       </c>
       <c r="G55">
-        <v>0.61257280578429396</v>
+        <v>0.612572805784294</v>
       </c>
       <c r="H55">
-        <v>0.56236192006426977</v>
+        <v>0.5623619200642698</v>
       </c>
       <c r="I55">
-        <v>49.397469371359698</v>
+        <v>49.3974693713597</v>
       </c>
       <c r="J55">
-        <v>0.24101225145611571</v>
+        <v>0.2410122514561157</v>
       </c>
       <c r="K55">
-        <v>0.21088572002410119</v>
+        <v>0.2108857200241012</v>
       </c>
       <c r="L55">
-        <v>0.50210885720024101</v>
+        <v>0.502108857200241</v>
       </c>
       <c r="M55">
-        <v>99.999999999999986</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -4008,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -4016,28 +3957,28 @@
         <v>24</v>
       </c>
       <c r="D56">
-        <v>20.447992903082721</v>
+        <v>20.44799290308272</v>
       </c>
       <c r="E56">
-        <v>20.392548236859611</v>
+        <v>20.39254823685961</v>
       </c>
       <c r="F56">
-        <v>3.6926147704590822</v>
+        <v>3.692614770459082</v>
       </c>
       <c r="G56">
-        <v>0.19960079840319361</v>
+        <v>0.1996007984031936</v>
       </c>
       <c r="H56">
-        <v>0.35484586382789968</v>
+        <v>0.3548458638278997</v>
       </c>
       <c r="I56">
-        <v>53.914393435351514</v>
+        <v>53.91439343535151</v>
       </c>
       <c r="J56">
         <v>0.2550454646263029</v>
       </c>
       <c r="K56">
-        <v>0.22177866489243739</v>
+        <v>0.2217786648924374</v>
       </c>
       <c r="L56">
         <v>0.5211798624972277</v>
@@ -4067,7 +4008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -4078,28 +4019,28 @@
         <v>21.26526082130966</v>
       </c>
       <c r="E57">
-        <v>19.445061043285239</v>
+        <v>19.44506104328524</v>
       </c>
       <c r="F57">
         <v>3.385127635960044</v>
       </c>
       <c r="G57">
-        <v>0.19977802441731399</v>
+        <v>0.199778024417314</v>
       </c>
       <c r="H57">
-        <v>0.71032186459489455</v>
+        <v>0.7103218645948945</v>
       </c>
       <c r="I57">
-        <v>53.995560488346293</v>
+        <v>53.99556048834629</v>
       </c>
       <c r="J57">
-        <v>0.25527192008879018</v>
+        <v>0.2552719200887902</v>
       </c>
       <c r="K57">
-        <v>0.22197558268590459</v>
+        <v>0.2219755826859046</v>
       </c>
       <c r="L57">
-        <v>0.52164261931187572</v>
+        <v>0.5216426193118757</v>
       </c>
       <c r="M57">
         <v>100</v>
@@ -4126,7 +4067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -4140,28 +4081,28 @@
         <v>12.08946995353233</v>
       </c>
       <c r="E58">
-        <v>36.055761203433889</v>
+        <v>36.05576120343389</v>
       </c>
       <c r="F58">
-        <v>4.5050011813814281</v>
+        <v>4.505001181381428</v>
       </c>
       <c r="G58">
         <v>0.5119319524297079</v>
       </c>
       <c r="H58">
-        <v>0.67732535244545955</v>
+        <v>0.6773253524454595</v>
       </c>
       <c r="I58">
-        <v>45.475309128140502</v>
+        <v>45.4753091281405</v>
       </c>
       <c r="J58">
-        <v>8.6634638103489009E-2</v>
+        <v>0.08663463810348901</v>
       </c>
       <c r="K58">
-        <v>0.11026226667716781</v>
+        <v>0.1102622666771678</v>
       </c>
       <c r="L58">
-        <v>0.48830432385602912</v>
+        <v>0.4883043238560291</v>
       </c>
       <c r="M58">
         <v>100</v>
@@ -4185,10 +4126,10 @@
         <v>0</v>
       </c>
       <c r="T58">
-        <v>0.33333333333333298</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -4199,28 +4140,28 @@
         <v>17.57987566864248</v>
       </c>
       <c r="E59">
-        <v>34.538094549660258</v>
+        <v>34.53809454966026</v>
       </c>
       <c r="F59">
-        <v>4.5395402631198509</v>
+        <v>4.539540263119851</v>
       </c>
       <c r="G59">
-        <v>0.43371403787769269</v>
+        <v>0.4337140378776927</v>
       </c>
       <c r="H59">
-        <v>0.78068526817984685</v>
+        <v>0.7806852681798468</v>
       </c>
       <c r="I59">
-        <v>41.463062021107419</v>
+        <v>41.46306202110742</v>
       </c>
       <c r="J59">
-        <v>0.14457134595923091</v>
+        <v>0.1445713459592309</v>
       </c>
       <c r="K59">
-        <v>8.6742807575538552E-2</v>
+        <v>0.08674280757553855</v>
       </c>
       <c r="L59">
-        <v>0.43371403787769269</v>
+        <v>0.4337140378776927</v>
       </c>
       <c r="M59">
         <v>100</v>
@@ -4244,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="T59">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -4261,10 +4202,10 @@
         <v>34.91046731693114</v>
       </c>
       <c r="F60">
-        <v>5.4884262629203677</v>
+        <v>5.488426262920368</v>
       </c>
       <c r="G60">
-        <v>0.61144271364099578</v>
+        <v>0.6114427136409958</v>
       </c>
       <c r="H60">
         <v>1.091861988644635</v>
@@ -4273,13 +4214,13 @@
         <v>40.52991701848886</v>
       </c>
       <c r="J60">
-        <v>0.13102343863735619</v>
+        <v>0.1310234386373562</v>
       </c>
       <c r="K60">
-        <v>8.734895909157081E-2</v>
+        <v>0.08734895909157081</v>
       </c>
       <c r="L60">
-        <v>0.43674479545785422</v>
+        <v>0.4367447954578542</v>
       </c>
       <c r="M60">
         <v>100</v>
@@ -4303,10 +4244,10 @@
         <v>0</v>
       </c>
       <c r="T60">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4317,31 +4258,31 @@
         <v>56</v>
       </c>
       <c r="D61">
-        <v>29.705573080967401</v>
+        <v>29.7055730809674</v>
       </c>
       <c r="E61">
-        <v>39.099193831055032</v>
+        <v>39.09919383105503</v>
       </c>
       <c r="F61">
-        <v>3.4758733496903842</v>
+        <v>3.475873349690384</v>
       </c>
       <c r="G61">
         <v>0.186937726369903</v>
       </c>
       <c r="H61">
-        <v>0.57833859095688744</v>
+        <v>0.5783385909568874</v>
       </c>
       <c r="I61">
-        <v>26.486739105035628</v>
+        <v>26.48673910503563</v>
       </c>
       <c r="J61">
-        <v>0.26288117770767611</v>
+        <v>0.2628811777076761</v>
       </c>
       <c r="K61">
-        <v>7.5943451337773096E-2</v>
+        <v>0.0759434513377731</v>
       </c>
       <c r="L61">
-        <v>0.12851968687930829</v>
+        <v>0.1285196868793083</v>
       </c>
       <c r="M61">
         <v>100</v>
@@ -4365,10 +4306,10 @@
         <v>0</v>
       </c>
       <c r="T61">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4376,34 +4317,34 @@
         <v>24</v>
       </c>
       <c r="D62">
-        <v>28.021113066024629</v>
+        <v>28.02111306602463</v>
       </c>
       <c r="E62">
-        <v>41.161218631354757</v>
+        <v>41.16121863135476</v>
       </c>
       <c r="F62">
-        <v>3.4864339290675059</v>
+        <v>3.486433929067506</v>
       </c>
       <c r="G62">
-        <v>0.15742198351699241</v>
+        <v>0.1574219835169924</v>
       </c>
       <c r="H62">
-        <v>0.51393647559959266</v>
+        <v>0.5139364755995927</v>
       </c>
       <c r="I62">
-        <v>26.169089730530601</v>
+        <v>26.1690897305306</v>
       </c>
       <c r="J62">
-        <v>0.25465320863042867</v>
+        <v>0.2546532086304287</v>
       </c>
       <c r="K62">
-        <v>0.10186128345217151</v>
+        <v>0.1018612834521715</v>
       </c>
       <c r="L62">
         <v>0.134271691823317</v>
       </c>
       <c r="M62">
-        <v>99.999999999999986</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -4424,10 +4365,10 @@
         <v>0</v>
       </c>
       <c r="T62">
-        <v>0.16666666666666671</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4441,25 +4382,25 @@
         <v>15.72506628594738</v>
       </c>
       <c r="E63">
-        <v>36.399483309538383</v>
+        <v>36.39948330953838</v>
       </c>
       <c r="F63">
-        <v>2.7330205996328778</v>
+        <v>2.733020599632878</v>
       </c>
       <c r="G63">
-        <v>0.54388469644435378</v>
+        <v>0.5438846964443538</v>
       </c>
       <c r="H63">
-        <v>0.95859677748317351</v>
+        <v>0.9585967774831735</v>
       </c>
       <c r="I63">
-        <v>43.259229043442787</v>
+        <v>43.25922904344279</v>
       </c>
       <c r="J63">
-        <v>0.14956829152219731</v>
+        <v>0.1495682915221973</v>
       </c>
       <c r="K63">
-        <v>8.8381263172207486E-2</v>
+        <v>0.08838126317220749</v>
       </c>
       <c r="L63">
         <v>0.1427697328166429</v>
@@ -4486,10 +4427,10 @@
         <v>0</v>
       </c>
       <c r="T63">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4500,31 +4441,31 @@
         <v>17.17861205915813</v>
       </c>
       <c r="E64">
-        <v>35.856253764304363</v>
+        <v>35.85625376430436</v>
       </c>
       <c r="F64">
-        <v>2.5095362377032719</v>
+        <v>2.509536237703272</v>
       </c>
       <c r="G64">
-        <v>0.53536773071003141</v>
+        <v>0.5353677307100314</v>
       </c>
       <c r="H64">
         <v>0.9435856253764302</v>
       </c>
       <c r="I64">
-        <v>42.595195074616868</v>
+        <v>42.59519507461687</v>
       </c>
       <c r="J64">
-        <v>0.15391822257913401</v>
+        <v>0.153918222579134</v>
       </c>
       <c r="K64">
-        <v>8.0305159606504709E-2</v>
+        <v>0.08030515960650471</v>
       </c>
       <c r="L64">
-        <v>0.14722612594525861</v>
+        <v>0.1472261259452586</v>
       </c>
       <c r="M64">
-        <v>99.999999999999986</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -4545,10 +4486,10 @@
         <v>0</v>
       </c>
       <c r="T64">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4556,19 +4497,19 @@
         <v>32</v>
       </c>
       <c r="D65">
-        <v>21.178655199374511</v>
+        <v>21.17865519937451</v>
       </c>
       <c r="E65">
-        <v>39.601250977326039</v>
+        <v>39.60125097732604</v>
       </c>
       <c r="F65">
-        <v>4.1047693510555119</v>
+        <v>4.104769351055512</v>
       </c>
       <c r="G65">
-        <v>0.61571540265832692</v>
+        <v>0.6157154026583269</v>
       </c>
       <c r="H65">
-        <v>0.73299452697419853</v>
+        <v>0.7329945269741985</v>
       </c>
       <c r="I65">
         <v>33.4147771696638</v>
@@ -4577,10 +4518,10 @@
         <v>0.1661454261141517</v>
       </c>
       <c r="K65">
-        <v>5.86395621579359E-2</v>
+        <v>0.0586395621579359</v>
       </c>
       <c r="L65">
-        <v>0.12705238467552779</v>
+        <v>0.1270523846755278</v>
       </c>
       <c r="M65">
         <v>100</v>
@@ -4604,10 +4545,10 @@
         <v>0</v>
       </c>
       <c r="T65">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4615,31 +4556,31 @@
         <v>43</v>
       </c>
       <c r="D66">
-        <v>23.022696011004129</v>
+        <v>23.02269601100413</v>
       </c>
       <c r="E66">
-        <v>38.574621733149939</v>
+        <v>38.57462173314994</v>
       </c>
       <c r="F66">
-        <v>4.2812929848693262</v>
+        <v>4.281292984869326</v>
       </c>
       <c r="G66">
-        <v>0.71354883081155451</v>
+        <v>0.7135488308115545</v>
       </c>
       <c r="H66">
-        <v>0.67916093535075672</v>
+        <v>0.6791609353507567</v>
       </c>
       <c r="I66">
         <v>32.35041265474554</v>
       </c>
       <c r="J66">
-        <v>0.16334250343878959</v>
+        <v>0.1633425034387896</v>
       </c>
       <c r="K66">
-        <v>6.8775790921595609E-2</v>
+        <v>0.06877579092159561</v>
       </c>
       <c r="L66">
-        <v>0.14614855570839069</v>
+        <v>0.1461485557083907</v>
       </c>
       <c r="M66">
         <v>100</v>
@@ -4663,10 +4604,10 @@
         <v>0</v>
       </c>
       <c r="T66">
-        <v>0.33333333333333298</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4677,25 +4618,25 @@
         <v>58</v>
       </c>
       <c r="D67">
-        <v>17.760047281323871</v>
+        <v>17.76004728132387</v>
       </c>
       <c r="E67">
-        <v>27.570921985815598</v>
+        <v>27.5709219858156</v>
       </c>
       <c r="F67">
         <v>4.078014184397162</v>
       </c>
       <c r="G67">
-        <v>0.55161544523246642</v>
+        <v>0.5516154452324664</v>
       </c>
       <c r="H67">
-        <v>0.50236406619385332</v>
+        <v>0.5023640661938533</v>
       </c>
       <c r="I67">
         <v>49.15287628053585</v>
       </c>
       <c r="J67">
-        <v>7.8802206461780919E-2</v>
+        <v>0.07880220646178092</v>
       </c>
       <c r="K67">
         <v>0.1083530338849487</v>
@@ -4704,7 +4645,7 @@
         <v>0.1970055161544523</v>
       </c>
       <c r="M67">
-        <v>99.999999999999986</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -4725,10 +4666,10 @@
         <v>0</v>
       </c>
       <c r="T67">
-        <v>0.16666666666666671</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4736,28 +4677,28 @@
         <v>32</v>
       </c>
       <c r="D68">
-        <v>18.159416169083499</v>
+        <v>18.1594161690835</v>
       </c>
       <c r="E68">
-        <v>34.622310681451999</v>
+        <v>34.622310681452</v>
       </c>
       <c r="F68">
-        <v>3.2508766941522129</v>
+        <v>3.250876694152213</v>
       </c>
       <c r="G68">
-        <v>0.57814425172969397</v>
+        <v>0.578144251729694</v>
       </c>
       <c r="H68">
-        <v>0.78665529333712447</v>
+        <v>0.7866552933371245</v>
       </c>
       <c r="I68">
-        <v>42.147663728556537</v>
+        <v>42.14766372855654</v>
       </c>
       <c r="J68">
-        <v>0.17059994313335231</v>
+        <v>0.1705999431333523</v>
       </c>
       <c r="K68">
-        <v>0.10425552080371529</v>
+        <v>0.1042555208037153</v>
       </c>
       <c r="L68">
         <v>0.1800777177518719</v>
@@ -4784,10 +4725,10 @@
         <v>0</v>
       </c>
       <c r="T68">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -4795,31 +4736,31 @@
         <v>22</v>
       </c>
       <c r="D69">
-        <v>17.659589576084642</v>
+        <v>17.65958957608464</v>
       </c>
       <c r="E69">
-        <v>21.728324930767592</v>
+        <v>21.72832493076759</v>
       </c>
       <c r="F69">
         <v>15.33764112760065</v>
       </c>
       <c r="G69">
-        <v>0.28403039125186402</v>
+        <v>0.284030391251864</v>
       </c>
       <c r="H69">
-        <v>0.75978129659873606</v>
+        <v>0.7597812965987361</v>
       </c>
       <c r="I69">
-        <v>43.761982532130943</v>
+        <v>43.76198253213094</v>
       </c>
       <c r="J69">
-        <v>0.17041823475111839</v>
+        <v>0.1704182347511184</v>
       </c>
       <c r="K69">
-        <v>9.2309877156855791E-2</v>
+        <v>0.09230987715685579</v>
       </c>
       <c r="L69">
-        <v>0.20592203365760139</v>
+        <v>0.2059220336576014</v>
       </c>
       <c r="M69">
         <v>100</v>
@@ -4846,7 +4787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -4854,22 +4795,22 @@
         <v>59</v>
       </c>
       <c r="D70">
-        <v>19.440673364105351</v>
+        <v>19.44067336410535</v>
       </c>
       <c r="E70">
-        <v>21.868042356774371</v>
+        <v>21.86804235677437</v>
       </c>
       <c r="F70">
-        <v>3.7415150692370358</v>
+        <v>3.741515069237036</v>
       </c>
       <c r="G70">
-        <v>0.81455335324463785</v>
+        <v>0.8145533532446378</v>
       </c>
       <c r="H70">
         <v>1.357588922074396</v>
       </c>
       <c r="I70">
-        <v>52.359489546565307</v>
+        <v>52.35948954656531</v>
       </c>
       <c r="J70">
         <v>0.1411892478957372</v>
@@ -4905,7 +4846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -4916,31 +4857,31 @@
         <v>20.53117782909931</v>
       </c>
       <c r="E71">
-        <v>22.309468822170899</v>
+        <v>22.3094688221709</v>
       </c>
       <c r="F71">
-        <v>4.1916859122401844</v>
+        <v>4.191685912240184</v>
       </c>
       <c r="G71">
-        <v>0.90069284064665134</v>
+        <v>0.9006928406466513</v>
       </c>
       <c r="H71">
         <v>1.212471131639723</v>
       </c>
       <c r="I71">
-        <v>50.496535796766743</v>
+        <v>50.49653579676674</v>
       </c>
       <c r="J71">
         <v>0.1270207852193995</v>
       </c>
       <c r="K71">
-        <v>8.0831408775981536E-2</v>
+        <v>0.08083140877598154</v>
       </c>
       <c r="L71">
-        <v>0.15011547344110851</v>
+        <v>0.1501154734411085</v>
       </c>
       <c r="M71">
-        <v>99.999999999999986</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4964,7 +4905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -4975,34 +4916,34 @@
         <v>61</v>
       </c>
       <c r="D72">
-        <v>17.088607594936711</v>
+        <v>17.08860759493671</v>
       </c>
       <c r="E72">
-        <v>46.391058443307287</v>
+        <v>46.39105844330729</v>
       </c>
       <c r="F72">
-        <v>3.6964718556423382</v>
+        <v>3.696471855642338</v>
       </c>
       <c r="G72">
-        <v>0.28279019660651761</v>
+        <v>0.2827901966065176</v>
       </c>
       <c r="H72">
-        <v>0.58577969297064358</v>
+        <v>0.5857796929706436</v>
       </c>
       <c r="I72">
-        <v>31.463775922434689</v>
+        <v>31.46377592243469</v>
       </c>
       <c r="J72">
         <v>0.1413950983032588</v>
       </c>
       <c r="K72">
-        <v>9.4263398868839221E-2</v>
+        <v>0.09426339886883922</v>
       </c>
       <c r="L72">
-        <v>0.25585779692970639</v>
+        <v>0.2558577969297064</v>
       </c>
       <c r="M72">
-        <v>99.999999999999986</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -5026,7 +4967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -5034,31 +4975,31 @@
         <v>32</v>
       </c>
       <c r="D73">
-        <v>18.144368504821649</v>
+        <v>18.14436850482165</v>
       </c>
       <c r="E73">
-        <v>44.546390787379458</v>
+        <v>44.54639078737946</v>
       </c>
       <c r="F73">
-        <v>3.6607059264113841</v>
+        <v>3.660705926411384</v>
       </c>
       <c r="G73">
-        <v>0.20597322348094749</v>
+        <v>0.2059732234809475</v>
       </c>
       <c r="H73">
-        <v>0.55238273569890439</v>
+        <v>0.5523827356989044</v>
       </c>
       <c r="I73">
-        <v>32.459507536747488</v>
+        <v>32.45950753674749</v>
       </c>
       <c r="J73">
-        <v>0.14979870798614359</v>
+        <v>0.1497987079861436</v>
       </c>
       <c r="K73">
-        <v>7.4899353993071807E-2</v>
+        <v>0.07489935399307181</v>
       </c>
       <c r="L73">
-        <v>0.20597322348094749</v>
+        <v>0.2059732234809475</v>
       </c>
       <c r="M73">
         <v>100</v>
@@ -5085,7 +5026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -5093,31 +5034,31 @@
         <v>43</v>
       </c>
       <c r="D74">
-        <v>18.146079039933792</v>
+        <v>18.14607903993379</v>
       </c>
       <c r="E74">
-        <v>43.961652527760542</v>
+        <v>43.96165252776054</v>
       </c>
       <c r="F74">
-        <v>3.6002482929857251</v>
+        <v>3.600248292985725</v>
       </c>
       <c r="G74">
         <v>0.3448513690599353</v>
       </c>
       <c r="H74">
-        <v>0.56555624525829395</v>
+        <v>0.565556245258294</v>
       </c>
       <c r="I74">
         <v>32.91951169046142</v>
       </c>
       <c r="J74">
-        <v>0.15173460238637149</v>
+        <v>0.1517346023863715</v>
       </c>
       <c r="K74">
-        <v>7.5867301193185757E-2</v>
+        <v>0.07586730119318576</v>
       </c>
       <c r="L74">
-        <v>0.23449893096075611</v>
+        <v>0.2344989309607561</v>
       </c>
       <c r="M74">
         <v>100</v>
@@ -5141,10 +5082,10 @@
         <v>0</v>
       </c>
       <c r="T74">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -5155,31 +5096,31 @@
         <v>62</v>
       </c>
       <c r="D75">
-        <v>20.007930214115781</v>
+        <v>20.00793021411578</v>
       </c>
       <c r="E75">
-        <v>29.722442505947662</v>
+        <v>29.72244250594766</v>
       </c>
       <c r="F75">
         <v>4.956383822363204</v>
       </c>
       <c r="G75">
-        <v>0.41237113402061859</v>
+        <v>0.4123711340206186</v>
       </c>
       <c r="H75">
         <v>0.9040444091990486</v>
       </c>
       <c r="I75">
-        <v>42.965900079302138</v>
+        <v>42.96590007930214</v>
       </c>
       <c r="J75">
-        <v>0.59476605868358456</v>
+        <v>0.5947660586835846</v>
       </c>
       <c r="K75">
-        <v>0.14274385408406029</v>
+        <v>0.1427438540840603</v>
       </c>
       <c r="L75">
-        <v>0.29341792228390168</v>
+        <v>0.2934179222839017</v>
       </c>
       <c r="M75">
         <v>100</v>
@@ -5206,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -5214,31 +5155,31 @@
         <v>24</v>
       </c>
       <c r="D76">
-        <v>19.908423161308789</v>
+        <v>19.90842316130879</v>
       </c>
       <c r="E76">
-        <v>30.134503481827721</v>
+        <v>30.13450348182772</v>
       </c>
       <c r="F76">
-        <v>4.7028522369550698</v>
+        <v>4.70285223695507</v>
       </c>
       <c r="G76">
-        <v>0.40064866927406279</v>
+        <v>0.4006486692740628</v>
       </c>
       <c r="H76">
-        <v>0.97300391109415241</v>
+        <v>0.9730039110941524</v>
       </c>
       <c r="I76">
-        <v>42.545072975293337</v>
+        <v>42.54507297529334</v>
       </c>
       <c r="J76">
-        <v>0.83945435466946483</v>
+        <v>0.8394543546694648</v>
       </c>
       <c r="K76">
-        <v>0.15262806448535729</v>
+        <v>0.1526280644853573</v>
       </c>
       <c r="L76">
-        <v>0.34341314509205378</v>
+        <v>0.3434131450920538</v>
       </c>
       <c r="M76">
         <v>100</v>
@@ -5265,7 +5206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -5276,34 +5217,34 @@
         <v>63</v>
       </c>
       <c r="D77">
-        <v>17.870604407786789</v>
+        <v>17.87060440778679</v>
       </c>
       <c r="E77">
-        <v>39.275420158751267</v>
+        <v>39.27542015875127</v>
       </c>
       <c r="F77">
-        <v>3.1617223183007401</v>
+        <v>3.16172231830074</v>
       </c>
       <c r="G77">
-        <v>0.15076936721209699</v>
+        <v>0.150769367212097</v>
       </c>
       <c r="H77">
-        <v>0.79819076759345475</v>
+        <v>0.7981907675934548</v>
       </c>
       <c r="I77">
-        <v>38.326460023945721</v>
+        <v>38.32646002394572</v>
       </c>
       <c r="J77">
-        <v>0.15520376036539399</v>
+        <v>0.155203760365394</v>
       </c>
       <c r="K77">
-        <v>9.3122256219236393E-2</v>
+        <v>0.09312225621923639</v>
       </c>
       <c r="L77">
-        <v>0.16850693982528489</v>
+        <v>0.1685069398252849</v>
       </c>
       <c r="M77">
-        <v>99.999999999999986</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -5324,10 +5265,10 @@
         <v>0</v>
       </c>
       <c r="T77">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -5335,34 +5276,34 @@
         <v>24</v>
       </c>
       <c r="D78">
-        <v>17.976042957455601</v>
+        <v>17.9760429574556</v>
       </c>
       <c r="E78">
-        <v>38.810408921933082</v>
+        <v>38.81040892193308</v>
       </c>
       <c r="F78">
-        <v>3.3085501858736048</v>
+        <v>3.308550185873605</v>
       </c>
       <c r="G78">
-        <v>0.25609252375051628</v>
+        <v>0.2560925237505163</v>
       </c>
       <c r="H78">
-        <v>0.89219330855018564</v>
+        <v>0.8921933085501856</v>
       </c>
       <c r="I78">
-        <v>38.331268071045017</v>
+        <v>38.33126807104502</v>
       </c>
       <c r="J78">
-        <v>0.16935150764147039</v>
+        <v>0.1693515076414704</v>
       </c>
       <c r="K78">
-        <v>9.9132589838909518E-2</v>
+        <v>0.09913258983890952</v>
       </c>
       <c r="L78">
-        <v>0.15695993391160681</v>
+        <v>0.1569599339116068</v>
       </c>
       <c r="M78">
-        <v>99.999999999999986</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -5383,10 +5324,10 @@
         <v>0</v>
       </c>
       <c r="T78">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -5397,34 +5338,34 @@
         <v>64</v>
       </c>
       <c r="D79">
-        <v>19.261866260819929</v>
+        <v>19.26186626081993</v>
       </c>
       <c r="E79">
-        <v>13.782935413297819</v>
+        <v>13.78293541329782</v>
       </c>
       <c r="F79">
-        <v>4.5467516408256436</v>
+        <v>4.546751640825644</v>
       </c>
       <c r="G79">
-        <v>0.68486635594026424</v>
+        <v>0.6848663559402642</v>
       </c>
       <c r="H79">
-        <v>1.6360696280795199</v>
+        <v>1.63606962807952</v>
       </c>
       <c r="I79">
         <v>59.4502045087035</v>
       </c>
       <c r="J79">
-        <v>0.13316845809949579</v>
+        <v>0.1331684580994958</v>
       </c>
       <c r="K79">
-        <v>0.30438504708456188</v>
+        <v>0.3043850470845619</v>
       </c>
       <c r="L79">
         <v>0.1997526871492438</v>
       </c>
       <c r="M79">
-        <v>99.999999999999986</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -5448,7 +5389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -5456,28 +5397,28 @@
         <v>31</v>
       </c>
       <c r="D80">
-        <v>15.523769457299119</v>
+        <v>15.52376945729912</v>
       </c>
       <c r="E80">
-        <v>13.641144299537229</v>
+        <v>13.64114429953723</v>
       </c>
       <c r="F80">
-        <v>3.7968026924694991</v>
+        <v>3.796802692469499</v>
       </c>
       <c r="G80">
-        <v>0.36811106436684898</v>
+        <v>0.368111064366849</v>
       </c>
       <c r="H80">
         <v>1.556583929322676</v>
       </c>
       <c r="I80">
-        <v>64.587715607909132</v>
+        <v>64.58771560790913</v>
       </c>
       <c r="J80">
-        <v>0.16827934371055961</v>
+        <v>0.1682793437105596</v>
       </c>
       <c r="K80">
-        <v>0.21034917963819941</v>
+        <v>0.2103491796381994</v>
       </c>
       <c r="L80">
         <v>0.1472444257467396</v>
@@ -5507,7 +5448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -5515,31 +5456,31 @@
         <v>32</v>
       </c>
       <c r="D81">
-        <v>22.065040650406509</v>
+        <v>22.06504065040651</v>
       </c>
       <c r="E81">
-        <v>16.211382113821141</v>
+        <v>16.21138211382114</v>
       </c>
       <c r="F81">
         <v>2.934959349593496</v>
       </c>
       <c r="G81">
-        <v>9.7560975609756115E-2</v>
+        <v>0.09756097560975611</v>
       </c>
       <c r="H81">
-        <v>1.2357723577235771</v>
+        <v>1.235772357723577</v>
       </c>
       <c r="I81">
-        <v>56.886178861788608</v>
+        <v>56.88617886178861</v>
       </c>
       <c r="J81">
-        <v>0.16260162601626019</v>
+        <v>0.1626016260162602</v>
       </c>
       <c r="K81">
         <v>0.2276422764227643</v>
       </c>
       <c r="L81">
-        <v>0.17886178861788621</v>
+        <v>0.1788617886178862</v>
       </c>
       <c r="M81">
         <v>100</v>
@@ -5566,7 +5507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -5577,28 +5518,28 @@
         <v>65</v>
       </c>
       <c r="D82">
-        <v>13.798836242726519</v>
+        <v>13.79883624272652</v>
       </c>
       <c r="E82">
-        <v>52.493765586034911</v>
+        <v>52.49376558603491</v>
       </c>
       <c r="F82">
-        <v>3.5016625103906902</v>
+        <v>3.50166251039069</v>
       </c>
       <c r="G82">
-        <v>0.28054862842892758</v>
+        <v>0.2805486284289276</v>
       </c>
       <c r="H82">
-        <v>0.89359933499584365</v>
+        <v>0.8935993349958437</v>
       </c>
       <c r="I82">
         <v>28.51205320033251</v>
       </c>
       <c r="J82">
-        <v>0.14546965918536989</v>
+        <v>0.1454696591853699</v>
       </c>
       <c r="K82">
-        <v>6.2344139650872821E-2</v>
+        <v>0.06234413965087282</v>
       </c>
       <c r="L82">
         <v>0.3117206982543641</v>
@@ -5628,7 +5569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -5639,28 +5580,28 @@
         <v>13.51884744424709</v>
       </c>
       <c r="E83">
-        <v>52.111703177422527</v>
+        <v>52.11170317742253</v>
       </c>
       <c r="F83">
-        <v>3.9569765147029812</v>
+        <v>3.956976514702981</v>
       </c>
       <c r="G83">
-        <v>0.40457864614170119</v>
+        <v>0.4045786461417012</v>
       </c>
       <c r="H83">
         <v>1.01638050128281</v>
       </c>
       <c r="I83">
-        <v>28.429050720347341</v>
+        <v>28.42905072034734</v>
       </c>
       <c r="J83">
-        <v>0.16775212157094929</v>
+        <v>0.1677521215709493</v>
       </c>
       <c r="K83">
-        <v>7.8942174856917305E-2</v>
+        <v>0.0789421748569173</v>
       </c>
       <c r="L83">
-        <v>0.31576869942766922</v>
+        <v>0.3157686994276692</v>
       </c>
       <c r="M83">
         <v>100</v>
@@ -5684,10 +5625,10 @@
         <v>0</v>
       </c>
       <c r="T83">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -5698,28 +5639,28 @@
         <v>15.9796558046011</v>
       </c>
       <c r="E84">
-        <v>50.830918445798098</v>
+        <v>50.8309184457981</v>
       </c>
       <c r="F84">
         <v>2.696788692412325</v>
       </c>
       <c r="G84">
-        <v>0.31935655568040688</v>
+        <v>0.3193565556804069</v>
       </c>
       <c r="H84">
         <v>1.040865811106511</v>
       </c>
       <c r="I84">
-        <v>28.322195280619781</v>
+        <v>28.32219528061978</v>
       </c>
       <c r="J84">
         <v>0.2602164527766278</v>
       </c>
       <c r="K84">
-        <v>9.4624164646046463E-2</v>
+        <v>0.09462416464604646</v>
       </c>
       <c r="L84">
-        <v>0.45537879235909873</v>
+        <v>0.4553787923590987</v>
       </c>
       <c r="M84">
         <v>100</v>
@@ -5743,10 +5684,10 @@
         <v>0</v>
       </c>
       <c r="T84">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -5754,31 +5695,31 @@
         <v>43</v>
       </c>
       <c r="D85">
-        <v>18.436654578944339</v>
+        <v>18.43665457894434</v>
       </c>
       <c r="E85">
-        <v>49.398491912738173</v>
+        <v>49.39849191273817</v>
       </c>
       <c r="F85">
-        <v>3.0737351061992748</v>
+        <v>3.073735106199275</v>
       </c>
       <c r="G85">
-        <v>0.29931502906809421</v>
+        <v>0.2993150290680942</v>
       </c>
       <c r="H85">
-        <v>0.98428596097392518</v>
+        <v>0.9842859609739252</v>
       </c>
       <c r="I85">
         <v>26.93835261612848</v>
       </c>
       <c r="J85">
-        <v>0.23024233005238021</v>
+        <v>0.2302423300523802</v>
       </c>
       <c r="K85">
-        <v>9.209693202095208E-2</v>
+        <v>0.09209693202095208</v>
       </c>
       <c r="L85">
-        <v>0.54682553387440291</v>
+        <v>0.5468255338744029</v>
       </c>
       <c r="M85">
         <v>100</v>
@@ -5802,10 +5743,10 @@
         <v>0</v>
       </c>
       <c r="T85">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -5819,7 +5760,7 @@
         <v>12.63024944742658</v>
       </c>
       <c r="E86">
-        <v>52.158419414497722</v>
+        <v>52.15841941449772</v>
       </c>
       <c r="F86">
         <v>2.810230502052415</v>
@@ -5831,16 +5772,16 @@
         <v>0.8254770174568089</v>
       </c>
       <c r="I86">
-        <v>30.641887320131708</v>
+        <v>30.64188732013171</v>
       </c>
       <c r="J86">
-        <v>0.47363435427849693</v>
+        <v>0.4736343542784969</v>
       </c>
       <c r="K86">
-        <v>8.1194460733456611E-2</v>
+        <v>0.08119446073345661</v>
       </c>
       <c r="L86">
-        <v>0.13532410122242769</v>
+        <v>0.1353241012224277</v>
       </c>
       <c r="M86">
         <v>100</v>
@@ -5864,10 +5805,10 @@
         <v>0</v>
       </c>
       <c r="T86">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -5881,28 +5822,28 @@
         <v>52.44432249508391</v>
       </c>
       <c r="F87">
-        <v>2.4786207527324282</v>
+        <v>2.478620752732428</v>
       </c>
       <c r="G87">
-        <v>0.11890062651483969</v>
+        <v>0.1189006265148397</v>
       </c>
       <c r="H87">
         <v>0.7728540723464582</v>
       </c>
       <c r="I87">
-        <v>31.174829651987011</v>
+        <v>31.17482965198701</v>
       </c>
       <c r="J87">
-        <v>0.46645630401975569</v>
+        <v>0.4664563040197557</v>
       </c>
       <c r="K87">
-        <v>7.7742717336625966E-2</v>
+        <v>0.07774271733662597</v>
       </c>
       <c r="L87">
-        <v>0.13719303059404581</v>
+        <v>0.1371930305940458</v>
       </c>
       <c r="M87">
-        <v>99.999999999999986</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -5923,10 +5864,10 @@
         <v>0</v>
       </c>
       <c r="T87">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -5937,34 +5878,34 @@
         <v>67</v>
       </c>
       <c r="D88">
-        <v>14.349706518381209</v>
+        <v>14.34970651838121</v>
       </c>
       <c r="E88">
-        <v>66.702708268973311</v>
+        <v>66.70270826897331</v>
       </c>
       <c r="F88">
-        <v>1.7454433117083721</v>
+        <v>1.745443311708372</v>
       </c>
       <c r="G88">
-        <v>0.13386880856760369</v>
+        <v>0.1338688085676037</v>
       </c>
       <c r="H88">
-        <v>0.55607043558850788</v>
+        <v>0.5560704355885079</v>
       </c>
       <c r="I88">
-        <v>16.126042632066731</v>
+        <v>16.12604263206673</v>
       </c>
       <c r="J88">
-        <v>5.1488003295232197E-2</v>
+        <v>0.0514880032952322</v>
       </c>
       <c r="K88">
-        <v>8.238080527237153E-2</v>
+        <v>0.08238080527237153</v>
       </c>
       <c r="L88">
         <v>0.2522912161466378</v>
       </c>
       <c r="M88">
-        <v>99.999999999999957</v>
+        <v>99.99999999999996</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -5988,7 +5929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -5996,31 +5937,31 @@
         <v>24</v>
       </c>
       <c r="D89">
-        <v>12.317773149794281</v>
+        <v>12.31777314979428</v>
       </c>
       <c r="E89">
-        <v>68.232844008736734</v>
+        <v>68.23284400873673</v>
       </c>
       <c r="F89">
         <v>1.650835576776553</v>
       </c>
       <c r="G89">
-        <v>0.12698735205973491</v>
+        <v>0.1269873520597349</v>
       </c>
       <c r="H89">
-        <v>0.54858536089805465</v>
+        <v>0.5485853608980547</v>
       </c>
       <c r="I89">
         <v>16.70137654289633</v>
       </c>
       <c r="J89">
-        <v>4.5715446741504552E-2</v>
+        <v>0.04571544674150455</v>
       </c>
       <c r="K89">
-        <v>9.6510387565398495E-2</v>
+        <v>0.09651038756539849</v>
       </c>
       <c r="L89">
-        <v>0.27937217453141672</v>
+        <v>0.2793721745314167</v>
       </c>
       <c r="M89">
         <v>100</v>
@@ -6047,7 +5988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -6058,31 +5999,31 @@
         <v>68</v>
       </c>
       <c r="D90">
-        <v>15.117295643304679</v>
+        <v>15.11729564330468</v>
       </c>
       <c r="E90">
-        <v>51.274952644616057</v>
+        <v>51.27495264461606</v>
       </c>
       <c r="F90">
-        <v>3.9122832580504152</v>
+        <v>3.912283258050415</v>
       </c>
       <c r="G90">
-        <v>0.25499052892321139</v>
+        <v>0.2549905289232114</v>
       </c>
       <c r="H90">
-        <v>0.69211714993443074</v>
+        <v>0.6921171499344307</v>
       </c>
       <c r="I90">
-        <v>28.194667055223661</v>
+        <v>28.19466705522366</v>
       </c>
       <c r="J90">
-        <v>0.19670697945504881</v>
+        <v>0.1967069794550488</v>
       </c>
       <c r="K90">
         <v>0.1019962115692845</v>
       </c>
       <c r="L90">
-        <v>0.25499052892321139</v>
+        <v>0.2549905289232114</v>
       </c>
       <c r="M90">
         <v>100</v>
@@ -6106,10 +6047,10 @@
         <v>0</v>
       </c>
       <c r="T90">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -6120,16 +6061,16 @@
         <v>10.69492759485478</v>
       </c>
       <c r="E91">
-        <v>59.258959631097802</v>
+        <v>59.2589596310978</v>
       </c>
       <c r="F91">
-        <v>3.6162122805598251</v>
+        <v>3.616212280559825</v>
       </c>
       <c r="G91">
-        <v>0.17797912790227319</v>
+        <v>0.1779791279022732</v>
       </c>
       <c r="H91">
-        <v>0.50157754227004281</v>
+        <v>0.5015775422700428</v>
       </c>
       <c r="I91">
         <v>25.281126122482</v>
@@ -6138,10 +6079,10 @@
         <v>0.1617992071838848</v>
       </c>
       <c r="K91">
-        <v>9.7079524310330872E-2</v>
+        <v>0.09707952431033087</v>
       </c>
       <c r="L91">
-        <v>0.21033896933905019</v>
+        <v>0.2103389693390502</v>
       </c>
       <c r="M91">
         <v>100</v>
@@ -6168,7 +6109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -6176,31 +6117,31 @@
         <v>43</v>
       </c>
       <c r="D92">
-        <v>7.1900026401478474</v>
+        <v>7.190002640147847</v>
       </c>
       <c r="E92">
-        <v>60.415383261462637</v>
+        <v>60.41538326146264</v>
       </c>
       <c r="F92">
-        <v>3.5289976238669372</v>
+        <v>3.528997623866937</v>
       </c>
       <c r="G92">
         <v>0.1496083780691719</v>
       </c>
       <c r="H92">
-        <v>0.56323154096629402</v>
+        <v>0.563231540966294</v>
       </c>
       <c r="I92">
-        <v>27.677549942796791</v>
+        <v>27.67754994279679</v>
       </c>
       <c r="J92">
-        <v>0.17600985655196691</v>
+        <v>0.1760098565519669</v>
       </c>
       <c r="K92">
-        <v>6.1603449793188408E-2</v>
+        <v>0.06160344979318841</v>
       </c>
       <c r="L92">
-        <v>0.23761330634515529</v>
+        <v>0.2376133063451553</v>
       </c>
       <c r="M92">
         <v>100</v>
@@ -6227,7 +6168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -6238,16 +6179,16 @@
         <v>69</v>
       </c>
       <c r="D93">
-        <v>18.928456849534811</v>
+        <v>18.92845684953481</v>
       </c>
       <c r="E93">
-        <v>49.443909742273561</v>
+        <v>49.44390974227356</v>
       </c>
       <c r="F93">
         <v>2.47032402951556</v>
       </c>
       <c r="G93">
-        <v>0.45984386696609991</v>
+        <v>0.4598438669660999</v>
       </c>
       <c r="H93">
         <v>0.9089936905143835</v>
@@ -6256,16 +6197,16 @@
         <v>27.19495241150679</v>
       </c>
       <c r="J93">
-        <v>0.18179873810287669</v>
+        <v>0.1817987381028767</v>
       </c>
       <c r="K93">
-        <v>9.6246390760346481E-2</v>
+        <v>0.09624639076034648</v>
       </c>
       <c r="L93">
         <v>0.3154742808255801</v>
       </c>
       <c r="M93">
-        <v>99.999999999999986</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -6286,10 +6227,10 @@
         <v>0</v>
       </c>
       <c r="T93">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -6300,34 +6241,34 @@
         <v>70</v>
       </c>
       <c r="D94">
-        <v>19.664125774178181</v>
+        <v>19.66412577417818</v>
       </c>
       <c r="E94">
-        <v>45.277513101476892</v>
+        <v>45.27751310147689</v>
       </c>
       <c r="F94">
-        <v>1.9354454502143881</v>
+        <v>1.935445450214388</v>
       </c>
       <c r="G94">
-        <v>0.35731300619342549</v>
+        <v>0.3573130061934255</v>
       </c>
       <c r="H94">
-        <v>1.1076703191996189</v>
+        <v>1.107670319199619</v>
       </c>
       <c r="I94">
         <v>31.21724630776561</v>
       </c>
       <c r="J94">
-        <v>0.14888041924726059</v>
+        <v>0.1488804192472606</v>
       </c>
       <c r="K94">
-        <v>8.3373034778465943E-2</v>
+        <v>0.08337303477846594</v>
       </c>
       <c r="L94">
         <v>0.2084325869461649</v>
       </c>
       <c r="M94">
-        <v>99.999999999999986</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -6348,10 +6289,10 @@
         <v>0</v>
       </c>
       <c r="T94">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -6359,31 +6300,31 @@
         <v>22</v>
       </c>
       <c r="D95">
-        <v>15.812207902563379</v>
+        <v>15.81220790256338</v>
       </c>
       <c r="E95">
-        <v>45.191899164424314</v>
+        <v>45.19189916442431</v>
       </c>
       <c r="F95">
         <v>3.406033139781901</v>
       </c>
       <c r="G95">
-        <v>0.36821979889534068</v>
+        <v>0.3682197988953407</v>
       </c>
       <c r="H95">
-        <v>1.5507718453476851</v>
+        <v>1.550771845347685</v>
       </c>
       <c r="I95">
-        <v>33.309729500070823</v>
+        <v>33.30972950007082</v>
       </c>
       <c r="J95">
-        <v>0.12746069961761791</v>
+        <v>0.1274606996176179</v>
       </c>
       <c r="K95">
-        <v>5.6649199830052413E-2</v>
+        <v>0.05664919983005241</v>
       </c>
       <c r="L95">
-        <v>0.17702874946891381</v>
+        <v>0.1770287494689138</v>
       </c>
       <c r="M95">
         <v>100</v>
@@ -6407,10 +6348,10 @@
         <v>0</v>
       </c>
       <c r="T95">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -6421,28 +6362,28 @@
         <v>20.11668611435239</v>
       </c>
       <c r="E96">
-        <v>41.808634772462078</v>
+        <v>41.80863477246208</v>
       </c>
       <c r="F96">
-        <v>3.7339556592765462</v>
+        <v>3.733955659276546</v>
       </c>
       <c r="G96">
-        <v>0.42007001166861141</v>
+        <v>0.4200700116686114</v>
       </c>
       <c r="H96">
         <v>1.796966161026837</v>
       </c>
       <c r="I96">
-        <v>31.773628938156349</v>
+        <v>31.77362893815635</v>
       </c>
       <c r="J96">
-        <v>0.11085180863477249</v>
+        <v>0.1108518086347725</v>
       </c>
       <c r="K96">
-        <v>5.8343057176196027E-2</v>
+        <v>0.05834305717619603</v>
       </c>
       <c r="L96">
-        <v>0.18086347724620769</v>
+        <v>0.1808634772462077</v>
       </c>
       <c r="M96">
         <v>100</v>
@@ -6466,10 +6407,10 @@
         <v>0</v>
       </c>
       <c r="T96">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -6477,13 +6418,13 @@
         <v>72</v>
       </c>
       <c r="D97">
-        <v>21.708092673113111</v>
+        <v>21.70809267311311</v>
       </c>
       <c r="E97">
         <v>42.70880654163151</v>
       </c>
       <c r="F97">
-        <v>3.4655071711337531</v>
+        <v>3.465507171133753</v>
       </c>
       <c r="G97">
         <v>0.3179959763774417</v>
@@ -6498,13 +6439,13 @@
         <v>0.1168148484651827</v>
       </c>
       <c r="K97">
-        <v>4.5427996625348813E-2</v>
+        <v>0.04542799662534881</v>
       </c>
       <c r="L97">
         <v>0.1687325588941527</v>
       </c>
       <c r="M97">
-        <v>99.999999999999986</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -6525,10 +6466,10 @@
         <v>0</v>
       </c>
       <c r="T97">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -6536,31 +6477,31 @@
         <v>73</v>
       </c>
       <c r="D98">
-        <v>26.355678906917159</v>
+        <v>26.35567890691716</v>
       </c>
       <c r="E98">
-        <v>38.871690862510683</v>
+        <v>38.87169086251068</v>
       </c>
       <c r="F98">
         <v>3.60802732707088</v>
       </c>
       <c r="G98">
-        <v>0.40029888983774548</v>
+        <v>0.4002988898377455</v>
       </c>
       <c r="H98">
-        <v>1.6332194705380021</v>
+        <v>1.633219470538002</v>
       </c>
       <c r="I98">
-        <v>28.805508112724169</v>
+        <v>28.80550811272417</v>
       </c>
       <c r="J98">
         <v>0.1067463706233988</v>
       </c>
       <c r="K98">
-        <v>5.3373185311699399E-2</v>
+        <v>0.0533731853116994</v>
       </c>
       <c r="L98">
-        <v>0.16545687446626811</v>
+        <v>0.1654568744662681</v>
       </c>
       <c r="M98">
         <v>100</v>
@@ -6587,7 +6528,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -6598,31 +6539,31 @@
         <v>74</v>
       </c>
       <c r="D99">
-        <v>11.947669836599591</v>
+        <v>11.94766983659959</v>
       </c>
       <c r="E99">
-        <v>65.481006672621234</v>
+        <v>65.48100667262123</v>
       </c>
       <c r="F99">
-        <v>1.1663952083223881</v>
+        <v>1.166395208322388</v>
       </c>
       <c r="G99">
         <v>0.1838911364472233</v>
       </c>
       <c r="H99">
-        <v>0.50964114958230455</v>
+        <v>0.5096411495823046</v>
       </c>
       <c r="I99">
-        <v>20.280565333893769</v>
+        <v>20.28056533389377</v>
       </c>
       <c r="J99">
-        <v>0.16287500656754059</v>
+        <v>0.1628750065675406</v>
       </c>
       <c r="K99">
-        <v>4.728629222928598E-2</v>
+        <v>0.04728629222928598</v>
       </c>
       <c r="L99">
-        <v>0.22066936373666801</v>
+        <v>0.220669363736668</v>
       </c>
       <c r="M99">
         <v>100</v>
@@ -6649,7 +6590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -6660,25 +6601,25 @@
         <v>10.95281513562799</v>
       </c>
       <c r="E100">
-        <v>66.457715979028961</v>
+        <v>66.45771597902896</v>
       </c>
       <c r="F100">
-        <v>0.99726464554365191</v>
+        <v>0.9972646455436519</v>
       </c>
       <c r="G100">
         <v>0.1310690677000228</v>
       </c>
       <c r="H100">
-        <v>0.54137223615226826</v>
+        <v>0.5413722361522683</v>
       </c>
       <c r="I100">
-        <v>20.475267836790518</v>
+        <v>20.47526783679052</v>
       </c>
       <c r="J100">
-        <v>0.16526099840437661</v>
+        <v>0.1652609984043766</v>
       </c>
       <c r="K100">
-        <v>5.1287896056530682E-2</v>
+        <v>0.05128789605653068</v>
       </c>
       <c r="L100">
         <v>0.2279462046956918</v>
@@ -6708,7 +6649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -6719,31 +6660,31 @@
         <v>75</v>
       </c>
       <c r="D101">
-        <v>8.9580433485782471</v>
+        <v>8.958043348578247</v>
       </c>
       <c r="E101">
-        <v>69.203619009743491</v>
+        <v>69.20361900974349</v>
       </c>
       <c r="F101">
-        <v>3.3306820441439648</v>
+        <v>3.330682044143965</v>
       </c>
       <c r="G101">
         <v>0.1541061841320342</v>
       </c>
       <c r="H101">
-        <v>0.52694372638695564</v>
+        <v>0.5269437263869556</v>
       </c>
       <c r="I101">
-        <v>17.473652813680651</v>
+        <v>17.47365281368065</v>
       </c>
       <c r="J101">
-        <v>3.4798170610459332E-2</v>
+        <v>0.03479817061045933</v>
       </c>
       <c r="K101">
-        <v>6.4625173990853046E-2</v>
+        <v>0.06462517399085305</v>
       </c>
       <c r="L101">
-        <v>0.25352952873334661</v>
+        <v>0.2535295287333466</v>
       </c>
       <c r="M101">
         <v>100</v>
@@ -6770,7 +6711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -6778,34 +6719,34 @@
         <v>24</v>
       </c>
       <c r="D102">
-        <v>13.078845716882521</v>
+        <v>13.07884571688252</v>
       </c>
       <c r="E102">
-        <v>65.912292660758908</v>
+        <v>65.91229266075891</v>
       </c>
       <c r="F102">
-        <v>3.3083390138604849</v>
+        <v>3.308339013860485</v>
       </c>
       <c r="G102">
-        <v>0.17723244717109751</v>
+        <v>0.1772324471710975</v>
       </c>
       <c r="H102">
-        <v>0.54078618495796404</v>
+        <v>0.540786184957964</v>
       </c>
       <c r="I102">
-        <v>16.673483299250169</v>
+        <v>16.67348329925017</v>
       </c>
       <c r="J102">
-        <v>4.089979550102249E-2</v>
+        <v>0.04089979550102249</v>
       </c>
       <c r="K102">
-        <v>4.544421722335832E-2</v>
+        <v>0.04544421722335832</v>
       </c>
       <c r="L102">
         <v>0.2226766643944558</v>
       </c>
       <c r="M102">
-        <v>99.999999999999986</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -6829,7 +6770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -6840,28 +6781,28 @@
         <v>14.97584541062802</v>
       </c>
       <c r="E103">
-        <v>62.307861220904691</v>
+        <v>62.30786122090469</v>
       </c>
       <c r="F103">
-        <v>2.2837066315327181</v>
+        <v>2.283706631532718</v>
       </c>
       <c r="G103">
-        <v>0.19762845849802371</v>
+        <v>0.1976284584980237</v>
       </c>
       <c r="H103">
-        <v>0.77953447518664898</v>
+        <v>0.779534475186649</v>
       </c>
       <c r="I103">
-        <v>19.126043039086511</v>
+        <v>19.12604303908651</v>
       </c>
       <c r="J103">
-        <v>4.3917435221783048E-2</v>
+        <v>0.04391743522178305</v>
       </c>
       <c r="K103">
-        <v>5.4896794027228808E-2</v>
+        <v>0.05489679402722881</v>
       </c>
       <c r="L103">
-        <v>0.23056653491436099</v>
+        <v>0.230566534914361</v>
       </c>
       <c r="M103">
         <v>100</v>
@@ -6888,7 +6829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -6899,31 +6840,31 @@
         <v>16.29772542648254</v>
       </c>
       <c r="E104">
-        <v>61.393176279447623</v>
+        <v>61.39317627944762</v>
       </c>
       <c r="F104">
-        <v>2.5487408610885458</v>
+        <v>2.548740861088546</v>
       </c>
       <c r="G104">
-        <v>0.33509341998375308</v>
+        <v>0.3350934199837531</v>
       </c>
       <c r="H104">
-        <v>0.75142160844841588</v>
+        <v>0.7514216084484159</v>
       </c>
       <c r="I104">
         <v>18.31844029244516</v>
       </c>
       <c r="J104">
-        <v>5.0771730300568647E-2</v>
+        <v>0.05077173030056865</v>
       </c>
       <c r="K104">
-        <v>7.1080422420796111E-2</v>
+        <v>0.07108042242079611</v>
       </c>
       <c r="L104">
-        <v>0.23354995938261569</v>
+        <v>0.2335499593826157</v>
       </c>
       <c r="M104">
-        <v>99.999999999999986</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -6947,7 +6888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -6958,31 +6899,31 @@
         <v>76</v>
       </c>
       <c r="D105">
-        <v>14.019896831245401</v>
+        <v>14.0198968312454</v>
       </c>
       <c r="E105">
-        <v>51.160648489314667</v>
+        <v>51.16064848931467</v>
       </c>
       <c r="F105">
-        <v>3.1963890935887989</v>
+        <v>3.196389093588799</v>
       </c>
       <c r="G105">
-        <v>0.41451731761238031</v>
+        <v>0.4145173176123803</v>
       </c>
       <c r="H105">
-        <v>1.0224760501105381</v>
+        <v>1.022476050110538</v>
       </c>
       <c r="I105">
-        <v>29.688651436993371</v>
+        <v>29.68865143699337</v>
       </c>
       <c r="J105">
-        <v>8.2903463522476073E-2</v>
+        <v>0.08290346352247607</v>
       </c>
       <c r="K105">
-        <v>0.12896094325718499</v>
+        <v>0.128960943257185</v>
       </c>
       <c r="L105">
-        <v>0.28555637435519532</v>
+        <v>0.2855563743551953</v>
       </c>
       <c r="M105">
         <v>100</v>
@@ -7006,10 +6947,10 @@
         <v>1</v>
       </c>
       <c r="T105">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -7020,7 +6961,7 @@
         <v>12.95804139486189</v>
       </c>
       <c r="E106">
-        <v>51.236208423934933</v>
+        <v>51.23620842393493</v>
       </c>
       <c r="F106">
         <v>3.084480953531449</v>
@@ -7029,19 +6970,19 @@
         <v>0.3785133285012483</v>
       </c>
       <c r="H106">
-        <v>0.99057743416284127</v>
+        <v>0.9905774341628413</v>
       </c>
       <c r="I106">
-        <v>30.780381734718539</v>
+        <v>30.78038173471854</v>
       </c>
       <c r="J106">
-        <v>8.0534750744946454E-2</v>
+        <v>0.08053475074494645</v>
       </c>
       <c r="K106">
-        <v>0.15301602641539819</v>
+        <v>0.1530160264153982</v>
       </c>
       <c r="L106">
-        <v>0.33824595312877509</v>
+        <v>0.3382459531287751</v>
       </c>
       <c r="M106">
         <v>100</v>
@@ -7065,10 +7006,10 @@
         <v>0</v>
       </c>
       <c r="T106">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -7082,28 +7023,28 @@
         <v>48.93010888832616</v>
       </c>
       <c r="F107">
-        <v>3.1780197518359068</v>
+        <v>3.178019751835907</v>
       </c>
       <c r="G107">
-        <v>0.18992149911369971</v>
+        <v>0.1899214991136997</v>
       </c>
       <c r="H107">
         <v>1.380096226892884</v>
       </c>
       <c r="I107">
-        <v>35.610281083818677</v>
+        <v>35.61028108381868</v>
       </c>
       <c r="J107">
-        <v>5.6976449734109903E-2</v>
+        <v>0.0569764497341099</v>
       </c>
       <c r="K107">
-        <v>0.12661433274246639</v>
+        <v>0.1266143327424664</v>
       </c>
       <c r="L107">
-        <v>0.31020511521904282</v>
+        <v>0.3102051152190428</v>
       </c>
       <c r="M107">
-        <v>99.999999999999986</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -7124,10 +7065,10 @@
         <v>0</v>
       </c>
       <c r="T107">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -7135,34 +7076,34 @@
         <v>27</v>
       </c>
       <c r="D108">
-        <v>6.8949232585596221</v>
+        <v>6.894923258559622</v>
       </c>
       <c r="E108">
-        <v>49.799291617473443</v>
+        <v>49.79929161747344</v>
       </c>
       <c r="F108">
-        <v>3.1936245572609212</v>
+        <v>3.193624557260921</v>
       </c>
       <c r="G108">
-        <v>0.24203069657615109</v>
+        <v>0.2420306965761511</v>
       </c>
       <c r="H108">
         <v>1.452184179456907</v>
       </c>
       <c r="I108">
-        <v>37.904368358913807</v>
+        <v>37.90436835891381</v>
       </c>
       <c r="J108">
-        <v>7.0838252656434467E-2</v>
+        <v>0.07083825265643447</v>
       </c>
       <c r="K108">
-        <v>0.12987012987012991</v>
+        <v>0.1298701298701299</v>
       </c>
       <c r="L108">
-        <v>0.31286894923258562</v>
+        <v>0.3128689492325856</v>
       </c>
       <c r="M108">
-        <v>99.999999999999986</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -7183,10 +7124,10 @@
         <v>0</v>
       </c>
       <c r="T108">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -7197,19 +7138,19 @@
         <v>77</v>
       </c>
       <c r="D109">
-        <v>13.810709838107099</v>
+        <v>13.8107098381071</v>
       </c>
       <c r="E109">
-        <v>53.462017434620172</v>
+        <v>53.46201743462017</v>
       </c>
       <c r="F109">
         <v>2.814445828144458</v>
       </c>
       <c r="G109">
-        <v>0.38605230386052303</v>
+        <v>0.386052303860523</v>
       </c>
       <c r="H109">
-        <v>0.63511830635118294</v>
+        <v>0.6351183063511829</v>
       </c>
       <c r="I109">
         <v>28.5678704856787</v>
@@ -7218,7 +7159,7 @@
         <v>0.112079701120797</v>
       </c>
       <c r="K109">
-        <v>6.2266500622664998E-2</v>
+        <v>0.062266500622665</v>
       </c>
       <c r="L109">
         <v>0.149439601494396</v>
@@ -7248,7 +7189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -7256,19 +7197,19 @@
         <v>24</v>
       </c>
       <c r="D110">
-        <v>12.931034482758619</v>
+        <v>12.93103448275862</v>
       </c>
       <c r="E110">
-        <v>56.350169985429837</v>
+        <v>56.35016998542984</v>
       </c>
       <c r="F110">
-        <v>2.6711996114618759</v>
+        <v>2.671199611461876</v>
       </c>
       <c r="G110">
-        <v>0.33997085964060242</v>
+        <v>0.3399708596406024</v>
       </c>
       <c r="H110">
-        <v>0.69208353569694048</v>
+        <v>0.6920835356969405</v>
       </c>
       <c r="I110">
         <v>26.68771248178728</v>
@@ -7277,7 +7218,7 @@
         <v>0.1092763477416222</v>
       </c>
       <c r="K110">
-        <v>6.0709082078678991E-2</v>
+        <v>0.06070908207867899</v>
       </c>
       <c r="L110">
         <v>0.1578436134045654</v>
@@ -7307,7 +7248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -7318,28 +7259,28 @@
         <v>9.124290642038499</v>
       </c>
       <c r="E111">
-        <v>62.473572938689223</v>
+        <v>62.47357293868922</v>
       </c>
       <c r="F111">
-        <v>3.8110604206075438</v>
+        <v>3.811060420607544</v>
       </c>
       <c r="G111">
-        <v>9.4581061533325933E-2</v>
+        <v>0.09458106153332593</v>
       </c>
       <c r="H111">
         <v>0.6509402470234783</v>
       </c>
       <c r="I111">
-        <v>23.500611995104041</v>
+        <v>23.50061199510404</v>
       </c>
       <c r="J111">
-        <v>8.9017469678424402E-2</v>
+        <v>0.0890174696784244</v>
       </c>
       <c r="K111">
-        <v>7.2326694113719822E-2</v>
+        <v>0.07232669411371982</v>
       </c>
       <c r="L111">
-        <v>0.18359853121175029</v>
+        <v>0.1835985312117503</v>
       </c>
       <c r="M111">
         <v>100</v>
@@ -7366,7 +7307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -7374,10 +7315,10 @@
         <v>27</v>
       </c>
       <c r="D112">
-        <v>8.7739032620922384</v>
+        <v>8.773903262092238</v>
       </c>
       <c r="E112">
-        <v>62.622529326691307</v>
+        <v>62.62252932669131</v>
       </c>
       <c r="F112">
         <v>3.819165461460174</v>
@@ -7386,16 +7327,16 @@
         <v>0.1017729926616316</v>
       </c>
       <c r="H112">
-        <v>0.70705447533344046</v>
+        <v>0.7070544753334405</v>
       </c>
       <c r="I112">
-        <v>23.616690770796509</v>
+        <v>23.61669077079651</v>
       </c>
       <c r="J112">
         <v>0.1124859392575928</v>
       </c>
       <c r="K112">
-        <v>7.4990626171728525E-2</v>
+        <v>0.07499062617172852</v>
       </c>
       <c r="L112">
         <v>0.1714071455353795</v>
@@ -7425,7 +7366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -7436,25 +7377,25 @@
         <v>78</v>
       </c>
       <c r="D113">
-        <v>26.351669017395391</v>
+        <v>26.35166901739539</v>
       </c>
       <c r="E113">
-        <v>24.118476727785609</v>
+        <v>24.11847672778561</v>
       </c>
       <c r="F113">
-        <v>3.9022096850023509</v>
+        <v>3.902209685002351</v>
       </c>
       <c r="G113">
-        <v>0.77574047954865999</v>
+        <v>0.77574047954866</v>
       </c>
       <c r="H113">
-        <v>1.5044663845792201</v>
+        <v>1.50446638457922</v>
       </c>
       <c r="I113">
-        <v>42.877291960507748</v>
+        <v>42.87729196050775</v>
       </c>
       <c r="J113">
-        <v>0.23507287259050311</v>
+        <v>0.2350728725905031</v>
       </c>
       <c r="K113">
         <v>0.1175364362952515</v>
@@ -7487,7 +7428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -7495,34 +7436,34 @@
         <v>31</v>
       </c>
       <c r="D114">
-        <v>19.602056359482098</v>
+        <v>19.6020563594821</v>
       </c>
       <c r="E114">
-        <v>25.104722010662599</v>
+        <v>25.1047220106626</v>
       </c>
       <c r="F114">
-        <v>3.1130997715156119</v>
+        <v>3.113099771515612</v>
       </c>
       <c r="G114">
-        <v>0.47600913937547601</v>
+        <v>0.476009139375476</v>
       </c>
       <c r="H114">
         <v>1.009139375476009</v>
       </c>
       <c r="I114">
-        <v>50.190403655750181</v>
+        <v>50.19040365575018</v>
       </c>
       <c r="J114">
-        <v>0.27608530083777599</v>
+        <v>0.276085300837776</v>
       </c>
       <c r="K114">
-        <v>0.12376237623762371</v>
+        <v>0.1237623762376237</v>
       </c>
       <c r="L114">
         <v>0.1047220106626047</v>
       </c>
       <c r="M114">
-        <v>99.999999999999986</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -7546,7 +7487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -7554,34 +7495,34 @@
         <v>27</v>
       </c>
       <c r="D115">
-        <v>16.396258828020621</v>
+        <v>16.39625882802062</v>
       </c>
       <c r="E115">
-        <v>25.243367054781451</v>
+        <v>25.24336705478145</v>
       </c>
       <c r="F115">
-        <v>3.1208245848444371</v>
+        <v>3.120824584844437</v>
       </c>
       <c r="G115">
-        <v>0.59171597633136108</v>
+        <v>0.5917159763313611</v>
       </c>
       <c r="H115">
-        <v>1.0116434434052299</v>
+        <v>1.01164344340523</v>
       </c>
       <c r="I115">
-        <v>53.111280778774578</v>
+        <v>53.11128077877458</v>
       </c>
       <c r="J115">
-        <v>0.30540179423554109</v>
+        <v>0.3054017942355411</v>
       </c>
       <c r="K115">
         <v>0.1240694789081886</v>
       </c>
       <c r="L115">
-        <v>9.5438060698606608E-2</v>
+        <v>0.09543806069860661</v>
       </c>
       <c r="M115">
-        <v>99.999999999999986</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="N115">
         <v>1</v>
@@ -7602,10 +7543,10 @@
         <v>0</v>
       </c>
       <c r="T115">
-        <v>0.16666666666666671</v>
-      </c>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -7616,16 +7557,16 @@
         <v>79</v>
       </c>
       <c r="D116">
-        <v>12.213521772345301</v>
+        <v>12.2135217723453</v>
       </c>
       <c r="E116">
-        <v>38.426279602750178</v>
+        <v>38.42627960275018</v>
       </c>
       <c r="F116">
-        <v>2.9411764705882351</v>
+        <v>2.941176470588235</v>
       </c>
       <c r="G116">
-        <v>0.29602750190985477</v>
+        <v>0.2960275019098548</v>
       </c>
       <c r="H116">
         <v>2.024446142093201</v>
@@ -7634,13 +7575,13 @@
         <v>43.63063407181054</v>
       </c>
       <c r="J116">
-        <v>0.30557677616501139</v>
+        <v>0.3055767761650114</v>
       </c>
       <c r="K116">
-        <v>3.8197097020626417E-2</v>
+        <v>0.03819709702062642</v>
       </c>
       <c r="L116">
-        <v>0.12414056531703591</v>
+        <v>0.1241405653170359</v>
       </c>
       <c r="M116">
         <v>100</v>
@@ -7664,10 +7605,10 @@
         <v>0</v>
       </c>
       <c r="T116">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -7675,13 +7616,13 @@
         <v>24</v>
       </c>
       <c r="D117">
-        <v>9.2180165784480188</v>
+        <v>9.218016578448019</v>
       </c>
       <c r="E117">
         <v>37.59113152901228</v>
       </c>
       <c r="F117">
-        <v>2.5466893039049241</v>
+        <v>2.546689303904924</v>
       </c>
       <c r="G117">
         <v>0.1098571856586438</v>
@@ -7690,16 +7631,16 @@
         <v>1.967442324977529</v>
       </c>
       <c r="I117">
-        <v>48.017577149705389</v>
+        <v>48.01757714970539</v>
       </c>
       <c r="J117">
-        <v>0.29961050634175568</v>
+        <v>0.2996105063417557</v>
       </c>
       <c r="K117">
-        <v>5.9922101268351152E-2</v>
+        <v>0.05992210126835115</v>
       </c>
       <c r="L117">
-        <v>0.18975332068311199</v>
+        <v>0.189753320683112</v>
       </c>
       <c r="M117">
         <v>100</v>
@@ -7723,10 +7664,10 @@
         <v>0</v>
       </c>
       <c r="T117">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -7734,34 +7675,34 @@
         <v>31</v>
       </c>
       <c r="D118">
-        <v>16.210258584145819</v>
+        <v>16.21025858414582</v>
       </c>
       <c r="E118">
-        <v>40.788469690546833</v>
+        <v>40.78846969054683</v>
       </c>
       <c r="F118">
         <v>3.103009749894023</v>
       </c>
       <c r="G118">
-        <v>8.4781687155574381E-2</v>
+        <v>0.08478168715557438</v>
       </c>
       <c r="H118">
-        <v>0.76303518440016938</v>
+        <v>0.7630351844001694</v>
       </c>
       <c r="I118">
         <v>38.36371343789741</v>
       </c>
       <c r="J118">
-        <v>0.40695209834675689</v>
+        <v>0.4069520983467569</v>
       </c>
       <c r="K118">
-        <v>9.3259855871131808E-2</v>
+        <v>0.09325985587113181</v>
       </c>
       <c r="L118">
-        <v>0.18651971174226359</v>
+        <v>0.1865197117422636</v>
       </c>
       <c r="M118">
-        <v>99.999999999999972</v>
+        <v>99.99999999999997</v>
       </c>
       <c r="N118">
         <v>1</v>
@@ -7782,10 +7723,10 @@
         <v>0</v>
       </c>
       <c r="T118">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -7802,22 +7743,22 @@
         <v>3.064516129032258</v>
       </c>
       <c r="G119">
-        <v>0.28013582342954158</v>
+        <v>0.2801358234295416</v>
       </c>
       <c r="H119">
-        <v>0.90831918505942277</v>
+        <v>0.9083191850594228</v>
       </c>
       <c r="I119">
-        <v>39.966044142614606</v>
+        <v>39.96604414261461</v>
       </c>
       <c r="J119">
-        <v>0.43293718166383699</v>
+        <v>0.432937181663837</v>
       </c>
       <c r="K119">
         <v>0.1103565365025467</v>
       </c>
       <c r="L119">
-        <v>0.22920203735144309</v>
+        <v>0.2292020373514431</v>
       </c>
       <c r="M119">
         <v>100</v>
@@ -7841,10 +7782,10 @@
         <v>0</v>
       </c>
       <c r="T119">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -7855,28 +7796,28 @@
         <v>80</v>
       </c>
       <c r="D120">
-        <v>27.061625483774939</v>
+        <v>27.06162548377494</v>
       </c>
       <c r="E120">
-        <v>18.085739803512951</v>
+        <v>18.08573980351295</v>
       </c>
       <c r="F120">
-        <v>4.1679071152128619</v>
+        <v>4.167907115212862</v>
       </c>
       <c r="G120">
-        <v>0.46144685918428108</v>
+        <v>0.4614468591842811</v>
       </c>
       <c r="H120">
-        <v>0.96754986603155724</v>
+        <v>0.9675498660315572</v>
       </c>
       <c r="I120">
-        <v>48.898481690979459</v>
+        <v>48.89848169097946</v>
       </c>
       <c r="J120">
-        <v>8.9312295325989915E-2</v>
+        <v>0.08931229532598992</v>
       </c>
       <c r="K120">
-        <v>0.16373920809764811</v>
+        <v>0.1637392080976481</v>
       </c>
       <c r="L120">
         <v>0.1041976778803216</v>
@@ -7906,7 +7847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -7917,28 +7858,28 @@
         <v>28.58097274184928</v>
       </c>
       <c r="E121">
-        <v>18.693212185996799</v>
+        <v>18.6932121859968</v>
       </c>
       <c r="F121">
-        <v>4.4361304115446281</v>
+        <v>4.436130411544628</v>
       </c>
       <c r="G121">
-        <v>0.70817744521646186</v>
+        <v>0.7081774452164619</v>
       </c>
       <c r="H121">
-        <v>0.94869053981827889</v>
+        <v>0.9486905398182789</v>
       </c>
       <c r="I121">
-        <v>46.285408872260817</v>
+        <v>46.28540887226082</v>
       </c>
       <c r="J121">
-        <v>0.10689470871191881</v>
+        <v>0.1068947087119188</v>
       </c>
       <c r="K121">
-        <v>0.14698022447888831</v>
+        <v>0.1469802244788883</v>
       </c>
       <c r="L121">
-        <v>9.3532870122928921E-2</v>
+        <v>0.09353287012292892</v>
       </c>
       <c r="M121">
         <v>100</v>
@@ -7965,7 +7906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -7979,28 +7920,28 @@
         <v>22.8329372869098</v>
       </c>
       <c r="E122">
-        <v>34.497365430313053</v>
+        <v>34.49736543031305</v>
       </c>
       <c r="F122">
-        <v>4.3496228949271618</v>
+        <v>4.349622894927162</v>
       </c>
       <c r="G122">
-        <v>0.22729620828597999</v>
+        <v>0.22729620828598</v>
       </c>
       <c r="H122">
-        <v>0.54757722905258799</v>
+        <v>0.547577229052588</v>
       </c>
       <c r="I122">
-        <v>36.574026242380413</v>
+        <v>36.57402624238041</v>
       </c>
       <c r="J122">
-        <v>0.20663291662361821</v>
+        <v>0.2066329166236182</v>
       </c>
       <c r="K122">
         <v>0.216964562454799</v>
       </c>
       <c r="L122">
-        <v>0.54757722905258799</v>
+        <v>0.547577229052588</v>
       </c>
       <c r="M122">
         <v>100</v>
@@ -8024,10 +7965,10 @@
         <v>0</v>
       </c>
       <c r="T122">
-        <v>0.16666666666666671</v>
-      </c>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -8035,34 +7976,34 @@
         <v>24</v>
       </c>
       <c r="D123">
-        <v>14.968041836141779</v>
+        <v>14.96804183614178</v>
       </c>
       <c r="E123">
-        <v>36.757699012202202</v>
+        <v>36.7576990122022</v>
       </c>
       <c r="F123">
-        <v>4.4625217896571749</v>
+        <v>4.462521789657175</v>
       </c>
       <c r="G123">
-        <v>0.22080185938407901</v>
+        <v>0.220801859384079</v>
       </c>
       <c r="H123">
-        <v>0.58105752469494465</v>
+        <v>0.5810575246949446</v>
       </c>
       <c r="I123">
-        <v>41.917489831493313</v>
+        <v>41.91748983149331</v>
       </c>
       <c r="J123">
         <v>0.2324230098779779</v>
       </c>
       <c r="K123">
-        <v>0.24404416037187679</v>
+        <v>0.2440441603718768</v>
       </c>
       <c r="L123">
-        <v>0.61592097617664143</v>
+        <v>0.6159209761766414</v>
       </c>
       <c r="M123">
-        <v>99.999999999999972</v>
+        <v>99.99999999999997</v>
       </c>
       <c r="N123">
         <v>1</v>
@@ -8083,10 +8024,10 @@
         <v>0</v>
       </c>
       <c r="T123">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -8094,34 +8035,34 @@
         <v>31</v>
       </c>
       <c r="D124">
-        <v>21.965712724540669</v>
+        <v>21.96571272454067</v>
       </c>
       <c r="E124">
-        <v>19.930332627552769</v>
+        <v>19.93033262755277</v>
       </c>
       <c r="F124">
-        <v>4.1527218086196296</v>
+        <v>4.15272180861963</v>
       </c>
       <c r="G124">
-        <v>0.40980807321904239</v>
+        <v>0.4098080732190424</v>
       </c>
       <c r="H124">
-        <v>0.56690116795300871</v>
+        <v>0.5669011679530087</v>
       </c>
       <c r="I124">
-        <v>52.018304760603783</v>
+        <v>52.01830476060378</v>
       </c>
       <c r="J124">
-        <v>0.15026296018031551</v>
+        <v>0.1502629601803155</v>
       </c>
       <c r="K124">
         <v>0.1980739020558705</v>
       </c>
       <c r="L124">
-        <v>0.60788197527491283</v>
+        <v>0.6078819752749128</v>
       </c>
       <c r="M124">
-        <v>99.999999999999986</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -8145,7 +8086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -8153,34 +8094,34 @@
         <v>27</v>
       </c>
       <c r="D125">
-        <v>18.151590720169271</v>
+        <v>18.15159072016927</v>
       </c>
       <c r="E125">
         <v>18.71079876067407</v>
       </c>
       <c r="F125">
-        <v>4.2922995541449396</v>
+        <v>4.29229955414494</v>
       </c>
       <c r="G125">
-        <v>0.31738834731353438</v>
+        <v>0.3173883473135344</v>
       </c>
       <c r="H125">
-        <v>0.49875311720698251</v>
+        <v>0.4987531172069825</v>
       </c>
       <c r="I125">
-        <v>57.092118189375043</v>
+        <v>57.09211818937504</v>
       </c>
       <c r="J125">
-        <v>0.15113730824454019</v>
+        <v>0.1511373082445402</v>
       </c>
       <c r="K125">
-        <v>0.15113730824454019</v>
+        <v>0.1511373082445402</v>
       </c>
       <c r="L125">
-        <v>0.63477669462706876</v>
+        <v>0.6347766946270688</v>
       </c>
       <c r="M125">
-        <v>99.999999999999986</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -8204,7 +8145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -8215,10 +8156,10 @@
         <v>82</v>
       </c>
       <c r="D126">
-        <v>19.880592385826159</v>
+        <v>19.88059238582616</v>
       </c>
       <c r="E126">
-        <v>46.057222609909289</v>
+        <v>46.05722260990929</v>
       </c>
       <c r="F126">
         <v>2.341629836396061</v>
@@ -8227,19 +8168,19 @@
         <v>0.1783360471427464</v>
       </c>
       <c r="H126">
-        <v>0.93044894161432889</v>
+        <v>0.9304489416143289</v>
       </c>
       <c r="I126">
         <v>29.82088857873925</v>
       </c>
       <c r="J126">
-        <v>5.4276188260835863E-2</v>
+        <v>0.05427618826083586</v>
       </c>
       <c r="K126">
         <v>0.209351011863224</v>
       </c>
       <c r="L126">
-        <v>0.52725440024811965</v>
+        <v>0.5272544002481196</v>
       </c>
       <c r="M126">
         <v>100</v>
@@ -8263,10 +8204,10 @@
         <v>0</v>
       </c>
       <c r="T126">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -8274,34 +8215,34 @@
         <v>24</v>
       </c>
       <c r="D127">
-        <v>19.571248423707431</v>
+        <v>19.57124842370743</v>
       </c>
       <c r="E127">
         <v>46.38923917612442</v>
       </c>
       <c r="F127">
-        <v>2.5809163514081539</v>
+        <v>2.580916351408154</v>
       </c>
       <c r="G127">
-        <v>0.19335855401429169</v>
+        <v>0.1933585540142917</v>
       </c>
       <c r="H127">
-        <v>0.99201345102984428</v>
+        <v>0.9920134510298443</v>
       </c>
       <c r="I127">
         <v>29.49978982765867</v>
       </c>
       <c r="J127">
-        <v>5.0441361916771753E-2</v>
+        <v>0.05044136191677175</v>
       </c>
       <c r="K127">
         <v>0.2101723413198823</v>
       </c>
       <c r="L127">
-        <v>0.51282051282051266</v>
+        <v>0.5128205128205127</v>
       </c>
       <c r="M127">
-        <v>99.999999999999972</v>
+        <v>99.99999999999997</v>
       </c>
       <c r="N127">
         <v>1</v>
@@ -8322,10 +8263,10 @@
         <v>0</v>
       </c>
       <c r="T127">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -8333,31 +8274,31 @@
         <v>31</v>
       </c>
       <c r="D128">
-        <v>25.655877342419078</v>
+        <v>25.65587734241908</v>
       </c>
       <c r="E128">
-        <v>26.686541737649058</v>
+        <v>26.68654173764906</v>
       </c>
       <c r="F128">
-        <v>3.9608177172061332</v>
+        <v>3.960817717206133</v>
       </c>
       <c r="G128">
-        <v>0.55366269165247028</v>
+        <v>0.5536626916524703</v>
       </c>
       <c r="H128">
-        <v>0.74105621805792166</v>
+        <v>0.7410562180579217</v>
       </c>
       <c r="I128">
-        <v>41.839863713798977</v>
+        <v>41.83986371379898</v>
       </c>
       <c r="J128">
-        <v>6.8143100511073251E-2</v>
+        <v>0.06814310051107325</v>
       </c>
       <c r="K128">
-        <v>0.22146507666098811</v>
+        <v>0.2214650766609881</v>
       </c>
       <c r="L128">
-        <v>0.27257240204429301</v>
+        <v>0.272572402044293</v>
       </c>
       <c r="M128">
         <v>100</v>
@@ -8384,7 +8325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -8392,31 +8333,31 @@
         <v>27</v>
       </c>
       <c r="D129">
-        <v>25.075294725066691</v>
+        <v>25.07529472506669</v>
       </c>
       <c r="E129">
         <v>26.97702435246536</v>
       </c>
       <c r="F129">
-        <v>3.7346183633078049</v>
+        <v>3.734618363307805</v>
       </c>
       <c r="G129">
-        <v>0.56793735478874452</v>
+        <v>0.5679373547887445</v>
       </c>
       <c r="H129">
-        <v>0.74864469494879937</v>
+        <v>0.7486446949487994</v>
       </c>
       <c r="I129">
-        <v>42.294122708889077</v>
+        <v>42.29412270888908</v>
       </c>
       <c r="J129">
-        <v>8.6051114361930997E-2</v>
+        <v>0.086051114361931</v>
       </c>
       <c r="K129">
-        <v>0.23233800877721361</v>
+        <v>0.2323380087772136</v>
       </c>
       <c r="L129">
-        <v>0.28396867739437232</v>
+        <v>0.2839686773943723</v>
       </c>
       <c r="M129">
         <v>100</v>
@@ -8443,7 +8384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -8454,31 +8395,31 @@
         <v>83</v>
       </c>
       <c r="D130">
-        <v>19.940545053972219</v>
+        <v>19.94054505397222</v>
       </c>
       <c r="E130">
-        <v>40.393147088116052</v>
+        <v>40.39314708811605</v>
       </c>
       <c r="F130">
-        <v>3.9933402412402041</v>
+        <v>3.993340241240204</v>
       </c>
       <c r="G130">
-        <v>0.39737231270686002</v>
+        <v>0.39737231270686</v>
       </c>
       <c r="H130">
-        <v>0.67553293160166195</v>
+        <v>0.6755329316016619</v>
       </c>
       <c r="I130">
-        <v>34.438095429715403</v>
+        <v>34.4380954297154</v>
       </c>
       <c r="J130">
-        <v>2.1629125881512629E-2</v>
+        <v>0.02162912588151263</v>
       </c>
       <c r="K130">
-        <v>5.5330322022474163E-2</v>
+        <v>0.05533032202247416</v>
       </c>
       <c r="L130">
-        <v>8.5007494743619405E-2</v>
+        <v>0.08500749474361941</v>
       </c>
       <c r="M130">
         <v>100</v>
@@ -8505,7 +8446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -8516,31 +8457,31 @@
         <v>84</v>
       </c>
       <c r="D131">
-        <v>20.633359807369871</v>
+        <v>20.63335980736987</v>
       </c>
       <c r="E131">
-        <v>25.976072513646741</v>
+        <v>25.97607251364674</v>
       </c>
       <c r="F131">
-        <v>2.4463270425979848</v>
+        <v>2.446327042597985</v>
       </c>
       <c r="G131">
-        <v>0.36559383785282962</v>
+        <v>0.3655938378528296</v>
       </c>
       <c r="H131">
-        <v>0.60133882984758524</v>
+        <v>0.6013388298475852</v>
       </c>
       <c r="I131">
-        <v>49.765515676411638</v>
+        <v>49.76551567641164</v>
       </c>
       <c r="J131">
-        <v>5.2948073068340831E-2</v>
+        <v>0.05294807306834083</v>
       </c>
       <c r="K131">
-        <v>6.3033420319453373E-2</v>
+        <v>0.06303342031945337</v>
       </c>
       <c r="L131">
-        <v>9.5810798885569134E-2</v>
+        <v>0.09581079888556913</v>
       </c>
       <c r="M131">
         <v>100</v>
@@ -8567,7 +8508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -8581,25 +8522,25 @@
         <v>19.65010141987829</v>
       </c>
       <c r="E132">
-        <v>21.355223123732252</v>
+        <v>21.35522312373225</v>
       </c>
       <c r="F132">
         <v>3.359533468559837</v>
       </c>
       <c r="G132">
-        <v>0.67824543610547661</v>
+        <v>0.6782454361054766</v>
       </c>
       <c r="H132">
-        <v>1.0015212981744419</v>
+        <v>1.001521298174442</v>
       </c>
       <c r="I132">
-        <v>53.689148073022317</v>
+        <v>53.68914807302232</v>
       </c>
       <c r="J132">
-        <v>8.2403651115618662E-2</v>
+        <v>0.08240365111561866</v>
       </c>
       <c r="K132">
-        <v>6.3387423935091267E-2</v>
+        <v>0.06338742393509127</v>
       </c>
       <c r="L132">
         <v>0.1204361054766734</v>
@@ -8629,7 +8570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -8640,31 +8581,31 @@
         <v>86</v>
       </c>
       <c r="D133">
-        <v>20.501688374336709</v>
+        <v>20.50168837433671</v>
       </c>
       <c r="E133">
-        <v>36.645762984402637</v>
+        <v>36.64576298440264</v>
       </c>
       <c r="F133">
-        <v>3.4893069625341702</v>
+        <v>3.48930696253417</v>
       </c>
       <c r="G133">
-        <v>0.40199388969287669</v>
+        <v>0.4019938896928767</v>
       </c>
       <c r="H133">
-        <v>0.86830680173661379</v>
+        <v>0.8683068017366138</v>
       </c>
       <c r="I133">
-        <v>37.747226242161133</v>
+        <v>37.74722624216113</v>
       </c>
       <c r="J133">
-        <v>0.11255828911400551</v>
+        <v>0.1125582891140055</v>
       </c>
       <c r="K133">
-        <v>8.8438655732432869E-2</v>
+        <v>0.08843865573243287</v>
       </c>
       <c r="L133">
-        <v>0.14471780028943559</v>
+        <v>0.1447178002894356</v>
       </c>
       <c r="M133">
         <v>100</v>

--- a/src/dati_ceramiche_classificati.xlsx
+++ b/src/dati_ceramiche_classificati.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="90">
   <si>
     <t>Campione</t>
   </si>
@@ -70,7 +70,16 @@
     <t>Naive Bayes</t>
   </si>
   <si>
-    <t>media</t>
+    <t>valutazione</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>perRepVal</t>
+  </si>
+  <si>
+    <t>perRepConf</t>
   </si>
   <si>
     <t>tot misure</t>
@@ -632,15 +641,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T133"/>
+  <dimension ref="A1:W133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -699,8 +708,17 @@
       <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -708,7 +726,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D2">
         <v>19.48709660039869</v>
@@ -759,15 +777,24 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.1666666666666667</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>19.90494431439313</v>
@@ -820,8 +847,11 @@
       <c r="T3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -829,7 +859,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>20.49430161675059</v>
@@ -882,13 +912,22 @@
       <c r="T4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>21.91451783821971</v>
@@ -941,8 +980,11 @@
       <c r="T5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="U5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -950,7 +992,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D6">
         <v>4.484574868322047</v>
@@ -1001,15 +1043,24 @@
         <v>1</v>
       </c>
       <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
         <v>0.8333333333333334</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>3.764452809895133</v>
@@ -1060,10 +1111,13 @@
         <v>1</v>
       </c>
       <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
         <v>0.8333333333333334</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1071,7 +1125,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D8">
         <v>12.46688483715132</v>
@@ -1124,13 +1178,22 @@
       <c r="T8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <v>12.75096598227139</v>
@@ -1183,13 +1246,16 @@
       <c r="T9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="U9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <v>13.57353129399719</v>
@@ -1242,13 +1308,16 @@
       <c r="T10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="U10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>12.13792032305661</v>
@@ -1301,8 +1370,11 @@
       <c r="T11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="U11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1310,7 +1382,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D12">
         <v>17.28625692757955</v>
@@ -1361,15 +1433,24 @@
         <v>1</v>
       </c>
       <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
         <v>0.8333333333333334</v>
       </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>0.8888888888888888</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D13">
         <v>16.53937648679103</v>
@@ -1420,15 +1501,18 @@
         <v>1</v>
       </c>
       <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
         <v>0.8333333333333334</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D14">
         <v>8.303001755663086</v>
@@ -1481,8 +1565,11 @@
       <c r="T14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="U14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1490,7 +1577,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D15">
         <v>23.49809885931559</v>
@@ -1541,15 +1628,24 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>0.1666666666666667</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D16">
         <v>27.83474776049033</v>
@@ -1602,8 +1698,11 @@
       <c r="T16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="U16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1611,7 +1710,7 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D17">
         <v>20.87727944800394</v>
@@ -1664,13 +1763,22 @@
       <c r="T17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D18">
         <v>19.65738474766849</v>
@@ -1723,13 +1831,16 @@
       <c r="T18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="U18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D19">
         <v>23.67615691366039</v>
@@ -1782,8 +1893,11 @@
       <c r="T19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="U19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1791,7 +1905,7 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D20">
         <v>20.02837550248285</v>
@@ -1844,13 +1958,22 @@
       <c r="T20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D21">
         <v>20.74595682117155</v>
@@ -1903,8 +2026,11 @@
       <c r="T21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="U21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1912,7 +2038,7 @@
         <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D22">
         <v>15.50938102752937</v>
@@ -1963,15 +2089,24 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>0.1666666666666667</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D23">
         <v>16.6825630798578</v>
@@ -2022,15 +2157,18 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>0.1666666666666667</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D24">
         <v>23.11534619226926</v>
@@ -2083,13 +2221,16 @@
       <c r="T24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="U24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D25">
         <v>23.33563695001152</v>
@@ -2142,8 +2283,11 @@
       <c r="T25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="U25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2151,7 +2295,7 @@
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D26">
         <v>25.30487804878049</v>
@@ -2204,13 +2348,22 @@
       <c r="T26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D27">
         <v>43.03147810218978</v>
@@ -2263,13 +2416,16 @@
       <c r="T27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="U27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D28">
         <v>32.45637113040427</v>
@@ -2322,8 +2478,11 @@
       <c r="T28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="U28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2331,7 +2490,7 @@
         <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D29">
         <v>16.20653503407304</v>
@@ -2384,13 +2543,22 @@
       <c r="T29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D30">
         <v>19.22657495176579</v>
@@ -2441,10 +2609,13 @@
         <v>1</v>
       </c>
       <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
         <v>0.8333333333333334</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:23">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2452,7 +2623,7 @@
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D31">
         <v>17.5602255253716</v>
@@ -2505,13 +2676,22 @@
       <c r="T31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:20">
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="W31">
+        <v>0.7222222222222222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D32">
         <v>17.92171666997814</v>
@@ -2562,15 +2742,18 @@
         <v>0</v>
       </c>
       <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
         <v>0.8333333333333334</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:23">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D33">
         <v>18.22857142857143</v>
@@ -2621,15 +2804,18 @@
         <v>0</v>
       </c>
       <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33">
         <v>0.8333333333333334</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:23">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D34">
         <v>15.17655897821187</v>
@@ -2680,15 +2866,18 @@
         <v>0</v>
       </c>
       <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34">
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:23">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D35">
         <v>16.4764820484275</v>
@@ -2739,15 +2928,18 @@
         <v>0</v>
       </c>
       <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35">
         <v>0.6666666666666666</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:23">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D36">
         <v>10.03134796238245</v>
@@ -2798,10 +2990,13 @@
         <v>0</v>
       </c>
       <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:23">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2809,7 +3004,7 @@
         <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D37">
         <v>24.17790893760539</v>
@@ -2860,15 +3055,24 @@
         <v>0</v>
       </c>
       <c r="T37">
+        <v>1</v>
+      </c>
+      <c r="U37">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:20">
+      <c r="V37">
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <v>0.6111111111111112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D38">
         <v>16.75675675675675</v>
@@ -2919,15 +3123,18 @@
         <v>0</v>
       </c>
       <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38">
         <v>0.6666666666666666</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:23">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D39">
         <v>2.690455961483999</v>
@@ -2978,10 +3185,13 @@
         <v>0</v>
       </c>
       <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
         <v>0.6666666666666666</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:23">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2989,7 +3199,7 @@
         <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D40">
         <v>11.6294826501476</v>
@@ -3042,13 +3252,22 @@
       <c r="T40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:20">
+      <c r="U40">
+        <v>1</v>
+      </c>
+      <c r="V40">
+        <v>1</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D41">
         <v>11.58564520234156</v>
@@ -3101,8 +3320,11 @@
       <c r="T41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:20">
+      <c r="U41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3110,7 +3332,7 @@
         <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D42">
         <v>17.41092739660634</v>
@@ -3163,13 +3385,22 @@
       <c r="T42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:20">
+      <c r="U42">
+        <v>1</v>
+      </c>
+      <c r="V42">
+        <v>1</v>
+      </c>
+      <c r="W42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D43">
         <v>16.53589413280244</v>
@@ -3222,8 +3453,11 @@
       <c r="T43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:20">
+      <c r="U43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3231,7 +3465,7 @@
         <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D44">
         <v>18.10132429935325</v>
@@ -3282,15 +3516,24 @@
         <v>0</v>
       </c>
       <c r="T44">
-        <v>0.1666666666666667</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D45">
         <v>13.40338493623165</v>
@@ -3341,10 +3584,13 @@
         <v>0</v>
       </c>
       <c r="T45">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0.6666666666666667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3352,7 +3598,7 @@
         <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D46">
         <v>15.77590040017786</v>
@@ -3405,13 +3651,22 @@
       <c r="T46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:20">
+      <c r="U46">
+        <v>1</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D47">
         <v>18.75588327580797</v>
@@ -3464,8 +3719,11 @@
       <c r="T47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:20">
+      <c r="U47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3473,7 +3731,7 @@
         <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D48">
         <v>16.49914334665905</v>
@@ -3524,15 +3782,24 @@
         <v>0</v>
       </c>
       <c r="T48">
+        <v>1</v>
+      </c>
+      <c r="U48">
         <v>0.8333333333333334</v>
       </c>
-    </row>
-    <row r="49" spans="1:20">
+      <c r="V48">
+        <v>1</v>
+      </c>
+      <c r="W48">
+        <v>0.7777777777777778</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D49">
         <v>16.06462781304097</v>
@@ -3583,15 +3850,18 @@
         <v>0</v>
       </c>
       <c r="T49">
+        <v>1</v>
+      </c>
+      <c r="U49">
         <v>0.8333333333333334</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:23">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D50">
         <v>18.86923562855338</v>
@@ -3642,10 +3912,13 @@
         <v>0</v>
       </c>
       <c r="T50">
+        <v>1</v>
+      </c>
+      <c r="U50">
         <v>0.6666666666666666</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:23">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3653,7 +3926,7 @@
         <v>30</v>
       </c>
       <c r="C51" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D51">
         <v>20.82934827162181</v>
@@ -3704,15 +3977,24 @@
         <v>1</v>
       </c>
       <c r="T51">
+        <v>1</v>
+      </c>
+      <c r="U51">
         <v>0.8333333333333334</v>
       </c>
-    </row>
-    <row r="52" spans="1:20">
+      <c r="V51">
+        <v>1</v>
+      </c>
+      <c r="W51">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D52">
         <v>17.4303683737646</v>
@@ -3763,10 +4045,13 @@
         <v>0</v>
       </c>
       <c r="T52">
+        <v>1</v>
+      </c>
+      <c r="U52">
         <v>0.6666666666666666</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:23">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3774,7 +4059,7 @@
         <v>32</v>
       </c>
       <c r="C53" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D53">
         <v>13.38383838383838</v>
@@ -3825,15 +4110,24 @@
         <v>0</v>
       </c>
       <c r="T53">
+        <v>1</v>
+      </c>
+      <c r="U53">
         <v>0.8333333333333334</v>
       </c>
-    </row>
-    <row r="54" spans="1:20">
+      <c r="V53">
+        <v>1</v>
+      </c>
+      <c r="W53">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D54">
         <v>14.95090596214192</v>
@@ -3884,10 +4178,13 @@
         <v>0</v>
       </c>
       <c r="T54">
+        <v>1</v>
+      </c>
+      <c r="U54">
         <v>0.8333333333333334</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:23">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3895,7 +4192,7 @@
         <v>33</v>
       </c>
       <c r="C55" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D55">
         <v>22.77565776260293</v>
@@ -3948,13 +4245,22 @@
       <c r="T55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:20">
+      <c r="U55">
+        <v>1</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D56">
         <v>20.44799290308272</v>
@@ -4007,13 +4313,16 @@
       <c r="T56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:20">
+      <c r="U56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D57">
         <v>21.26526082130966</v>
@@ -4066,8 +4375,11 @@
       <c r="T57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:20">
+      <c r="U57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -4075,7 +4387,7 @@
         <v>34</v>
       </c>
       <c r="C58" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D58">
         <v>12.08946995353233</v>
@@ -4126,15 +4438,24 @@
         <v>0</v>
       </c>
       <c r="T58">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="V58">
+        <v>1</v>
+      </c>
+      <c r="W58">
+        <v>0.5555555555555556</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D59">
         <v>17.57987566864248</v>
@@ -4185,15 +4506,18 @@
         <v>0</v>
       </c>
       <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="U59">
         <v>0.6666666666666666</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:23">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D60">
         <v>16.71276750618722</v>
@@ -4244,10 +4568,13 @@
         <v>0</v>
       </c>
       <c r="T60">
+        <v>1</v>
+      </c>
+      <c r="U60">
         <v>0.6666666666666666</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:23">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4255,7 +4582,7 @@
         <v>36</v>
       </c>
       <c r="C61" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D61">
         <v>29.7055730809674</v>
@@ -4306,15 +4633,24 @@
         <v>0</v>
       </c>
       <c r="T61">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D62">
         <v>28.02111306602463</v>
@@ -4365,10 +4701,13 @@
         <v>0</v>
       </c>
       <c r="T62">
-        <v>0.1666666666666667</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4376,7 +4715,7 @@
         <v>37</v>
       </c>
       <c r="C63" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D63">
         <v>15.72506628594738</v>
@@ -4427,15 +4766,24 @@
         <v>0</v>
       </c>
       <c r="T63">
+        <v>1</v>
+      </c>
+      <c r="U63">
         <v>0.6666666666666666</v>
       </c>
-    </row>
-    <row r="64" spans="1:20">
+      <c r="V63">
+        <v>1</v>
+      </c>
+      <c r="W63">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D64">
         <v>17.17861205915813</v>
@@ -4486,15 +4834,18 @@
         <v>0</v>
       </c>
       <c r="T64">
+        <v>1</v>
+      </c>
+      <c r="U64">
         <v>0.6666666666666666</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:23">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D65">
         <v>21.17865519937451</v>
@@ -4545,15 +4896,18 @@
         <v>0</v>
       </c>
       <c r="T65">
+        <v>1</v>
+      </c>
+      <c r="U65">
         <v>0.8333333333333334</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:23">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D66">
         <v>23.02269601100413</v>
@@ -4604,10 +4958,13 @@
         <v>0</v>
       </c>
       <c r="T66">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0.6666666666666667</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4615,7 +4972,7 @@
         <v>38</v>
       </c>
       <c r="C67" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D67">
         <v>17.76004728132387</v>
@@ -4666,15 +5023,24 @@
         <v>0</v>
       </c>
       <c r="T67">
-        <v>0.1666666666666667</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D68">
         <v>18.1594161690835</v>
@@ -4725,15 +5091,18 @@
         <v>0</v>
       </c>
       <c r="T68">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0.6666666666666667</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D69">
         <v>17.65958957608464</v>
@@ -4786,13 +5155,16 @@
       <c r="T69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:20">
+      <c r="U69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D70">
         <v>19.44067336410535</v>
@@ -4845,13 +5217,16 @@
       <c r="T70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:20">
+      <c r="U70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D71">
         <v>20.53117782909931</v>
@@ -4904,8 +5279,11 @@
       <c r="T71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:20">
+      <c r="U71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -4913,7 +5291,7 @@
         <v>40</v>
       </c>
       <c r="C72" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D72">
         <v>17.08860759493671</v>
@@ -4966,13 +5344,22 @@
       <c r="T72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:20">
+      <c r="U72">
+        <v>1</v>
+      </c>
+      <c r="V72">
+        <v>1</v>
+      </c>
+      <c r="W72">
+        <v>0.9444444444444444</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D73">
         <v>18.14436850482165</v>
@@ -5025,13 +5412,16 @@
       <c r="T73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:20">
+      <c r="U73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D74">
         <v>18.14607903993379</v>
@@ -5082,10 +5472,13 @@
         <v>0</v>
       </c>
       <c r="T74">
+        <v>1</v>
+      </c>
+      <c r="U74">
         <v>0.8333333333333334</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:23">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -5093,7 +5486,7 @@
         <v>41</v>
       </c>
       <c r="C75" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D75">
         <v>20.00793021411578</v>
@@ -5146,13 +5539,22 @@
       <c r="T75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:20">
+      <c r="U75">
+        <v>1</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D76">
         <v>19.90842316130879</v>
@@ -5205,8 +5607,11 @@
       <c r="T76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:20">
+      <c r="U76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -5214,7 +5619,7 @@
         <v>42</v>
       </c>
       <c r="C77" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D77">
         <v>17.87060440778679</v>
@@ -5265,15 +5670,24 @@
         <v>0</v>
       </c>
       <c r="T77">
+        <v>1</v>
+      </c>
+      <c r="U77">
         <v>0.8333333333333334</v>
       </c>
-    </row>
-    <row r="78" spans="1:20">
+      <c r="V77">
+        <v>1</v>
+      </c>
+      <c r="W77">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D78">
         <v>17.9760429574556</v>
@@ -5324,10 +5738,13 @@
         <v>0</v>
       </c>
       <c r="T78">
+        <v>1</v>
+      </c>
+      <c r="U78">
         <v>0.6666666666666666</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:23">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -5335,7 +5752,7 @@
         <v>44</v>
       </c>
       <c r="C79" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D79">
         <v>19.26186626081993</v>
@@ -5388,13 +5805,22 @@
       <c r="T79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:20">
+      <c r="U79">
+        <v>1</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D80">
         <v>15.52376945729912</v>
@@ -5447,13 +5873,16 @@
       <c r="T80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:20">
+      <c r="U80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D81">
         <v>22.06504065040651</v>
@@ -5506,8 +5935,11 @@
       <c r="T81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:20">
+      <c r="U81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -5515,7 +5947,7 @@
         <v>46</v>
       </c>
       <c r="C82" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D82">
         <v>13.79883624272652</v>
@@ -5568,13 +6000,22 @@
       <c r="T82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:20">
+      <c r="U82">
+        <v>1</v>
+      </c>
+      <c r="V82">
+        <v>1</v>
+      </c>
+      <c r="W82">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D83">
         <v>13.51884744424709</v>
@@ -5625,15 +6066,18 @@
         <v>0</v>
       </c>
       <c r="T83">
+        <v>1</v>
+      </c>
+      <c r="U83">
         <v>0.8333333333333334</v>
       </c>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:23">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="C84" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D84">
         <v>15.9796558046011</v>
@@ -5684,15 +6128,18 @@
         <v>0</v>
       </c>
       <c r="T84">
+        <v>1</v>
+      </c>
+      <c r="U84">
         <v>0.8333333333333334</v>
       </c>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:23">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D85">
         <v>18.43665457894434</v>
@@ -5743,10 +6190,13 @@
         <v>0</v>
       </c>
       <c r="T85">
+        <v>1</v>
+      </c>
+      <c r="U85">
         <v>0.8333333333333334</v>
       </c>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:23">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -5754,7 +6204,7 @@
         <v>52</v>
       </c>
       <c r="C86" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D86">
         <v>12.63024944742658</v>
@@ -5805,15 +6255,24 @@
         <v>0</v>
       </c>
       <c r="T86">
+        <v>1</v>
+      </c>
+      <c r="U86">
         <v>0.8333333333333334</v>
       </c>
-    </row>
-    <row r="87" spans="1:20">
+      <c r="V86">
+        <v>1</v>
+      </c>
+      <c r="W86">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D87">
         <v>12.32908034938492</v>
@@ -5864,10 +6323,13 @@
         <v>0</v>
       </c>
       <c r="T87">
+        <v>1</v>
+      </c>
+      <c r="U87">
         <v>0.8333333333333334</v>
       </c>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:23">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -5875,7 +6337,7 @@
         <v>54</v>
       </c>
       <c r="C88" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D88">
         <v>14.34970651838121</v>
@@ -5928,13 +6390,22 @@
       <c r="T88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:20">
+      <c r="U88">
+        <v>1</v>
+      </c>
+      <c r="V88">
+        <v>1</v>
+      </c>
+      <c r="W88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D89">
         <v>12.31777314979428</v>
@@ -5987,8 +6458,11 @@
       <c r="T89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:20">
+      <c r="U89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -5996,7 +6470,7 @@
         <v>55</v>
       </c>
       <c r="C90" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D90">
         <v>15.11729564330468</v>
@@ -6047,15 +6521,24 @@
         <v>0</v>
       </c>
       <c r="T90">
+        <v>1</v>
+      </c>
+      <c r="U90">
         <v>0.6666666666666666</v>
       </c>
-    </row>
-    <row r="91" spans="1:20">
+      <c r="V90">
+        <v>1</v>
+      </c>
+      <c r="W90">
+        <v>0.8888888888888888</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D91">
         <v>10.69492759485478</v>
@@ -6108,13 +6591,16 @@
       <c r="T91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:20">
+      <c r="U91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D92">
         <v>7.190002640147847</v>
@@ -6167,8 +6653,11 @@
       <c r="T92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:20">
+      <c r="U92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -6176,7 +6665,7 @@
         <v>57</v>
       </c>
       <c r="C93" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D93">
         <v>18.92845684953481</v>
@@ -6227,10 +6716,19 @@
         <v>0</v>
       </c>
       <c r="T93">
+        <v>1</v>
+      </c>
+      <c r="U93">
         <v>0.8333333333333334</v>
       </c>
-    </row>
-    <row r="94" spans="1:20">
+      <c r="V93">
+        <v>1</v>
+      </c>
+      <c r="W93">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -6238,7 +6736,7 @@
         <v>60</v>
       </c>
       <c r="C94" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D94">
         <v>19.66412577417818</v>
@@ -6289,15 +6787,24 @@
         <v>0</v>
       </c>
       <c r="T94">
+        <v>1</v>
+      </c>
+      <c r="U94">
         <v>0.8333333333333334</v>
       </c>
-    </row>
-    <row r="95" spans="1:20">
+      <c r="V94">
+        <v>1</v>
+      </c>
+      <c r="W94">
+        <v>0.7666666666666667</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D95">
         <v>15.81220790256338</v>
@@ -6348,15 +6855,18 @@
         <v>0</v>
       </c>
       <c r="T95">
+        <v>1</v>
+      </c>
+      <c r="U95">
         <v>0.8333333333333334</v>
       </c>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:23">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D96">
         <v>20.11668611435239</v>
@@ -6407,15 +6917,18 @@
         <v>0</v>
       </c>
       <c r="T96">
+        <v>1</v>
+      </c>
+      <c r="U96">
         <v>0.8333333333333334</v>
       </c>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:23">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D97">
         <v>21.70809267311311</v>
@@ -6466,15 +6979,18 @@
         <v>0</v>
       </c>
       <c r="T97">
+        <v>1</v>
+      </c>
+      <c r="U97">
         <v>0.8333333333333334</v>
       </c>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:23">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D98">
         <v>26.35567890691716</v>
@@ -6525,10 +7041,13 @@
         <v>0</v>
       </c>
       <c r="T98">
+        <v>1</v>
+      </c>
+      <c r="U98">
         <v>0.5</v>
       </c>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:23">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -6536,7 +7055,7 @@
         <v>61</v>
       </c>
       <c r="C99" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D99">
         <v>11.94766983659959</v>
@@ -6589,13 +7108,22 @@
       <c r="T99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:20">
+      <c r="U99">
+        <v>1</v>
+      </c>
+      <c r="V99">
+        <v>1</v>
+      </c>
+      <c r="W99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D100">
         <v>10.95281513562799</v>
@@ -6648,8 +7176,11 @@
       <c r="T100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:20">
+      <c r="U100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -6657,7 +7188,7 @@
         <v>64</v>
       </c>
       <c r="C101" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D101">
         <v>8.958043348578247</v>
@@ -6710,13 +7241,22 @@
       <c r="T101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:20">
+      <c r="U101">
+        <v>1</v>
+      </c>
+      <c r="V101">
+        <v>1</v>
+      </c>
+      <c r="W101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23">
       <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D102">
         <v>13.07884571688252</v>
@@ -6769,13 +7309,16 @@
       <c r="T102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:20">
+      <c r="U102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23">
       <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="C103" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D103">
         <v>14.97584541062802</v>
@@ -6828,13 +7371,16 @@
       <c r="T103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:20">
+      <c r="U103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23">
       <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D104">
         <v>16.29772542648254</v>
@@ -6887,8 +7433,11 @@
       <c r="T104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:20">
+      <c r="U104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -6896,7 +7445,7 @@
         <v>66</v>
       </c>
       <c r="C105" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D105">
         <v>14.0198968312454</v>
@@ -6947,15 +7496,24 @@
         <v>1</v>
       </c>
       <c r="T105">
+        <v>1</v>
+      </c>
+      <c r="U105">
         <v>0.8333333333333334</v>
       </c>
-    </row>
-    <row r="106" spans="1:20">
+      <c r="V105">
+        <v>1</v>
+      </c>
+      <c r="W105">
+        <v>0.7083333333333334</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23">
       <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D106">
         <v>12.95804139486189</v>
@@ -7006,15 +7564,18 @@
         <v>0</v>
       </c>
       <c r="T106">
+        <v>1</v>
+      </c>
+      <c r="U106">
         <v>0.6666666666666666</v>
       </c>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:23">
       <c r="A107" s="1">
         <v>106</v>
       </c>
       <c r="C107" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D107">
         <v>10.21777665231704</v>
@@ -7065,15 +7626,18 @@
         <v>0</v>
       </c>
       <c r="T107">
+        <v>1</v>
+      </c>
+      <c r="U107">
         <v>0.6666666666666666</v>
       </c>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:23">
       <c r="A108" s="1">
         <v>107</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D108">
         <v>6.894923258559622</v>
@@ -7124,10 +7688,13 @@
         <v>0</v>
       </c>
       <c r="T108">
+        <v>1</v>
+      </c>
+      <c r="U108">
         <v>0.6666666666666666</v>
       </c>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:23">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -7135,7 +7702,7 @@
         <v>67</v>
       </c>
       <c r="C109" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D109">
         <v>13.8107098381071</v>
@@ -7188,13 +7755,22 @@
       <c r="T109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:20">
+      <c r="U109">
+        <v>1</v>
+      </c>
+      <c r="V109">
+        <v>1</v>
+      </c>
+      <c r="W109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23">
       <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="C110" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D110">
         <v>12.93103448275862</v>
@@ -7247,13 +7823,16 @@
       <c r="T110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:20">
+      <c r="U110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23">
       <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="C111" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D111">
         <v>9.124290642038499</v>
@@ -7306,13 +7885,16 @@
       <c r="T111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:20">
+      <c r="U111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23">
       <c r="A112" s="1">
         <v>111</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D112">
         <v>8.773903262092238</v>
@@ -7365,8 +7947,11 @@
       <c r="T112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:20">
+      <c r="U112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -7374,7 +7959,7 @@
         <v>68</v>
       </c>
       <c r="C113" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D113">
         <v>26.35166901739539</v>
@@ -7427,13 +8012,22 @@
       <c r="T113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:20">
+      <c r="U113">
+        <v>1</v>
+      </c>
+      <c r="V113">
+        <v>0</v>
+      </c>
+      <c r="W113">
+        <v>0.9444444444444444</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23">
       <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="C114" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D114">
         <v>19.6020563594821</v>
@@ -7486,13 +8080,16 @@
       <c r="T114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:20">
+      <c r="U114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23">
       <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D115">
         <v>16.39625882802062</v>
@@ -7543,10 +8140,13 @@
         <v>0</v>
       </c>
       <c r="T115">
-        <v>0.1666666666666667</v>
-      </c>
-    </row>
-    <row r="116" spans="1:20">
+        <v>0</v>
+      </c>
+      <c r="U115">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -7554,7 +8154,7 @@
         <v>69</v>
       </c>
       <c r="C116" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D116">
         <v>12.2135217723453</v>
@@ -7605,15 +8205,24 @@
         <v>0</v>
       </c>
       <c r="T116">
+        <v>1</v>
+      </c>
+      <c r="U116">
         <v>0.8333333333333334</v>
       </c>
-    </row>
-    <row r="117" spans="1:20">
+      <c r="V116">
+        <v>1</v>
+      </c>
+      <c r="W116">
+        <v>0.7916666666666666</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23">
       <c r="A117" s="1">
         <v>116</v>
       </c>
       <c r="C117" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D117">
         <v>9.218016578448019</v>
@@ -7664,15 +8273,18 @@
         <v>0</v>
       </c>
       <c r="T117">
+        <v>1</v>
+      </c>
+      <c r="U117">
         <v>0.8333333333333334</v>
       </c>
     </row>
-    <row r="118" spans="1:20">
+    <row r="118" spans="1:23">
       <c r="A118" s="1">
         <v>117</v>
       </c>
       <c r="C118" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D118">
         <v>16.21025858414582</v>
@@ -7723,15 +8335,18 @@
         <v>0</v>
       </c>
       <c r="T118">
+        <v>1</v>
+      </c>
+      <c r="U118">
         <v>0.8333333333333334</v>
       </c>
     </row>
-    <row r="119" spans="1:20">
+    <row r="119" spans="1:23">
       <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D119">
         <v>14.03225806451613</v>
@@ -7782,10 +8397,13 @@
         <v>0</v>
       </c>
       <c r="T119">
+        <v>1</v>
+      </c>
+      <c r="U119">
         <v>0.6666666666666666</v>
       </c>
     </row>
-    <row r="120" spans="1:20">
+    <row r="120" spans="1:23">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -7793,7 +8411,7 @@
         <v>70</v>
       </c>
       <c r="C120" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D120">
         <v>27.06162548377494</v>
@@ -7846,13 +8464,22 @@
       <c r="T120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:20">
+      <c r="U120">
+        <v>1</v>
+      </c>
+      <c r="V120">
+        <v>0</v>
+      </c>
+      <c r="W120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23">
       <c r="A121" s="1">
         <v>120</v>
       </c>
       <c r="C121" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D121">
         <v>28.58097274184928</v>
@@ -7905,8 +8532,11 @@
       <c r="T121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:20">
+      <c r="U121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -7914,7 +8544,7 @@
         <v>71</v>
       </c>
       <c r="C122" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D122">
         <v>22.8329372869098</v>
@@ -7965,15 +8595,24 @@
         <v>0</v>
       </c>
       <c r="T122">
-        <v>0.1666666666666667</v>
-      </c>
-    </row>
-    <row r="123" spans="1:20">
+        <v>0</v>
+      </c>
+      <c r="U122">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="V122">
+        <v>0</v>
+      </c>
+      <c r="W122">
+        <v>0.7916666666666666</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23">
       <c r="A123" s="1">
         <v>122</v>
       </c>
       <c r="C123" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D123">
         <v>14.96804183614178</v>
@@ -8024,15 +8663,18 @@
         <v>0</v>
       </c>
       <c r="T123">
+        <v>1</v>
+      </c>
+      <c r="U123">
         <v>0.6666666666666666</v>
       </c>
     </row>
-    <row r="124" spans="1:20">
+    <row r="124" spans="1:23">
       <c r="A124" s="1">
         <v>123</v>
       </c>
       <c r="C124" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D124">
         <v>21.96571272454067</v>
@@ -8085,13 +8727,16 @@
       <c r="T124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:20">
+      <c r="U124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23">
       <c r="A125" s="1">
         <v>124</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D125">
         <v>18.15159072016927</v>
@@ -8144,8 +8789,11 @@
       <c r="T125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:20">
+      <c r="U125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -8153,7 +8801,7 @@
         <v>74</v>
       </c>
       <c r="C126" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D126">
         <v>19.88059238582616</v>
@@ -8204,15 +8852,24 @@
         <v>0</v>
       </c>
       <c r="T126">
+        <v>1</v>
+      </c>
+      <c r="U126">
         <v>0.6666666666666666</v>
       </c>
-    </row>
-    <row r="127" spans="1:20">
+      <c r="V126">
+        <v>0</v>
+      </c>
+      <c r="W126">
+        <v>0.6666666666666667</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23">
       <c r="A127" s="1">
         <v>126</v>
       </c>
       <c r="C127" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D127">
         <v>19.57124842370743</v>
@@ -8263,15 +8920,18 @@
         <v>0</v>
       </c>
       <c r="T127">
+        <v>1</v>
+      </c>
+      <c r="U127">
         <v>0.6666666666666666</v>
       </c>
     </row>
-    <row r="128" spans="1:20">
+    <row r="128" spans="1:23">
       <c r="A128" s="1">
         <v>127</v>
       </c>
       <c r="C128" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D128">
         <v>25.65587734241908</v>
@@ -8324,13 +8984,16 @@
       <c r="T128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:20">
+      <c r="U128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23">
       <c r="A129" s="1">
         <v>128</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D129">
         <v>25.07529472506669</v>
@@ -8383,16 +9046,19 @@
       <c r="T129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:20">
+      <c r="U129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23">
       <c r="A130" s="1">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C130" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D130">
         <v>19.94054505397222</v>
@@ -8445,16 +9111,25 @@
       <c r="T130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:20">
+      <c r="U130">
+        <v>1</v>
+      </c>
+      <c r="V130">
+        <v>1</v>
+      </c>
+      <c r="W130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23">
       <c r="A131" s="1">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C131" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D131">
         <v>20.63335980736987</v>
@@ -8507,16 +9182,25 @@
       <c r="T131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:20">
+      <c r="U131">
+        <v>1</v>
+      </c>
+      <c r="V131">
+        <v>0</v>
+      </c>
+      <c r="W131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23">
       <c r="A132" s="1">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C132" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D132">
         <v>19.65010141987829</v>
@@ -8569,16 +9253,25 @@
       <c r="T132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:20">
+      <c r="U132">
+        <v>1</v>
+      </c>
+      <c r="V132">
+        <v>0</v>
+      </c>
+      <c r="W132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23">
       <c r="A133" s="1">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C133" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D133">
         <v>20.50168837433671</v>
@@ -8629,6 +9322,15 @@
         <v>0</v>
       </c>
       <c r="T133">
+        <v>1</v>
+      </c>
+      <c r="U133">
+        <v>0.5</v>
+      </c>
+      <c r="V133">
+        <v>1</v>
+      </c>
+      <c r="W133">
         <v>0.5</v>
       </c>
     </row>

--- a/src/dati_ceramiche_classificati.xlsx
+++ b/src/dati_ceramiche_classificati.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tsclient\home\GitHub\tirocinio\src\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844C9A3D-D403-4DFF-A457-A39959CA3F17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="14460" yWindow="525" windowWidth="14220" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="91">
+  <si>
+    <t>tot misure</t>
+  </si>
   <si>
     <t>Campione</t>
   </si>
@@ -80,12 +89,6 @@
   </si>
   <si>
     <t>perRepConf</t>
-  </si>
-  <si>
-    <t>tot misure</t>
-  </si>
-  <si>
-    <t>casi dubbi</t>
   </si>
   <si>
     <t>A50014_b</t>
@@ -274,6 +277,9 @@
     <t>A28987</t>
   </si>
   <si>
+    <t>casi dubbi</t>
+  </si>
+  <si>
     <t>228_1a</t>
   </si>
   <si>
@@ -285,12 +291,15 @@
   <si>
     <t>3_612b</t>
   </si>
+  <si>
+    <t>test</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,10 +310,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -342,17 +348,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -640,85 +655,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W133"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -726,16 +743,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>19.48709660039869</v>
       </c>
       <c r="E2">
-        <v>34.23845697968859</v>
+        <v>34.238456979688593</v>
       </c>
       <c r="F2">
-        <v>4.487904746511502</v>
+        <v>4.4879047465115018</v>
       </c>
       <c r="G2">
         <v>0.598028123484726</v>
@@ -747,13 +764,13 @@
         <v>39.8685415656484</v>
       </c>
       <c r="J2">
-        <v>0.0538764075211465</v>
+        <v>5.3876407521146502E-2</v>
       </c>
       <c r="K2">
-        <v>0.1454663003070955</v>
+        <v>0.14546630030709551</v>
       </c>
       <c r="L2">
-        <v>0.215505630084586</v>
+        <v>0.21550563008458601</v>
       </c>
       <c r="M2">
         <v>100</v>
@@ -780,51 +797,51 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0.9166666666666666</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>19.90494431439313</v>
+        <v>19.904944314393131</v>
       </c>
       <c r="E3">
-        <v>29.62332411151309</v>
+        <v>29.623324111513089</v>
       </c>
       <c r="F3">
-        <v>3.185074838618145</v>
+        <v>3.1850748386181449</v>
       </c>
       <c r="G3">
-        <v>0.5533092147265375</v>
+        <v>0.55330921472653749</v>
       </c>
       <c r="H3">
-        <v>0.7874015748031497</v>
+        <v>0.78740157480314965</v>
       </c>
       <c r="I3">
-        <v>45.64091650705824</v>
+        <v>45.640916507058243</v>
       </c>
       <c r="J3">
-        <v>0.07093707881109455</v>
+        <v>7.0937078811094553E-2</v>
       </c>
       <c r="K3">
-        <v>0.09221820245442292</v>
+        <v>9.2218202454422915E-2</v>
       </c>
       <c r="L3">
-        <v>0.1418741576221891</v>
+        <v>0.14187415762218911</v>
       </c>
       <c r="M3">
-        <v>99.99999999999999</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -851,7 +868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -859,37 +876,37 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>20.49430161675059</v>
       </c>
       <c r="E4">
-        <v>20.37503313013517</v>
+        <v>20.375033130135169</v>
       </c>
       <c r="F4">
-        <v>5.74476543864299</v>
+        <v>5.7447654386429896</v>
       </c>
       <c r="G4">
-        <v>0.7752451630002649</v>
+        <v>0.77524516300026491</v>
       </c>
       <c r="H4">
-        <v>0.8348794063079776</v>
+        <v>0.83487940630797763</v>
       </c>
       <c r="I4">
-        <v>51.18605883912006</v>
+        <v>51.186058839120058</v>
       </c>
       <c r="J4">
-        <v>0.06626027034190299</v>
+        <v>6.6260270341902988E-2</v>
       </c>
       <c r="K4">
-        <v>0.178902729923138</v>
+        <v>0.17890272992313799</v>
       </c>
       <c r="L4">
-        <v>0.3445534057778956</v>
+        <v>0.34455340577789562</v>
       </c>
       <c r="M4">
-        <v>99.99999999999999</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -921,43 +938,46 @@
       <c r="W4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="AA4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>21.91451783821971</v>
+        <v>21.914517838219709</v>
       </c>
       <c r="E5">
-        <v>22.38784881667256</v>
+        <v>22.387848816672559</v>
       </c>
       <c r="F5">
-        <v>6.979865771812079</v>
+        <v>6.9798657718120793</v>
       </c>
       <c r="G5">
         <v>1.321087954786295</v>
       </c>
       <c r="H5">
-        <v>1.00317908866125</v>
+        <v>1.0031790886612499</v>
       </c>
       <c r="I5">
-        <v>45.89897562698692</v>
+        <v>45.898975626986918</v>
       </c>
       <c r="J5">
-        <v>0.08477569763334511</v>
+        <v>8.477569763334511E-2</v>
       </c>
       <c r="K5">
-        <v>0.1271635464500177</v>
+        <v>0.12716354645001771</v>
       </c>
       <c r="L5">
-        <v>0.2825856587778171</v>
+        <v>0.28258565877781711</v>
       </c>
       <c r="M5">
-        <v>99.99999999999999</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -983,8 +1003,9 @@
       <c r="U5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="AA5" s="2"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -992,31 +1013,31 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>4.484574868322047</v>
+        <v>4.4845748683220474</v>
       </c>
       <c r="E6">
-        <v>56.22774015550539</v>
+        <v>56.227740155505387</v>
       </c>
       <c r="F6">
-        <v>2.929520943064961</v>
+        <v>2.9295209430649609</v>
       </c>
       <c r="G6">
-        <v>0.1304238776022072</v>
+        <v>0.13042387760220719</v>
       </c>
       <c r="H6">
-        <v>0.637070479056935</v>
+        <v>0.63707047905693504</v>
       </c>
       <c r="I6">
         <v>35.30975670930524</v>
       </c>
       <c r="J6">
-        <v>0.04013042387760221</v>
+        <v>4.0130423877602212E-2</v>
       </c>
       <c r="K6">
-        <v>0.1053423626787058</v>
+        <v>0.10534236267870579</v>
       </c>
       <c r="L6">
         <v>0.1354401805869074</v>
@@ -1046,51 +1067,51 @@
         <v>1</v>
       </c>
       <c r="U6">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="V6">
         <v>1</v>
       </c>
       <c r="W6">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>3.764452809895133</v>
+        <v>3.7644528098951331</v>
       </c>
       <c r="E7">
-        <v>56.1441247647217</v>
+        <v>56.144124764721703</v>
       </c>
       <c r="F7">
         <v>2.828717397149771</v>
       </c>
       <c r="G7">
-        <v>0.2043560096800215</v>
+        <v>0.20435600968002149</v>
       </c>
       <c r="H7">
         <v>0.9249798332885184</v>
       </c>
       <c r="I7">
-        <v>35.83759075020166</v>
+        <v>35.837590750201663</v>
       </c>
       <c r="J7">
-        <v>0.04302231782737295</v>
+        <v>4.3022317827372952E-2</v>
       </c>
       <c r="K7">
-        <v>0.1075557945684324</v>
+        <v>0.10755579456843239</v>
       </c>
       <c r="L7">
         <v>0.1452003226673837</v>
       </c>
       <c r="M7">
-        <v>99.99999999999999</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1114,10 +1135,10 @@
         <v>1</v>
       </c>
       <c r="U7">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1125,37 +1146,37 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>12.46688483715132</v>
+        <v>12.466884837151319</v>
       </c>
       <c r="E8">
-        <v>47.03911485117656</v>
+        <v>47.039114851176564</v>
       </c>
       <c r="F8">
-        <v>2.91413433068412</v>
+        <v>2.9141343306841199</v>
       </c>
       <c r="G8">
-        <v>0.2882967118591241</v>
+        <v>0.28829671185912409</v>
       </c>
       <c r="H8">
         <v>1.223313074645473</v>
       </c>
       <c r="I8">
-        <v>35.64749883122953</v>
+        <v>35.647498831229527</v>
       </c>
       <c r="J8">
-        <v>0.09350163627863486</v>
+        <v>9.3501636278634864E-2</v>
       </c>
       <c r="K8">
-        <v>0.09350163627863486</v>
+        <v>9.3501636278634864E-2</v>
       </c>
       <c r="L8">
-        <v>0.2337540906965871</v>
+        <v>0.23375409069658709</v>
       </c>
       <c r="M8">
-        <v>99.99999999999999</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1188,39 +1209,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <v>12.75096598227139</v>
       </c>
       <c r="E9">
-        <v>46.54140465186757</v>
+        <v>46.541404651867573</v>
       </c>
       <c r="F9">
-        <v>3.129024926130768</v>
+        <v>3.1290249261307679</v>
       </c>
       <c r="G9">
-        <v>0.2197136146677779</v>
+        <v>0.21971361466777789</v>
       </c>
       <c r="H9">
         <v>1.030381089476476</v>
       </c>
       <c r="I9">
-        <v>35.90423516933102</v>
+        <v>35.904235169331017</v>
       </c>
       <c r="J9">
-        <v>0.09091597848321843</v>
+        <v>9.0915978483218432E-2</v>
       </c>
       <c r="K9">
-        <v>0.08333964694295022</v>
+        <v>8.3339646942950221E-2</v>
       </c>
       <c r="L9">
-        <v>0.2500189408288507</v>
+        <v>0.25001894082885068</v>
       </c>
       <c r="M9">
         <v>100</v>
@@ -1250,39 +1271,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10">
         <v>13.57353129399719</v>
       </c>
       <c r="E10">
-        <v>54.47331370792271</v>
+        <v>54.473313707922713</v>
       </c>
       <c r="F10">
-        <v>2.13746320235505</v>
+        <v>2.1374632023550499</v>
       </c>
       <c r="G10">
-        <v>0.1919877127863817</v>
+        <v>0.19198771278638169</v>
       </c>
       <c r="H10">
         <v>0.902342250095994</v>
       </c>
       <c r="I10">
-        <v>28.3181876359913</v>
+        <v>28.318187635991301</v>
       </c>
       <c r="J10">
-        <v>0.07679508511455267</v>
+        <v>7.6795085114552672E-2</v>
       </c>
       <c r="K10">
-        <v>0.08319467554076541</v>
+        <v>8.3194675540765414E-2</v>
       </c>
       <c r="L10">
-        <v>0.2431844361960835</v>
+        <v>0.24318443619608349</v>
       </c>
       <c r="M10">
         <v>100</v>
@@ -1312,39 +1333,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <v>12.13792032305661</v>
       </c>
       <c r="E11">
-        <v>55.39333695736585</v>
+        <v>55.393336957365847</v>
       </c>
       <c r="F11">
-        <v>2.205482643472858</v>
+        <v>2.2054826434728581</v>
       </c>
       <c r="G11">
         <v>0.2329735186767104</v>
       </c>
       <c r="H11">
-        <v>0.89306515492739</v>
+        <v>0.89306515492739003</v>
       </c>
       <c r="I11">
-        <v>28.74116642075018</v>
+        <v>28.741166420750179</v>
       </c>
       <c r="J11">
-        <v>0.07765783955890347</v>
+        <v>7.7657839558903471E-2</v>
       </c>
       <c r="K11">
-        <v>0.07765783955890347</v>
+        <v>7.7657839558903471E-2</v>
       </c>
       <c r="L11">
-        <v>0.2407393026326007</v>
+        <v>0.24073930263260071</v>
       </c>
       <c r="M11">
         <v>100</v>
@@ -1374,7 +1395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1382,34 +1403,34 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>17.28625692757955</v>
+        <v>17.286256927579551</v>
       </c>
       <c r="E12">
-        <v>46.11121489507442</v>
+        <v>46.111214895074419</v>
       </c>
       <c r="F12">
-        <v>2.372501401083505</v>
+        <v>2.3725014010835048</v>
       </c>
       <c r="G12">
-        <v>0.4483467214645993</v>
+        <v>0.44834672146459931</v>
       </c>
       <c r="H12">
-        <v>0.7659256491686904</v>
+        <v>0.76592564916869044</v>
       </c>
       <c r="I12">
-        <v>32.44909396600038</v>
+        <v>32.449093966000383</v>
       </c>
       <c r="J12">
-        <v>0.06849741577931377</v>
+        <v>6.8497415779313772E-2</v>
       </c>
       <c r="K12">
         <v>0.1120866803661498</v>
       </c>
       <c r="L12">
-        <v>0.386076343483405</v>
+        <v>0.38607634348340503</v>
       </c>
       <c r="M12">
         <v>100</v>
@@ -1436,48 +1457,48 @@
         <v>1</v>
       </c>
       <c r="U12">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="V12">
         <v>1</v>
       </c>
       <c r="W12">
-        <v>0.8888888888888888</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13">
-        <v>16.53937648679103</v>
+        <v>16.539376486791031</v>
       </c>
       <c r="E13">
-        <v>45.5740578439965</v>
+        <v>45.574057843996499</v>
       </c>
       <c r="F13">
         <v>2.760736196319018</v>
       </c>
       <c r="G13">
-        <v>0.35056967572305</v>
+        <v>0.35056967572304998</v>
       </c>
       <c r="H13">
-        <v>0.9202453987730062</v>
+        <v>0.92024539877300615</v>
       </c>
       <c r="I13">
         <v>33.30411919368975</v>
       </c>
       <c r="J13">
-        <v>0.08138224614999374</v>
+        <v>8.1382246149993745E-2</v>
       </c>
       <c r="K13">
         <v>0.1064229372730687</v>
       </c>
       <c r="L13">
-        <v>0.3630900212845874</v>
+        <v>0.36309002128458739</v>
       </c>
       <c r="M13">
         <v>100</v>
@@ -1504,42 +1525,42 @@
         <v>1</v>
       </c>
       <c r="U13">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14">
         <v>8.303001755663086</v>
       </c>
       <c r="E14">
-        <v>59.11446066886482</v>
+        <v>59.114460668864822</v>
       </c>
       <c r="F14">
         <v>2.226694643086542</v>
       </c>
       <c r="G14">
-        <v>0.192694728728643</v>
+        <v>0.19269472872864299</v>
       </c>
       <c r="H14">
-        <v>0.8949599623174752</v>
+        <v>0.89495996231747521</v>
       </c>
       <c r="I14">
-        <v>28.8057208923907</v>
+        <v>28.805720892390699</v>
       </c>
       <c r="J14">
-        <v>0.09420631182289216</v>
+        <v>9.4206311822892158E-2</v>
       </c>
       <c r="K14">
-        <v>0.0770778914914572</v>
+        <v>7.7077891491457204E-2</v>
       </c>
       <c r="L14">
-        <v>0.291183145634394</v>
+        <v>0.29118314563439401</v>
       </c>
       <c r="M14">
         <v>100</v>
@@ -1569,7 +1590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1577,34 +1598,34 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15">
         <v>23.49809885931559</v>
       </c>
       <c r="E15">
-        <v>34.51301550160866</v>
+        <v>34.513015501608663</v>
       </c>
       <c r="F15">
-        <v>2.456858730622989</v>
+        <v>2.4568587306229892</v>
       </c>
       <c r="G15">
-        <v>0.2749341912840012</v>
+        <v>0.27493419128400121</v>
       </c>
       <c r="H15">
-        <v>0.596665691722726</v>
+        <v>0.59666569172272599</v>
       </c>
       <c r="I15">
-        <v>38.25095057034221</v>
+        <v>38.250950570342212</v>
       </c>
       <c r="J15">
-        <v>0.09359461830944722</v>
+        <v>9.3594618309447222E-2</v>
       </c>
       <c r="K15">
-        <v>0.1111436092424686</v>
+        <v>0.11114360924246861</v>
       </c>
       <c r="L15">
-        <v>0.2047382275519158</v>
+        <v>0.20473822755191581</v>
       </c>
       <c r="M15">
         <v>100</v>
@@ -1631,39 +1652,39 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="V15">
         <v>0</v>
       </c>
       <c r="W15">
-        <v>0.9166666666666666</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16">
         <v>27.83474776049033</v>
       </c>
       <c r="E16">
-        <v>28.36515794436587</v>
+        <v>28.365157944365869</v>
       </c>
       <c r="F16">
-        <v>2.687411598302687</v>
+        <v>2.6874115983026869</v>
       </c>
       <c r="G16">
-        <v>0.5421970768505422</v>
+        <v>0.54219707685054219</v>
       </c>
       <c r="H16">
-        <v>0.8781235266383781</v>
+        <v>0.87812352663837812</v>
       </c>
       <c r="I16">
-        <v>39.23856671381424</v>
+        <v>39.238566713814237</v>
       </c>
       <c r="J16">
         <v>0.1178689297501179</v>
@@ -1672,7 +1693,7 @@
         <v>0.1237623762376238</v>
       </c>
       <c r="L16">
-        <v>0.2121640735502122</v>
+        <v>0.21216407355021219</v>
       </c>
       <c r="M16">
         <v>100</v>
@@ -1702,7 +1723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1710,37 +1731,37 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17">
-        <v>20.87727944800394</v>
+        <v>20.877279448003939</v>
       </c>
       <c r="E17">
-        <v>7.905372104484968</v>
+        <v>7.9053721044849681</v>
       </c>
       <c r="F17">
-        <v>4.583538689009364</v>
+        <v>4.5835386890093641</v>
       </c>
       <c r="G17">
-        <v>0.2069985214391326</v>
+        <v>0.20699852143913261</v>
       </c>
       <c r="H17">
-        <v>0.6012814194184327</v>
+        <v>0.60128141941843272</v>
       </c>
       <c r="I17">
-        <v>65.35239034006899</v>
+        <v>65.352390340068993</v>
       </c>
       <c r="J17">
-        <v>0.06899950714637752</v>
+        <v>6.8999507146377523E-2</v>
       </c>
       <c r="K17">
-        <v>0.1281419418432725</v>
+        <v>0.12814194184327249</v>
       </c>
       <c r="L17">
-        <v>0.2759980285855101</v>
+        <v>0.27599802858551009</v>
       </c>
       <c r="M17">
-        <v>99.99999999999999</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1773,42 +1794,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18">
-        <v>19.65738474766849</v>
+        <v>19.657384747668491</v>
       </c>
       <c r="E18">
-        <v>7.870890931939943</v>
+        <v>7.8708909319399432</v>
       </c>
       <c r="F18">
-        <v>5.238441695879358</v>
+        <v>5.2384416958793576</v>
       </c>
       <c r="G18">
-        <v>0.7407897347708181</v>
+        <v>0.74078973477081811</v>
       </c>
       <c r="H18">
-        <v>0.9855149150076061</v>
+        <v>0.98551491500760613</v>
       </c>
       <c r="I18">
         <v>64.97784244989748</v>
       </c>
       <c r="J18">
-        <v>0.1124412990277135</v>
+        <v>0.11244129902771351</v>
       </c>
       <c r="K18">
-        <v>0.1322838812090747</v>
+        <v>0.13228388120907469</v>
       </c>
       <c r="L18">
-        <v>0.2844103445995105</v>
+        <v>0.28441034459951048</v>
       </c>
       <c r="M18">
-        <v>99.99999999999999</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1835,39 +1856,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19">
-        <v>23.67615691366039</v>
+        <v>23.676156913660389</v>
       </c>
       <c r="E19">
-        <v>8.12389872948159</v>
+        <v>8.1238987294815903</v>
       </c>
       <c r="F19">
-        <v>4.701845497542429</v>
+        <v>4.7018454975424291</v>
       </c>
       <c r="G19">
-        <v>0.1854771399425021</v>
+        <v>0.18547713994250209</v>
       </c>
       <c r="H19">
-        <v>0.612074561810257</v>
+        <v>0.61207456181025699</v>
       </c>
       <c r="I19">
-        <v>62.21830659371233</v>
+        <v>62.218306593712327</v>
       </c>
       <c r="J19">
-        <v>0.07419085597700084</v>
+        <v>7.4190855977000841E-2</v>
       </c>
       <c r="K19">
-        <v>0.1298339979597515</v>
+        <v>0.12983399795975151</v>
       </c>
       <c r="L19">
-        <v>0.2782157099137531</v>
+        <v>0.27821570991375311</v>
       </c>
       <c r="M19">
         <v>100</v>
@@ -1897,7 +1918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1905,37 +1926,37 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20">
-        <v>20.02837550248285</v>
+        <v>20.028375502482849</v>
       </c>
       <c r="E20">
-        <v>33.38850792149444</v>
+        <v>33.388507921494437</v>
       </c>
       <c r="F20">
-        <v>4.059273271853077</v>
+        <v>4.0592732718530771</v>
       </c>
       <c r="G20">
-        <v>0.4256325372428469</v>
+        <v>0.42563253724284689</v>
       </c>
       <c r="H20">
-        <v>0.8591471585087095</v>
+        <v>0.85914715850870949</v>
       </c>
       <c r="I20">
-        <v>40.68731772680697</v>
+        <v>40.687317726806967</v>
       </c>
       <c r="J20">
-        <v>0.07882084023015684</v>
+        <v>7.8820840230156841E-2</v>
       </c>
       <c r="K20">
-        <v>0.1576416804603137</v>
+        <v>0.15764168046031371</v>
       </c>
       <c r="L20">
-        <v>0.3152833609206274</v>
+        <v>0.31528336092062742</v>
       </c>
       <c r="M20">
-        <v>99.99999999999999</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1968,39 +1989,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21">
         <v>20.74595682117155</v>
       </c>
       <c r="E21">
-        <v>33.21984059428926</v>
+        <v>33.219840594289259</v>
       </c>
       <c r="F21">
-        <v>4.062524181691558</v>
+        <v>4.0625241816915576</v>
       </c>
       <c r="G21">
-        <v>0.4410740540122263</v>
+        <v>0.44107405401222632</v>
       </c>
       <c r="H21">
-        <v>0.8357192602336919</v>
+        <v>0.83571926023369192</v>
       </c>
       <c r="I21">
-        <v>40.09131006732183</v>
+        <v>40.091310067321828</v>
       </c>
       <c r="J21">
-        <v>0.07738141298460111</v>
+        <v>7.7381412984601106E-2</v>
       </c>
       <c r="K21">
-        <v>0.1779772498645825</v>
+        <v>0.17797724986458249</v>
       </c>
       <c r="L21">
-        <v>0.3482163584307049</v>
+        <v>0.34821635843070492</v>
       </c>
       <c r="M21">
         <v>100</v>
@@ -2030,7 +2051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2038,7 +2059,7 @@
         <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22">
         <v>15.50938102752937</v>
@@ -2047,28 +2068,28 @@
         <v>24.7325968788357</v>
       </c>
       <c r="F22">
-        <v>3.103629668595475</v>
+        <v>3.1036296685954752</v>
       </c>
       <c r="G22">
-        <v>0.622479396808697</v>
+        <v>0.62247939680869702</v>
       </c>
       <c r="H22">
-        <v>0.6838506049447658</v>
+        <v>0.68385060494476579</v>
       </c>
       <c r="I22">
-        <v>54.96230054357355</v>
+        <v>54.962300543573548</v>
       </c>
       <c r="J22">
-        <v>0.06137120813606873</v>
+        <v>6.1371208136068729E-2</v>
       </c>
       <c r="K22">
-        <v>0.1315097317201473</v>
+        <v>0.13150973172014729</v>
       </c>
       <c r="L22">
-        <v>0.192880939856216</v>
+        <v>0.19288093985621599</v>
       </c>
       <c r="M22">
-        <v>99.99999999999997</v>
+        <v>99.999999999999972</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -2092,21 +2113,21 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="V22">
         <v>0</v>
       </c>
       <c r="W22">
-        <v>0.9166666666666666</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23">
         <v>16.6825630798578</v>
@@ -2115,22 +2136,22 @@
         <v>25.1539061822596</v>
       </c>
       <c r="F23">
-        <v>2.887366686898466</v>
+        <v>2.8873666868984662</v>
       </c>
       <c r="G23">
-        <v>0.4075262290817654</v>
+        <v>0.40752622908176539</v>
       </c>
       <c r="H23">
-        <v>0.572270874880777</v>
+        <v>0.57227087488077699</v>
       </c>
       <c r="I23">
-        <v>53.92352380126594</v>
+        <v>53.923523801265937</v>
       </c>
       <c r="J23">
-        <v>0.06069539582068846</v>
+        <v>6.0695395820688461E-2</v>
       </c>
       <c r="K23">
-        <v>0.1300615624729038</v>
+        <v>0.13006156247290379</v>
       </c>
       <c r="L23">
         <v>0.1820861874620654</v>
@@ -2160,45 +2181,45 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24">
-        <v>23.11534619226926</v>
+        <v>23.115346192269261</v>
       </c>
       <c r="E24">
         <v>11.09659571198033</v>
       </c>
       <c r="F24">
-        <v>4.995004995004996</v>
+        <v>4.9950049950049964</v>
       </c>
       <c r="G24">
-        <v>1.022054868208714</v>
+        <v>1.0220548682087141</v>
       </c>
       <c r="H24">
-        <v>1.114270345039576</v>
+        <v>1.1142703450395759</v>
       </c>
       <c r="I24">
-        <v>58.14954276492738</v>
+        <v>58.149542764927382</v>
       </c>
       <c r="J24">
         <v>0.1383232152462921</v>
       </c>
       <c r="K24">
-        <v>0.1536924613847691</v>
+        <v>0.15369246138476911</v>
       </c>
       <c r="L24">
-        <v>0.2151694459386767</v>
+        <v>0.21516944593867671</v>
       </c>
       <c r="M24">
-        <v>99.99999999999999</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2225,33 +2246,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25">
-        <v>23.33563695001152</v>
+        <v>23.335636950011519</v>
       </c>
       <c r="E25">
-        <v>10.08984105044921</v>
+        <v>10.089841050449211</v>
       </c>
       <c r="F25">
-        <v>4.399907855332872</v>
+        <v>4.3999078553328719</v>
       </c>
       <c r="G25">
         <v>1.098057283268064</v>
       </c>
       <c r="H25">
-        <v>1.205559394916686</v>
+        <v>1.2055593949166861</v>
       </c>
       <c r="I25">
-        <v>59.36420179682101</v>
+        <v>59.364201796821007</v>
       </c>
       <c r="J25">
-        <v>0.1458957229517008</v>
+        <v>0.14589572295170081</v>
       </c>
       <c r="K25">
         <v>0.1535744452123167</v>
@@ -2287,7 +2308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2295,34 +2316,34 @@
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26">
-        <v>25.30487804878049</v>
+        <v>25.304878048780491</v>
       </c>
       <c r="E26">
         <v>17.26829268292683</v>
       </c>
       <c r="F26">
-        <v>4.853658536585366</v>
+        <v>4.8536585365853657</v>
       </c>
       <c r="G26">
-        <v>0.9024390243902439</v>
+        <v>0.90243902439024393</v>
       </c>
       <c r="H26">
-        <v>1.085365853658537</v>
+        <v>1.0853658536585371</v>
       </c>
       <c r="I26">
-        <v>50.17073170731707</v>
+        <v>50.170731707317067</v>
       </c>
       <c r="J26">
-        <v>0.08536585365853659</v>
+        <v>8.5365853658536592E-2</v>
       </c>
       <c r="K26">
-        <v>0.1585365853658537</v>
+        <v>0.15853658536585369</v>
       </c>
       <c r="L26">
-        <v>0.1707317073170732</v>
+        <v>0.17073170731707321</v>
       </c>
       <c r="M26">
         <v>100</v>
@@ -2358,39 +2379,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27">
         <v>43.03147810218978</v>
       </c>
       <c r="E27">
-        <v>8.097627737226277</v>
+        <v>8.0976277372262775</v>
       </c>
       <c r="F27">
-        <v>5.679744525547444</v>
+        <v>5.6797445255474441</v>
       </c>
       <c r="G27">
-        <v>0.6158759124087592</v>
+        <v>0.61587591240875916</v>
       </c>
       <c r="H27">
-        <v>0.7299270072992701</v>
+        <v>0.72992700729927007</v>
       </c>
       <c r="I27">
-        <v>41.30930656934306</v>
+        <v>41.309306569343057</v>
       </c>
       <c r="J27">
-        <v>0.1140510948905109</v>
+        <v>0.11405109489051091</v>
       </c>
       <c r="K27">
         <v>0.2281021897810219</v>
       </c>
       <c r="L27">
-        <v>0.1938868613138686</v>
+        <v>0.19388686131386859</v>
       </c>
       <c r="M27">
         <v>100</v>
@@ -2420,30 +2441,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28">
-        <v>32.45637113040427</v>
+        <v>32.456371130404271</v>
       </c>
       <c r="E28">
-        <v>16.81136543014996</v>
+        <v>16.811365430149959</v>
       </c>
       <c r="F28">
-        <v>4.376041392615978</v>
+        <v>4.3760413926159778</v>
       </c>
       <c r="G28">
-        <v>0.3858633692887835</v>
+        <v>0.38586336928878351</v>
       </c>
       <c r="H28">
-        <v>0.7015697623432429</v>
+        <v>0.70156976234324286</v>
       </c>
       <c r="I28">
-        <v>44.83907743576251</v>
+        <v>44.839077435762512</v>
       </c>
       <c r="J28">
         <v>0.1052354643514864</v>
@@ -2452,10 +2473,10 @@
         <v>0.1490835744979391</v>
       </c>
       <c r="L28">
-        <v>0.1753924405858107</v>
+        <v>0.17539244058581069</v>
       </c>
       <c r="M28">
-        <v>99.99999999999996</v>
+        <v>99.999999999999957</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2482,7 +2503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2490,34 +2511,34 @@
         <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29">
-        <v>16.20653503407304</v>
+        <v>16.206535034073038</v>
       </c>
       <c r="E29">
-        <v>38.28411672199896</v>
+        <v>38.284116721998963</v>
       </c>
       <c r="F29">
-        <v>2.821946531539403</v>
+        <v>2.8219465315394028</v>
       </c>
       <c r="G29">
-        <v>0.3232570330246374</v>
+        <v>0.32325703302463737</v>
       </c>
       <c r="H29">
-        <v>1.048401188188013</v>
+        <v>1.0484011881880131</v>
       </c>
       <c r="I29">
-        <v>40.89638301590075</v>
+        <v>40.896383015900753</v>
       </c>
       <c r="J29">
-        <v>0.06989341254586756</v>
+        <v>6.9893412545867561E-2</v>
       </c>
       <c r="K29">
-        <v>0.0961034422505679</v>
+        <v>9.6103442250567897E-2</v>
       </c>
       <c r="L29">
-        <v>0.2533636204787699</v>
+        <v>0.25336362047876992</v>
       </c>
       <c r="M29">
         <v>100</v>
@@ -2550,42 +2571,42 @@
         <v>1</v>
       </c>
       <c r="W29">
-        <v>0.9166666666666666</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30">
-        <v>19.22657495176579</v>
+        <v>19.226574951765791</v>
       </c>
       <c r="E30">
-        <v>37.57235131280932</v>
+        <v>37.572351312809317</v>
       </c>
       <c r="F30">
-        <v>2.96954953443503</v>
+        <v>2.9695495344350298</v>
       </c>
       <c r="G30">
-        <v>0.3187652042613875</v>
+        <v>0.31876520426138749</v>
       </c>
       <c r="H30">
         <v>1.023404076839191</v>
       </c>
       <c r="I30">
-        <v>38.51186980957974</v>
+        <v>38.511869809579743</v>
       </c>
       <c r="J30">
-        <v>0.0503313480412717</v>
+        <v>5.0331348041271699E-2</v>
       </c>
       <c r="K30">
-        <v>0.09227413807566479</v>
+        <v>9.2274138075664786E-2</v>
       </c>
       <c r="L30">
-        <v>0.2348796241926013</v>
+        <v>0.23487962419260131</v>
       </c>
       <c r="M30">
         <v>100</v>
@@ -2612,10 +2633,10 @@
         <v>1</v>
       </c>
       <c r="U30">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2623,34 +2644,34 @@
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D31">
         <v>17.5602255253716</v>
       </c>
       <c r="E31">
-        <v>36.26858021527421</v>
+        <v>36.268580215274213</v>
       </c>
       <c r="F31">
-        <v>3.598154792414146</v>
+        <v>3.5981547924141459</v>
       </c>
       <c r="G31">
-        <v>0.2152742183495643</v>
+        <v>0.21527421834956431</v>
       </c>
       <c r="H31">
-        <v>1.066119938493081</v>
+        <v>1.0661199384930811</v>
       </c>
       <c r="I31">
-        <v>40.99436186570989</v>
+        <v>40.994361865709891</v>
       </c>
       <c r="J31">
-        <v>0.06150691952844695</v>
+        <v>6.1506919528446953E-2</v>
       </c>
       <c r="K31">
-        <v>0.08200922603792926</v>
+        <v>8.2009226037929261E-2</v>
       </c>
       <c r="L31">
-        <v>0.1537672988211174</v>
+        <v>0.15376729882111739</v>
       </c>
       <c r="M31">
         <v>100</v>
@@ -2683,18 +2704,18 @@
         <v>1</v>
       </c>
       <c r="W31">
-        <v>0.7222222222222222</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23">
+        <v>0.72222222222222221</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32">
-        <v>17.92171666997814</v>
+        <v>17.921716669978139</v>
       </c>
       <c r="E32">
         <v>36.41963043910193</v>
@@ -2703,25 +2724,25 @@
         <v>3.67574011523942</v>
       </c>
       <c r="G32">
-        <v>0.2582952513411484</v>
+        <v>0.25829525134114839</v>
       </c>
       <c r="H32">
         <v>1.102722034571826</v>
       </c>
       <c r="I32">
-        <v>40.33379694019471</v>
+        <v>40.333796940194709</v>
       </c>
       <c r="J32">
-        <v>0.05960659646334194</v>
+        <v>5.9606596463341939E-2</v>
       </c>
       <c r="K32">
-        <v>0.07947546195112259</v>
+        <v>7.9475461951122595E-2</v>
       </c>
       <c r="L32">
         <v>0.1490164911583548</v>
       </c>
       <c r="M32">
-        <v>99.99999999999999</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2745,24 +2766,24 @@
         <v>1</v>
       </c>
       <c r="U32">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D33">
-        <v>18.22857142857143</v>
+        <v>18.228571428571431</v>
       </c>
       <c r="E33">
-        <v>35.88571428571429</v>
+        <v>35.885714285714293</v>
       </c>
       <c r="F33">
-        <v>3.152380952380953</v>
+        <v>3.1523809523809532</v>
       </c>
       <c r="G33">
         <v>0.1428571428571429</v>
@@ -2771,13 +2792,13 @@
         <v>1.142857142857143</v>
       </c>
       <c r="I33">
-        <v>41.15238095238094</v>
+        <v>41.152380952380938</v>
       </c>
       <c r="J33">
-        <v>0.06666666666666668</v>
+        <v>6.666666666666668E-2</v>
       </c>
       <c r="K33">
-        <v>0.08571428571428572</v>
+        <v>8.5714285714285715E-2</v>
       </c>
       <c r="L33">
         <v>0.1428571428571429</v>
@@ -2807,45 +2828,45 @@
         <v>1</v>
       </c>
       <c r="U33">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34">
-        <v>15.17655897821187</v>
+        <v>15.176558978211871</v>
       </c>
       <c r="E34">
-        <v>36.18117419770312</v>
+        <v>36.181174197703122</v>
       </c>
       <c r="F34">
         <v>3.337984329719867</v>
       </c>
       <c r="G34">
-        <v>0.1609960287646238</v>
+        <v>0.16099602876462379</v>
       </c>
       <c r="H34">
-        <v>1.373832778791456</v>
+        <v>1.3738327787914559</v>
       </c>
       <c r="I34">
         <v>43.39379628635826</v>
       </c>
       <c r="J34">
-        <v>0.06439841150584952</v>
+        <v>6.4398411505849518E-2</v>
       </c>
       <c r="K34">
         <v>0.1073306858430825</v>
       </c>
       <c r="L34">
-        <v>0.2039283031018568</v>
+        <v>0.20392830310185681</v>
       </c>
       <c r="M34">
-        <v>99.99999999999997</v>
+        <v>99.999999999999972</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2872,39 +2893,39 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35">
-        <v>16.4764820484275</v>
+        <v>16.476482048427499</v>
       </c>
       <c r="E35">
-        <v>36.55719454494852</v>
+        <v>36.557194544948523</v>
       </c>
       <c r="F35">
-        <v>3.826885610910104</v>
+        <v>3.8268856109101042</v>
       </c>
       <c r="G35">
-        <v>0.2504870581686613</v>
+        <v>0.25048705816866129</v>
       </c>
       <c r="H35">
-        <v>1.363762872251601</v>
+        <v>1.3637628722516011</v>
       </c>
       <c r="I35">
-        <v>41.17728917339272</v>
+        <v>41.177289173392722</v>
       </c>
       <c r="J35">
-        <v>0.06957973838018371</v>
+        <v>6.9579738380183706E-2</v>
       </c>
       <c r="K35">
-        <v>0.1113275814082939</v>
+        <v>0.11132758140829389</v>
       </c>
       <c r="L35">
-        <v>0.1669913721124409</v>
+        <v>0.16699137211244089</v>
       </c>
       <c r="M35">
         <v>100</v>
@@ -2931,15 +2952,15 @@
         <v>1</v>
       </c>
       <c r="U35">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D36">
         <v>10.03134796238245</v>
@@ -2948,25 +2969,25 @@
         <v>37.48783915252406</v>
       </c>
       <c r="F36">
-        <v>3.621230137282457</v>
+        <v>3.6212301372824571</v>
       </c>
       <c r="G36">
-        <v>0.4107664036320398</v>
+        <v>0.41076640363203981</v>
       </c>
       <c r="H36">
         <v>1.643065614528159</v>
       </c>
       <c r="I36">
-        <v>46.36255539941629</v>
+        <v>46.362555399416287</v>
       </c>
       <c r="J36">
-        <v>0.08647713760674523</v>
+        <v>8.6477137606745233E-2</v>
       </c>
       <c r="K36">
         <v>0.140525348610961</v>
       </c>
       <c r="L36">
-        <v>0.2161928440168631</v>
+        <v>0.21619284401686309</v>
       </c>
       <c r="M36">
         <v>100</v>
@@ -2996,7 +3017,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3004,22 +3025,22 @@
         <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D37">
-        <v>24.17790893760539</v>
+        <v>24.177908937605391</v>
       </c>
       <c r="E37">
-        <v>43.10708263069139</v>
+        <v>43.107082630691387</v>
       </c>
       <c r="F37">
-        <v>2.065767284991568</v>
+        <v>2.0657672849915678</v>
       </c>
       <c r="G37">
-        <v>0.3267284991568296</v>
+        <v>0.32672849915682961</v>
       </c>
       <c r="H37">
-        <v>1.064502529510961</v>
+        <v>1.0645025295109609</v>
       </c>
       <c r="I37">
         <v>28.87858347386172</v>
@@ -3028,7 +3049,7 @@
         <v>0.1053962900505902</v>
       </c>
       <c r="K37">
-        <v>0.1264755480607082</v>
+        <v>0.12647554806070821</v>
       </c>
       <c r="L37">
         <v>0.1475548060708263</v>
@@ -3064,27 +3085,27 @@
         <v>1</v>
       </c>
       <c r="W37">
-        <v>0.6111111111111112</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23">
+        <v>0.61111111111111116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D38">
-        <v>16.75675675675675</v>
+        <v>16.756756756756751</v>
       </c>
       <c r="E38">
-        <v>47.15675675675674</v>
+        <v>47.156756756756742</v>
       </c>
       <c r="F38">
         <v>2.021621621621621</v>
       </c>
       <c r="G38">
-        <v>0.3999999999999999</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="H38">
         <v>1.2</v>
@@ -3093,16 +3114,16 @@
         <v>31.92432432432431</v>
       </c>
       <c r="J38">
-        <v>0.1945945945945945</v>
+        <v>0.19459459459459449</v>
       </c>
       <c r="K38">
         <v>0.1513513513513513</v>
       </c>
       <c r="L38">
-        <v>0.1945945945945945</v>
+        <v>0.19459459459459449</v>
       </c>
       <c r="M38">
-        <v>99.99999999999997</v>
+        <v>99.999999999999972</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -3126,42 +3147,42 @@
         <v>1</v>
       </c>
       <c r="U38">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D39">
-        <v>2.690455961483999</v>
+        <v>2.6904559614839991</v>
       </c>
       <c r="E39">
-        <v>49.77343528745397</v>
+        <v>49.773435287453971</v>
       </c>
       <c r="F39">
         <v>1.713395638629283</v>
       </c>
       <c r="G39">
-        <v>0.5664117813650522</v>
+        <v>0.56641178136505221</v>
       </c>
       <c r="H39">
-        <v>1.699235344095157</v>
+        <v>1.6992353440951571</v>
       </c>
       <c r="I39">
-        <v>42.93401302747097</v>
+        <v>42.934013027470968</v>
       </c>
       <c r="J39">
-        <v>0.1699235344095157</v>
+        <v>0.16992353440951569</v>
       </c>
       <c r="K39">
-        <v>0.2124044180118946</v>
+        <v>0.21240441801189461</v>
       </c>
       <c r="L39">
-        <v>0.2407250070801472</v>
+        <v>0.24072500708014721</v>
       </c>
       <c r="M39">
         <v>100</v>
@@ -3188,10 +3209,10 @@
         <v>1</v>
       </c>
       <c r="U39">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3199,37 +3220,37 @@
         <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D40">
-        <v>11.6294826501476</v>
+        <v>11.629482650147599</v>
       </c>
       <c r="E40">
         <v>61.10438948845762</v>
       </c>
       <c r="F40">
-        <v>4.495958960460728</v>
+        <v>4.4959589604607277</v>
       </c>
       <c r="G40">
-        <v>0.45491942118763</v>
+        <v>0.45491942118763001</v>
       </c>
       <c r="H40">
-        <v>0.9195179789962735</v>
+        <v>0.91951797899627352</v>
       </c>
       <c r="I40">
         <v>20.90693510138895</v>
       </c>
       <c r="J40">
-        <v>0.04839568310506702</v>
+        <v>4.8395683105067019E-2</v>
       </c>
       <c r="K40">
-        <v>0.07743309296810724</v>
+        <v>7.7433092968107242E-2</v>
       </c>
       <c r="L40">
-        <v>0.3629676232880027</v>
+        <v>0.36296762328800269</v>
       </c>
       <c r="M40">
-        <v>99.99999999999997</v>
+        <v>99.999999999999972</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -3262,42 +3283,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D41">
         <v>11.58564520234156</v>
       </c>
       <c r="E41">
-        <v>61.06388393993382</v>
+        <v>61.063883939933817</v>
       </c>
       <c r="F41">
-        <v>4.479511326037159</v>
+        <v>4.4795113260371586</v>
       </c>
       <c r="G41">
-        <v>0.4632221939424789</v>
+        <v>0.46322219394247888</v>
       </c>
       <c r="H41">
-        <v>1.094426062611351</v>
+        <v>1.0944260626113509</v>
       </c>
       <c r="I41">
-        <v>20.81954695851361</v>
+        <v>20.819546958513609</v>
       </c>
       <c r="J41">
-        <v>0.05599389157546448</v>
+        <v>5.5993891575464479E-2</v>
       </c>
       <c r="K41">
-        <v>0.07635530669381521</v>
+        <v>7.6355306693815211E-2</v>
       </c>
       <c r="L41">
-        <v>0.3614151183507254</v>
+        <v>0.36141511835072537</v>
       </c>
       <c r="M41">
-        <v>99.99999999999999</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -3324,7 +3345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3332,34 +3353,34 @@
         <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D42">
         <v>17.41092739660634</v>
       </c>
       <c r="E42">
-        <v>54.82793039100812</v>
+        <v>54.827930391008117</v>
       </c>
       <c r="F42">
-        <v>5.507095430282514</v>
+        <v>5.5070954302825141</v>
       </c>
       <c r="G42">
-        <v>0.1996267847068524</v>
+        <v>0.19962678470685241</v>
       </c>
       <c r="H42">
         <v>1.176062144686022</v>
       </c>
       <c r="I42">
-        <v>20.34023347654385</v>
+        <v>20.340233476543851</v>
       </c>
       <c r="J42">
-        <v>0.05207655253222235</v>
+        <v>5.2076552532222348E-2</v>
       </c>
       <c r="K42">
-        <v>0.07811482879833354</v>
+        <v>7.8114828798333535E-2</v>
       </c>
       <c r="L42">
-        <v>0.4079329948357419</v>
+        <v>0.40793299483574191</v>
       </c>
       <c r="M42">
         <v>100</v>
@@ -3395,42 +3416,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D43">
         <v>16.53589413280244</v>
       </c>
       <c r="E43">
-        <v>55.00644103525003</v>
+        <v>55.006441035250027</v>
       </c>
       <c r="F43">
-        <v>5.672014677753055</v>
+        <v>5.6720146777530553</v>
       </c>
       <c r="G43">
         <v>0.2420267790920092</v>
       </c>
       <c r="H43">
-        <v>1.256977788187532</v>
+        <v>1.2569777881875319</v>
       </c>
       <c r="I43">
-        <v>20.75965179373072</v>
+        <v>20.759651793730718</v>
       </c>
       <c r="J43">
-        <v>0.05074755045477613</v>
+        <v>5.0747550454776129E-2</v>
       </c>
       <c r="K43">
-        <v>0.0819768122730999</v>
+        <v>8.19768122730999E-2</v>
       </c>
       <c r="L43">
-        <v>0.3942694304563377</v>
+        <v>0.39426943045633772</v>
       </c>
       <c r="M43">
-        <v>99.99999999999999</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -3457,7 +3478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3465,13 +3486,13 @@
         <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D44">
-        <v>18.10132429935325</v>
+        <v>18.101324299353251</v>
       </c>
       <c r="E44">
-        <v>33.10748383122883</v>
+        <v>33.107483831228834</v>
       </c>
       <c r="F44">
         <v>3.926701570680629</v>
@@ -3480,22 +3501,22 @@
         <v>0.1154912226670773</v>
       </c>
       <c r="H44">
-        <v>0.7776408992916539</v>
+        <v>0.77764089929165392</v>
       </c>
       <c r="I44">
-        <v>43.17831844779796</v>
+        <v>43.178318447797963</v>
       </c>
       <c r="J44">
-        <v>0.09239297813366185</v>
+        <v>9.2392978133661846E-2</v>
       </c>
       <c r="K44">
-        <v>0.2232830304896828</v>
+        <v>0.22328303048968279</v>
       </c>
       <c r="L44">
-        <v>0.4773637203572528</v>
+        <v>0.47736372035725277</v>
       </c>
       <c r="M44">
-        <v>99.99999999999999</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -3519,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="U44">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="V44">
         <v>0</v>
@@ -3528,36 +3549,36 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D45">
         <v>13.40338493623165</v>
       </c>
       <c r="E45">
-        <v>33.69695997433223</v>
+        <v>33.696959974332231</v>
       </c>
       <c r="F45">
-        <v>4.219138525707869</v>
+        <v>4.2191385257078693</v>
       </c>
       <c r="G45">
-        <v>0.2566776289404026</v>
+        <v>0.25667762894040258</v>
       </c>
       <c r="H45">
         <v>0.9785834603352852</v>
       </c>
       <c r="I45">
-        <v>46.57094730087431</v>
+        <v>46.570947300874309</v>
       </c>
       <c r="J45">
-        <v>0.09625411085265101</v>
+        <v>9.6254110852651009E-2</v>
       </c>
       <c r="K45">
-        <v>0.2486564530360151</v>
+        <v>0.24865645303601511</v>
       </c>
       <c r="L45">
         <v>0.5293976096895805</v>
@@ -3587,10 +3608,10 @@
         <v>0</v>
       </c>
       <c r="U45">
-        <v>0.6666666666666667</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23">
+        <v>0.66666666666666674</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3598,37 +3619,37 @@
         <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D46">
-        <v>15.77590040017786</v>
+        <v>15.775900400177861</v>
       </c>
       <c r="E46">
-        <v>22.27656736327256</v>
+        <v>22.276567363272559</v>
       </c>
       <c r="F46">
         <v>4.144064028457092</v>
       </c>
       <c r="G46">
-        <v>0.9248554913294796</v>
+        <v>0.92485549132947964</v>
       </c>
       <c r="H46">
-        <v>1.609604268563806</v>
+        <v>1.6096042685638059</v>
       </c>
       <c r="I46">
-        <v>54.76211649622054</v>
+        <v>54.762116496220543</v>
       </c>
       <c r="J46">
         <v>0.1956425077812361</v>
       </c>
       <c r="K46">
-        <v>0.1867496665184527</v>
+        <v>0.18674966651845271</v>
       </c>
       <c r="L46">
         <v>0.1244997776789684</v>
       </c>
       <c r="M46">
-        <v>99.99999999999999</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3661,42 +3682,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D47">
-        <v>18.75588327580797</v>
+        <v>18.755883275807971</v>
       </c>
       <c r="E47">
-        <v>22.2074050831503</v>
+        <v>22.207405083150299</v>
       </c>
       <c r="F47">
-        <v>3.977094446187638</v>
+        <v>3.9770944461876381</v>
       </c>
       <c r="G47">
         <v>0.6118606840288674</v>
       </c>
       <c r="H47">
-        <v>1.44336366488861</v>
+        <v>1.4433636648886099</v>
       </c>
       <c r="I47">
-        <v>52.54941951678695</v>
+        <v>52.549419516786948</v>
       </c>
       <c r="J47">
-        <v>0.1804204581110763</v>
+        <v>0.18042045811107629</v>
       </c>
       <c r="K47">
-        <v>0.1647317226231566</v>
+        <v>0.16473172262315661</v>
       </c>
       <c r="L47">
-        <v>0.1098211484154377</v>
+        <v>0.10982114841543771</v>
       </c>
       <c r="M47">
-        <v>99.99999999999999</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3723,7 +3744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3731,37 +3752,37 @@
         <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D48">
         <v>16.49914334665905</v>
       </c>
       <c r="E48">
-        <v>45.3912050256996</v>
+        <v>45.391205025699598</v>
       </c>
       <c r="F48">
-        <v>3.181039406053683</v>
+        <v>3.1810394060536828</v>
       </c>
       <c r="G48">
-        <v>0.5197030268418046</v>
+        <v>0.51970302684180458</v>
       </c>
       <c r="H48">
-        <v>0.8166761850371216</v>
+        <v>0.81667618503712158</v>
       </c>
       <c r="I48">
-        <v>33.19246145059965</v>
+        <v>33.192461450599652</v>
       </c>
       <c r="J48">
         <v>0.1599086236436322</v>
       </c>
       <c r="K48">
-        <v>0.08566533409480297</v>
+        <v>8.5665334094802967E-2</v>
       </c>
       <c r="L48">
-        <v>0.1541976013706453</v>
+        <v>0.15419760137064531</v>
       </c>
       <c r="M48">
-        <v>99.99999999999999</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3785,48 +3806,48 @@
         <v>1</v>
       </c>
       <c r="U48">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="V48">
         <v>1</v>
       </c>
       <c r="W48">
-        <v>0.7777777777777778</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23">
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D49">
-        <v>16.06462781304097</v>
+        <v>16.064627813040971</v>
       </c>
       <c r="E49">
-        <v>45.79342181188691</v>
+        <v>45.793421811886908</v>
       </c>
       <c r="F49">
-        <v>2.977495672244663</v>
+        <v>2.9774956722446628</v>
       </c>
       <c r="G49">
-        <v>0.5308713214079631</v>
+        <v>0.53087132140796311</v>
       </c>
       <c r="H49">
-        <v>0.7963069821119446</v>
+        <v>0.79630698211194462</v>
       </c>
       <c r="I49">
-        <v>33.43912290825159</v>
+        <v>33.439122908251591</v>
       </c>
       <c r="J49">
-        <v>0.1615695326024235</v>
+        <v>0.16156953260242349</v>
       </c>
       <c r="K49">
-        <v>0.09232544720138489</v>
+        <v>9.2325447201384886E-2</v>
       </c>
       <c r="L49">
-        <v>0.1442585112521639</v>
+        <v>0.14425851125216391</v>
       </c>
       <c r="M49">
         <v>100</v>
@@ -3853,45 +3874,45 @@
         <v>1</v>
       </c>
       <c r="U49">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D50">
         <v>18.86923562855338</v>
       </c>
       <c r="E50">
-        <v>49.17245735944409</v>
+        <v>49.172457359444088</v>
       </c>
       <c r="F50">
-        <v>3.253316487681618</v>
+        <v>3.2533164876816181</v>
       </c>
       <c r="G50">
-        <v>0.4801010739102969</v>
+        <v>0.48010107391029688</v>
       </c>
       <c r="H50">
-        <v>0.8149084017687934</v>
+        <v>0.81490840176879342</v>
       </c>
       <c r="I50">
-        <v>26.97409981048641</v>
+        <v>26.974099810486411</v>
       </c>
       <c r="J50">
-        <v>0.1579279848389135</v>
+        <v>0.15792798483891349</v>
       </c>
       <c r="K50">
         <v>0.1137081490840177</v>
       </c>
       <c r="L50">
-        <v>0.16424510423247</v>
+        <v>0.16424510423246999</v>
       </c>
       <c r="M50">
-        <v>99.99999999999997</v>
+        <v>99.999999999999972</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3915,10 +3936,10 @@
         <v>1</v>
       </c>
       <c r="U50">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3926,13 +3947,13 @@
         <v>30</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D51">
-        <v>20.82934827162181</v>
+        <v>20.829348271621811</v>
       </c>
       <c r="E51">
-        <v>41.75433802432028</v>
+        <v>41.754338024320283</v>
       </c>
       <c r="F51">
         <v>3.169831944254681</v>
@@ -3941,19 +3962,19 @@
         <v>0.3689028555813636</v>
       </c>
       <c r="H51">
-        <v>0.7856264517010524</v>
+        <v>0.78562645170105239</v>
       </c>
       <c r="I51">
-        <v>32.64790271895068</v>
+        <v>32.647902718950682</v>
       </c>
       <c r="J51">
-        <v>0.09564148107664984</v>
+        <v>9.564148107664984E-2</v>
       </c>
       <c r="K51">
-        <v>0.1024730154392677</v>
+        <v>0.10247301543926771</v>
       </c>
       <c r="L51">
-        <v>0.2459352370542424</v>
+        <v>0.24593523705424239</v>
       </c>
       <c r="M51">
         <v>100</v>
@@ -3980,7 +4001,7 @@
         <v>1</v>
       </c>
       <c r="U51">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="V51">
         <v>1</v>
@@ -3989,39 +4010,39 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D52">
-        <v>17.4303683737646</v>
+        <v>17.430368373764601</v>
       </c>
       <c r="E52">
-        <v>42.87960467205752</v>
+        <v>42.879604672057518</v>
       </c>
       <c r="F52">
-        <v>3.286912249176401</v>
+        <v>3.2869122491764009</v>
       </c>
       <c r="G52">
-        <v>0.3519017669961066</v>
+        <v>0.35190176699610659</v>
       </c>
       <c r="H52">
-        <v>0.8834980533093743</v>
+        <v>0.88349805330937425</v>
       </c>
       <c r="I52">
-        <v>34.68852949985026</v>
+        <v>34.688529499850262</v>
       </c>
       <c r="J52">
-        <v>0.08984725965858043</v>
+        <v>8.9847259658580425E-2</v>
       </c>
       <c r="K52">
         <v>0.1197963462114406</v>
       </c>
       <c r="L52">
-        <v>0.2695417789757413</v>
+        <v>0.26954177897574128</v>
       </c>
       <c r="M52">
         <v>100</v>
@@ -4048,10 +4069,10 @@
         <v>1</v>
       </c>
       <c r="U52">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -4059,31 +4080,31 @@
         <v>32</v>
       </c>
       <c r="C53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D53">
-        <v>13.38383838383838</v>
+        <v>13.383838383838381</v>
       </c>
       <c r="E53">
-        <v>43.67676767676767</v>
+        <v>43.676767676767668</v>
       </c>
       <c r="F53">
-        <v>4.505050505050505</v>
+        <v>4.5050505050505052</v>
       </c>
       <c r="G53">
-        <v>0.691919191919192</v>
+        <v>0.69191919191919204</v>
       </c>
       <c r="H53">
-        <v>0.8434343434343435</v>
+        <v>0.84343434343434354</v>
       </c>
       <c r="I53">
-        <v>36.22727272727273</v>
+        <v>36.227272727272727</v>
       </c>
       <c r="J53">
-        <v>0.3636363636363636</v>
+        <v>0.36363636363636359</v>
       </c>
       <c r="K53">
-        <v>0.06565656565656565</v>
+        <v>6.5656565656565649E-2</v>
       </c>
       <c r="L53">
         <v>0.2424242424242424</v>
@@ -4113,21 +4134,21 @@
         <v>1</v>
       </c>
       <c r="U53">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="V53">
         <v>1</v>
       </c>
       <c r="W53">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D54">
         <v>14.95090596214192</v>
@@ -4136,25 +4157,25 @@
         <v>42.49417957283125</v>
       </c>
       <c r="F54">
-        <v>5.025812329183115</v>
+        <v>5.0258123291831147</v>
       </c>
       <c r="G54">
-        <v>0.7237574653304988</v>
+        <v>0.72375746533049878</v>
       </c>
       <c r="H54">
-        <v>0.7743698754934708</v>
+        <v>0.77436987549347081</v>
       </c>
       <c r="I54">
-        <v>35.3730134629011</v>
+        <v>35.373013462901099</v>
       </c>
       <c r="J54">
-        <v>0.3593481121571008</v>
+        <v>0.35934811215710077</v>
       </c>
       <c r="K54">
-        <v>0.06073489219556635</v>
+        <v>6.0734892195566353E-2</v>
       </c>
       <c r="L54">
-        <v>0.2378783277659682</v>
+        <v>0.23787832776596821</v>
       </c>
       <c r="M54">
         <v>100</v>
@@ -4181,10 +4202,10 @@
         <v>1</v>
       </c>
       <c r="U54">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -4192,37 +4213,37 @@
         <v>33</v>
       </c>
       <c r="C55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D55">
-        <v>22.77565776260293</v>
+        <v>22.775657762602929</v>
       </c>
       <c r="E55">
         <v>21.39987949387427</v>
       </c>
       <c r="F55">
-        <v>4.298051817634063</v>
+        <v>4.2980518176340627</v>
       </c>
       <c r="G55">
-        <v>0.612572805784294</v>
+        <v>0.61257280578429396</v>
       </c>
       <c r="H55">
-        <v>0.5623619200642698</v>
+        <v>0.56236192006426977</v>
       </c>
       <c r="I55">
-        <v>49.3974693713597</v>
+        <v>49.397469371359698</v>
       </c>
       <c r="J55">
-        <v>0.2410122514561157</v>
+        <v>0.24101225145611571</v>
       </c>
       <c r="K55">
-        <v>0.2108857200241012</v>
+        <v>0.21088572002410119</v>
       </c>
       <c r="L55">
-        <v>0.502108857200241</v>
+        <v>0.50210885720024101</v>
       </c>
       <c r="M55">
-        <v>99.99999999999999</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -4255,36 +4276,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D56">
-        <v>20.44799290308272</v>
+        <v>20.447992903082721</v>
       </c>
       <c r="E56">
-        <v>20.39254823685961</v>
+        <v>20.392548236859611</v>
       </c>
       <c r="F56">
-        <v>3.692614770459082</v>
+        <v>3.6926147704590822</v>
       </c>
       <c r="G56">
-        <v>0.1996007984031936</v>
+        <v>0.19960079840319361</v>
       </c>
       <c r="H56">
-        <v>0.3548458638278997</v>
+        <v>0.35484586382789968</v>
       </c>
       <c r="I56">
-        <v>53.91439343535151</v>
+        <v>53.914393435351514</v>
       </c>
       <c r="J56">
         <v>0.2550454646263029</v>
       </c>
       <c r="K56">
-        <v>0.2217786648924374</v>
+        <v>0.22177866489243739</v>
       </c>
       <c r="L56">
         <v>0.5211798624972277</v>
@@ -4317,39 +4338,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D57">
         <v>21.26526082130966</v>
       </c>
       <c r="E57">
-        <v>19.44506104328524</v>
+        <v>19.445061043285239</v>
       </c>
       <c r="F57">
         <v>3.385127635960044</v>
       </c>
       <c r="G57">
-        <v>0.199778024417314</v>
+        <v>0.19977802441731399</v>
       </c>
       <c r="H57">
-        <v>0.7103218645948945</v>
+        <v>0.71032186459489455</v>
       </c>
       <c r="I57">
-        <v>53.99556048834629</v>
+        <v>53.995560488346293</v>
       </c>
       <c r="J57">
-        <v>0.2552719200887902</v>
+        <v>0.25527192008879018</v>
       </c>
       <c r="K57">
-        <v>0.2219755826859046</v>
+        <v>0.22197558268590459</v>
       </c>
       <c r="L57">
-        <v>0.5216426193118757</v>
+        <v>0.52164261931187572</v>
       </c>
       <c r="M57">
         <v>100</v>
@@ -4379,7 +4400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -4387,34 +4408,34 @@
         <v>34</v>
       </c>
       <c r="C58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D58">
         <v>12.08946995353233</v>
       </c>
       <c r="E58">
-        <v>36.05576120343389</v>
+        <v>36.055761203433889</v>
       </c>
       <c r="F58">
-        <v>4.505001181381428</v>
+        <v>4.5050011813814281</v>
       </c>
       <c r="G58">
         <v>0.5119319524297079</v>
       </c>
       <c r="H58">
-        <v>0.6773253524454595</v>
+        <v>0.67732535244545955</v>
       </c>
       <c r="I58">
-        <v>45.4753091281405</v>
+        <v>45.475309128140502</v>
       </c>
       <c r="J58">
-        <v>0.08663463810348901</v>
+        <v>8.6634638103489009E-2</v>
       </c>
       <c r="K58">
-        <v>0.1102622666771678</v>
+        <v>0.11026226667716781</v>
       </c>
       <c r="L58">
-        <v>0.4883043238560291</v>
+        <v>0.48830432385602912</v>
       </c>
       <c r="M58">
         <v>100</v>
@@ -4441,48 +4462,48 @@
         <v>0</v>
       </c>
       <c r="U58">
-        <v>0.6666666666666667</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="V58">
         <v>1</v>
       </c>
       <c r="W58">
-        <v>0.5555555555555556</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D59">
         <v>17.57987566864248</v>
       </c>
       <c r="E59">
-        <v>34.53809454966026</v>
+        <v>34.538094549660258</v>
       </c>
       <c r="F59">
-        <v>4.539540263119851</v>
+        <v>4.5395402631198509</v>
       </c>
       <c r="G59">
-        <v>0.4337140378776927</v>
+        <v>0.43371403787769269</v>
       </c>
       <c r="H59">
-        <v>0.7806852681798468</v>
+        <v>0.78068526817984685</v>
       </c>
       <c r="I59">
-        <v>41.46306202110742</v>
+        <v>41.463062021107419</v>
       </c>
       <c r="J59">
-        <v>0.1445713459592309</v>
+        <v>0.14457134595923091</v>
       </c>
       <c r="K59">
-        <v>0.08674280757553855</v>
+        <v>8.6742807575538552E-2</v>
       </c>
       <c r="L59">
-        <v>0.4337140378776927</v>
+        <v>0.43371403787769269</v>
       </c>
       <c r="M59">
         <v>100</v>
@@ -4509,15 +4530,15 @@
         <v>1</v>
       </c>
       <c r="U59">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D60">
         <v>16.71276750618722</v>
@@ -4526,10 +4547,10 @@
         <v>34.91046731693114</v>
       </c>
       <c r="F60">
-        <v>5.488426262920368</v>
+        <v>5.4884262629203677</v>
       </c>
       <c r="G60">
-        <v>0.6114427136409958</v>
+        <v>0.61144271364099578</v>
       </c>
       <c r="H60">
         <v>1.091861988644635</v>
@@ -4538,13 +4559,13 @@
         <v>40.52991701848886</v>
       </c>
       <c r="J60">
-        <v>0.1310234386373562</v>
+        <v>0.13102343863735619</v>
       </c>
       <c r="K60">
-        <v>0.08734895909157081</v>
+        <v>8.734895909157081E-2</v>
       </c>
       <c r="L60">
-        <v>0.4367447954578542</v>
+        <v>0.43674479545785422</v>
       </c>
       <c r="M60">
         <v>100</v>
@@ -4571,10 +4592,10 @@
         <v>1</v>
       </c>
       <c r="U60">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4582,34 +4603,34 @@
         <v>36</v>
       </c>
       <c r="C61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D61">
-        <v>29.7055730809674</v>
+        <v>29.705573080967401</v>
       </c>
       <c r="E61">
-        <v>39.09919383105503</v>
+        <v>39.099193831055032</v>
       </c>
       <c r="F61">
-        <v>3.475873349690384</v>
+        <v>3.4758733496903842</v>
       </c>
       <c r="G61">
         <v>0.186937726369903</v>
       </c>
       <c r="H61">
-        <v>0.5783385909568874</v>
+        <v>0.57833859095688744</v>
       </c>
       <c r="I61">
-        <v>26.48673910503563</v>
+        <v>26.486739105035628</v>
       </c>
       <c r="J61">
-        <v>0.2628811777076761</v>
+        <v>0.26288117770767611</v>
       </c>
       <c r="K61">
-        <v>0.0759434513377731</v>
+        <v>7.5943451337773096E-2</v>
       </c>
       <c r="L61">
-        <v>0.1285196868793083</v>
+        <v>0.12851968687930829</v>
       </c>
       <c r="M61">
         <v>100</v>
@@ -4636,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="U61">
-        <v>0.6666666666666667</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="V61">
         <v>0</v>
@@ -4645,42 +4666,42 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D62">
-        <v>28.02111306602463</v>
+        <v>28.021113066024629</v>
       </c>
       <c r="E62">
-        <v>41.16121863135476</v>
+        <v>41.161218631354757</v>
       </c>
       <c r="F62">
-        <v>3.486433929067506</v>
+        <v>3.4864339290675059</v>
       </c>
       <c r="G62">
-        <v>0.1574219835169924</v>
+        <v>0.15742198351699241</v>
       </c>
       <c r="H62">
-        <v>0.5139364755995927</v>
+        <v>0.51393647559959266</v>
       </c>
       <c r="I62">
-        <v>26.1690897305306</v>
+        <v>26.169089730530601</v>
       </c>
       <c r="J62">
-        <v>0.2546532086304287</v>
+        <v>0.25465320863042867</v>
       </c>
       <c r="K62">
-        <v>0.1018612834521715</v>
+        <v>0.10186128345217151</v>
       </c>
       <c r="L62">
         <v>0.134271691823317</v>
       </c>
       <c r="M62">
-        <v>99.99999999999999</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -4704,10 +4725,10 @@
         <v>0</v>
       </c>
       <c r="U62">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4715,31 +4736,31 @@
         <v>37</v>
       </c>
       <c r="C63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D63">
         <v>15.72506628594738</v>
       </c>
       <c r="E63">
-        <v>36.39948330953838</v>
+        <v>36.399483309538383</v>
       </c>
       <c r="F63">
-        <v>2.733020599632878</v>
+        <v>2.7330205996328778</v>
       </c>
       <c r="G63">
-        <v>0.5438846964443538</v>
+        <v>0.54388469644435378</v>
       </c>
       <c r="H63">
-        <v>0.9585967774831735</v>
+        <v>0.95859677748317351</v>
       </c>
       <c r="I63">
-        <v>43.25922904344279</v>
+        <v>43.259229043442787</v>
       </c>
       <c r="J63">
-        <v>0.1495682915221973</v>
+        <v>0.14956829152219731</v>
       </c>
       <c r="K63">
-        <v>0.08838126317220749</v>
+        <v>8.8381263172207486E-2</v>
       </c>
       <c r="L63">
         <v>0.1427697328166429</v>
@@ -4769,7 +4790,7 @@
         <v>1</v>
       </c>
       <c r="U63">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="V63">
         <v>1</v>
@@ -4778,42 +4799,42 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D64">
         <v>17.17861205915813</v>
       </c>
       <c r="E64">
-        <v>35.85625376430436</v>
+        <v>35.856253764304363</v>
       </c>
       <c r="F64">
-        <v>2.509536237703272</v>
+        <v>2.5095362377032719</v>
       </c>
       <c r="G64">
-        <v>0.5353677307100314</v>
+        <v>0.53536773071003141</v>
       </c>
       <c r="H64">
         <v>0.9435856253764302</v>
       </c>
       <c r="I64">
-        <v>42.59519507461687</v>
+        <v>42.595195074616868</v>
       </c>
       <c r="J64">
-        <v>0.153918222579134</v>
+        <v>0.15391822257913401</v>
       </c>
       <c r="K64">
-        <v>0.08030515960650471</v>
+        <v>8.0305159606504709E-2</v>
       </c>
       <c r="L64">
-        <v>0.1472261259452586</v>
+        <v>0.14722612594525861</v>
       </c>
       <c r="M64">
-        <v>99.99999999999999</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -4837,30 +4858,30 @@
         <v>1</v>
       </c>
       <c r="U64">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D65">
-        <v>21.17865519937451</v>
+        <v>21.178655199374511</v>
       </c>
       <c r="E65">
-        <v>39.60125097732604</v>
+        <v>39.601250977326039</v>
       </c>
       <c r="F65">
-        <v>4.104769351055512</v>
+        <v>4.1047693510555119</v>
       </c>
       <c r="G65">
-        <v>0.6157154026583269</v>
+        <v>0.61571540265832692</v>
       </c>
       <c r="H65">
-        <v>0.7329945269741985</v>
+        <v>0.73299452697419853</v>
       </c>
       <c r="I65">
         <v>33.4147771696638</v>
@@ -4869,10 +4890,10 @@
         <v>0.1661454261141517</v>
       </c>
       <c r="K65">
-        <v>0.0586395621579359</v>
+        <v>5.86395621579359E-2</v>
       </c>
       <c r="L65">
-        <v>0.1270523846755278</v>
+        <v>0.12705238467552779</v>
       </c>
       <c r="M65">
         <v>100</v>
@@ -4899,42 +4920,42 @@
         <v>1</v>
       </c>
       <c r="U65">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D66">
-        <v>23.02269601100413</v>
+        <v>23.022696011004129</v>
       </c>
       <c r="E66">
-        <v>38.57462173314994</v>
+        <v>38.574621733149939</v>
       </c>
       <c r="F66">
-        <v>4.281292984869326</v>
+        <v>4.2812929848693262</v>
       </c>
       <c r="G66">
-        <v>0.7135488308115545</v>
+        <v>0.71354883081155451</v>
       </c>
       <c r="H66">
-        <v>0.6791609353507567</v>
+        <v>0.67916093535075672</v>
       </c>
       <c r="I66">
         <v>32.35041265474554</v>
       </c>
       <c r="J66">
-        <v>0.1633425034387896</v>
+        <v>0.16334250343878959</v>
       </c>
       <c r="K66">
-        <v>0.06877579092159561</v>
+        <v>6.8775790921595609E-2</v>
       </c>
       <c r="L66">
-        <v>0.1461485557083907</v>
+        <v>0.14614855570839069</v>
       </c>
       <c r="M66">
         <v>100</v>
@@ -4961,10 +4982,10 @@
         <v>0</v>
       </c>
       <c r="U66">
-        <v>0.6666666666666667</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23">
+        <v>0.66666666666666674</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4972,28 +4993,28 @@
         <v>38</v>
       </c>
       <c r="C67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D67">
-        <v>17.76004728132387</v>
+        <v>17.760047281323871</v>
       </c>
       <c r="E67">
-        <v>27.5709219858156</v>
+        <v>27.570921985815598</v>
       </c>
       <c r="F67">
         <v>4.078014184397162</v>
       </c>
       <c r="G67">
-        <v>0.5516154452324664</v>
+        <v>0.55161544523246642</v>
       </c>
       <c r="H67">
-        <v>0.5023640661938533</v>
+        <v>0.50236406619385332</v>
       </c>
       <c r="I67">
         <v>49.15287628053585</v>
       </c>
       <c r="J67">
-        <v>0.07880220646178092</v>
+        <v>7.8802206461780919E-2</v>
       </c>
       <c r="K67">
         <v>0.1083530338849487</v>
@@ -5002,7 +5023,7 @@
         <v>0.1970055161544523</v>
       </c>
       <c r="M67">
-        <v>99.99999999999999</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -5026,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="U67">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="V67">
         <v>0</v>
@@ -5035,36 +5056,36 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D68">
-        <v>18.1594161690835</v>
+        <v>18.159416169083499</v>
       </c>
       <c r="E68">
-        <v>34.622310681452</v>
+        <v>34.622310681451999</v>
       </c>
       <c r="F68">
-        <v>3.250876694152213</v>
+        <v>3.2508766941522129</v>
       </c>
       <c r="G68">
-        <v>0.578144251729694</v>
+        <v>0.57814425172969397</v>
       </c>
       <c r="H68">
-        <v>0.7866552933371245</v>
+        <v>0.78665529333712447</v>
       </c>
       <c r="I68">
-        <v>42.14766372855654</v>
+        <v>42.147663728556537</v>
       </c>
       <c r="J68">
-        <v>0.1705999431333523</v>
+        <v>0.17059994313335231</v>
       </c>
       <c r="K68">
-        <v>0.1042555208037153</v>
+        <v>0.10425552080371529</v>
       </c>
       <c r="L68">
         <v>0.1800777177518719</v>
@@ -5094,42 +5115,42 @@
         <v>0</v>
       </c>
       <c r="U68">
-        <v>0.6666666666666667</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23">
+        <v>0.66666666666666674</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D69">
-        <v>17.65958957608464</v>
+        <v>17.659589576084642</v>
       </c>
       <c r="E69">
-        <v>21.72832493076759</v>
+        <v>21.728324930767592</v>
       </c>
       <c r="F69">
         <v>15.33764112760065</v>
       </c>
       <c r="G69">
-        <v>0.284030391251864</v>
+        <v>0.28403039125186402</v>
       </c>
       <c r="H69">
-        <v>0.7597812965987361</v>
+        <v>0.75978129659873606</v>
       </c>
       <c r="I69">
-        <v>43.76198253213094</v>
+        <v>43.761982532130943</v>
       </c>
       <c r="J69">
-        <v>0.1704182347511184</v>
+        <v>0.17041823475111839</v>
       </c>
       <c r="K69">
-        <v>0.09230987715685579</v>
+        <v>9.2309877156855791E-2</v>
       </c>
       <c r="L69">
-        <v>0.2059220336576014</v>
+        <v>0.20592203365760139</v>
       </c>
       <c r="M69">
         <v>100</v>
@@ -5159,30 +5180,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D70">
-        <v>19.44067336410535</v>
+        <v>19.440673364105351</v>
       </c>
       <c r="E70">
-        <v>21.86804235677437</v>
+        <v>21.868042356774371</v>
       </c>
       <c r="F70">
-        <v>3.741515069237036</v>
+        <v>3.7415150692370358</v>
       </c>
       <c r="G70">
-        <v>0.8145533532446378</v>
+        <v>0.81455335324463785</v>
       </c>
       <c r="H70">
         <v>1.357588922074396</v>
       </c>
       <c r="I70">
-        <v>52.35948954656531</v>
+        <v>52.359489546565307</v>
       </c>
       <c r="J70">
         <v>0.1411892478957372</v>
@@ -5221,42 +5242,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D71">
         <v>20.53117782909931</v>
       </c>
       <c r="E71">
-        <v>22.3094688221709</v>
+        <v>22.309468822170899</v>
       </c>
       <c r="F71">
-        <v>4.191685912240184</v>
+        <v>4.1916859122401844</v>
       </c>
       <c r="G71">
-        <v>0.9006928406466513</v>
+        <v>0.90069284064665134</v>
       </c>
       <c r="H71">
         <v>1.212471131639723</v>
       </c>
       <c r="I71">
-        <v>50.49653579676674</v>
+        <v>50.496535796766743</v>
       </c>
       <c r="J71">
         <v>0.1270207852193995</v>
       </c>
       <c r="K71">
-        <v>0.08083140877598154</v>
+        <v>8.0831408775981536E-2</v>
       </c>
       <c r="L71">
-        <v>0.1501154734411085</v>
+        <v>0.15011547344110851</v>
       </c>
       <c r="M71">
-        <v>99.99999999999999</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -5283,7 +5304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -5291,37 +5312,37 @@
         <v>40</v>
       </c>
       <c r="C72" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D72">
-        <v>17.08860759493671</v>
+        <v>17.088607594936711</v>
       </c>
       <c r="E72">
-        <v>46.39105844330729</v>
+        <v>46.391058443307287</v>
       </c>
       <c r="F72">
-        <v>3.696471855642338</v>
+        <v>3.6964718556423382</v>
       </c>
       <c r="G72">
-        <v>0.2827901966065176</v>
+        <v>0.28279019660651761</v>
       </c>
       <c r="H72">
-        <v>0.5857796929706436</v>
+        <v>0.58577969297064358</v>
       </c>
       <c r="I72">
-        <v>31.46377592243469</v>
+        <v>31.463775922434689</v>
       </c>
       <c r="J72">
         <v>0.1413950983032588</v>
       </c>
       <c r="K72">
-        <v>0.09426339886883922</v>
+        <v>9.4263398868839221E-2</v>
       </c>
       <c r="L72">
-        <v>0.2558577969297064</v>
+        <v>0.25585779692970639</v>
       </c>
       <c r="M72">
-        <v>99.99999999999999</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -5351,42 +5372,42 @@
         <v>1</v>
       </c>
       <c r="W72">
-        <v>0.9444444444444444</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23">
+        <v>0.94444444444444442</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D73">
-        <v>18.14436850482165</v>
+        <v>18.144368504821649</v>
       </c>
       <c r="E73">
-        <v>44.54639078737946</v>
+        <v>44.546390787379458</v>
       </c>
       <c r="F73">
-        <v>3.660705926411384</v>
+        <v>3.6607059264113841</v>
       </c>
       <c r="G73">
-        <v>0.2059732234809475</v>
+        <v>0.20597322348094749</v>
       </c>
       <c r="H73">
-        <v>0.5523827356989044</v>
+        <v>0.55238273569890439</v>
       </c>
       <c r="I73">
-        <v>32.45950753674749</v>
+        <v>32.459507536747488</v>
       </c>
       <c r="J73">
-        <v>0.1497987079861436</v>
+        <v>0.14979870798614359</v>
       </c>
       <c r="K73">
-        <v>0.07489935399307181</v>
+        <v>7.4899353993071807E-2</v>
       </c>
       <c r="L73">
-        <v>0.2059732234809475</v>
+        <v>0.20597322348094749</v>
       </c>
       <c r="M73">
         <v>100</v>
@@ -5416,39 +5437,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D74">
-        <v>18.14607903993379</v>
+        <v>18.146079039933792</v>
       </c>
       <c r="E74">
-        <v>43.96165252776054</v>
+        <v>43.961652527760542</v>
       </c>
       <c r="F74">
-        <v>3.600248292985725</v>
+        <v>3.6002482929857251</v>
       </c>
       <c r="G74">
         <v>0.3448513690599353</v>
       </c>
       <c r="H74">
-        <v>0.565556245258294</v>
+        <v>0.56555624525829395</v>
       </c>
       <c r="I74">
         <v>32.91951169046142</v>
       </c>
       <c r="J74">
-        <v>0.1517346023863715</v>
+        <v>0.15173460238637149</v>
       </c>
       <c r="K74">
-        <v>0.07586730119318576</v>
+        <v>7.5867301193185757E-2</v>
       </c>
       <c r="L74">
-        <v>0.2344989309607561</v>
+        <v>0.23449893096075611</v>
       </c>
       <c r="M74">
         <v>100</v>
@@ -5475,10 +5496,10 @@
         <v>1</v>
       </c>
       <c r="U74">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -5486,34 +5507,34 @@
         <v>41</v>
       </c>
       <c r="C75" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D75">
-        <v>20.00793021411578</v>
+        <v>20.007930214115781</v>
       </c>
       <c r="E75">
-        <v>29.72244250594766</v>
+        <v>29.722442505947662</v>
       </c>
       <c r="F75">
         <v>4.956383822363204</v>
       </c>
       <c r="G75">
-        <v>0.4123711340206186</v>
+        <v>0.41237113402061859</v>
       </c>
       <c r="H75">
         <v>0.9040444091990486</v>
       </c>
       <c r="I75">
-        <v>42.96590007930214</v>
+        <v>42.965900079302138</v>
       </c>
       <c r="J75">
-        <v>0.5947660586835846</v>
+        <v>0.59476605868358456</v>
       </c>
       <c r="K75">
-        <v>0.1427438540840603</v>
+        <v>0.14274385408406029</v>
       </c>
       <c r="L75">
-        <v>0.2934179222839017</v>
+        <v>0.29341792228390168</v>
       </c>
       <c r="M75">
         <v>100</v>
@@ -5549,39 +5570,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D76">
-        <v>19.90842316130879</v>
+        <v>19.908423161308789</v>
       </c>
       <c r="E76">
-        <v>30.13450348182772</v>
+        <v>30.134503481827721</v>
       </c>
       <c r="F76">
-        <v>4.70285223695507</v>
+        <v>4.7028522369550698</v>
       </c>
       <c r="G76">
-        <v>0.4006486692740628</v>
+        <v>0.40064866927406279</v>
       </c>
       <c r="H76">
-        <v>0.9730039110941524</v>
+        <v>0.97300391109415241</v>
       </c>
       <c r="I76">
-        <v>42.54507297529334</v>
+        <v>42.545072975293337</v>
       </c>
       <c r="J76">
-        <v>0.8394543546694648</v>
+        <v>0.83945435466946483</v>
       </c>
       <c r="K76">
-        <v>0.1526280644853573</v>
+        <v>0.15262806448535729</v>
       </c>
       <c r="L76">
-        <v>0.3434131450920538</v>
+        <v>0.34341314509205378</v>
       </c>
       <c r="M76">
         <v>100</v>
@@ -5611,7 +5632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -5619,37 +5640,37 @@
         <v>42</v>
       </c>
       <c r="C77" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D77">
-        <v>17.87060440778679</v>
+        <v>17.870604407786789</v>
       </c>
       <c r="E77">
-        <v>39.27542015875127</v>
+        <v>39.275420158751267</v>
       </c>
       <c r="F77">
-        <v>3.16172231830074</v>
+        <v>3.1617223183007401</v>
       </c>
       <c r="G77">
-        <v>0.150769367212097</v>
+        <v>0.15076936721209699</v>
       </c>
       <c r="H77">
-        <v>0.7981907675934548</v>
+        <v>0.79819076759345475</v>
       </c>
       <c r="I77">
-        <v>38.32646002394572</v>
+        <v>38.326460023945721</v>
       </c>
       <c r="J77">
-        <v>0.155203760365394</v>
+        <v>0.15520376036539399</v>
       </c>
       <c r="K77">
-        <v>0.09312225621923639</v>
+        <v>9.3122256219236393E-2</v>
       </c>
       <c r="L77">
-        <v>0.1685069398252849</v>
+        <v>0.16850693982528489</v>
       </c>
       <c r="M77">
-        <v>99.99999999999999</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -5673,7 +5694,7 @@
         <v>1</v>
       </c>
       <c r="U77">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="V77">
         <v>1</v>
@@ -5682,42 +5703,42 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D78">
-        <v>17.9760429574556</v>
+        <v>17.976042957455601</v>
       </c>
       <c r="E78">
-        <v>38.81040892193308</v>
+        <v>38.810408921933082</v>
       </c>
       <c r="F78">
-        <v>3.308550185873605</v>
+        <v>3.3085501858736048</v>
       </c>
       <c r="G78">
-        <v>0.2560925237505163</v>
+        <v>0.25609252375051628</v>
       </c>
       <c r="H78">
-        <v>0.8921933085501856</v>
+        <v>0.89219330855018564</v>
       </c>
       <c r="I78">
-        <v>38.33126807104502</v>
+        <v>38.331268071045017</v>
       </c>
       <c r="J78">
-        <v>0.1693515076414704</v>
+        <v>0.16935150764147039</v>
       </c>
       <c r="K78">
-        <v>0.09913258983890952</v>
+        <v>9.9132589838909518E-2</v>
       </c>
       <c r="L78">
-        <v>0.1569599339116068</v>
+        <v>0.15695993391160681</v>
       </c>
       <c r="M78">
-        <v>99.99999999999999</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -5741,10 +5762,10 @@
         <v>1</v>
       </c>
       <c r="U78">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -5752,37 +5773,37 @@
         <v>44</v>
       </c>
       <c r="C79" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D79">
-        <v>19.26186626081993</v>
+        <v>19.261866260819929</v>
       </c>
       <c r="E79">
-        <v>13.78293541329782</v>
+        <v>13.782935413297819</v>
       </c>
       <c r="F79">
-        <v>4.546751640825644</v>
+        <v>4.5467516408256436</v>
       </c>
       <c r="G79">
-        <v>0.6848663559402642</v>
+        <v>0.68486635594026424</v>
       </c>
       <c r="H79">
-        <v>1.63606962807952</v>
+        <v>1.6360696280795199</v>
       </c>
       <c r="I79">
         <v>59.4502045087035</v>
       </c>
       <c r="J79">
-        <v>0.1331684580994958</v>
+        <v>0.13316845809949579</v>
       </c>
       <c r="K79">
-        <v>0.3043850470845619</v>
+        <v>0.30438504708456188</v>
       </c>
       <c r="L79">
         <v>0.1997526871492438</v>
       </c>
       <c r="M79">
-        <v>99.99999999999999</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -5815,36 +5836,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D80">
-        <v>15.52376945729912</v>
+        <v>15.523769457299119</v>
       </c>
       <c r="E80">
-        <v>13.64114429953723</v>
+        <v>13.641144299537229</v>
       </c>
       <c r="F80">
-        <v>3.796802692469499</v>
+        <v>3.7968026924694991</v>
       </c>
       <c r="G80">
-        <v>0.368111064366849</v>
+        <v>0.36811106436684898</v>
       </c>
       <c r="H80">
         <v>1.556583929322676</v>
       </c>
       <c r="I80">
-        <v>64.58771560790913</v>
+        <v>64.587715607909132</v>
       </c>
       <c r="J80">
-        <v>0.1682793437105596</v>
+        <v>0.16827934371055961</v>
       </c>
       <c r="K80">
-        <v>0.2103491796381994</v>
+        <v>0.21034917963819941</v>
       </c>
       <c r="L80">
         <v>0.1472444257467396</v>
@@ -5877,39 +5898,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D81">
-        <v>22.06504065040651</v>
+        <v>22.065040650406509</v>
       </c>
       <c r="E81">
-        <v>16.21138211382114</v>
+        <v>16.211382113821141</v>
       </c>
       <c r="F81">
         <v>2.934959349593496</v>
       </c>
       <c r="G81">
-        <v>0.09756097560975611</v>
+        <v>9.7560975609756115E-2</v>
       </c>
       <c r="H81">
-        <v>1.235772357723577</v>
+        <v>1.2357723577235771</v>
       </c>
       <c r="I81">
-        <v>56.88617886178861</v>
+        <v>56.886178861788608</v>
       </c>
       <c r="J81">
-        <v>0.1626016260162602</v>
+        <v>0.16260162601626019</v>
       </c>
       <c r="K81">
         <v>0.2276422764227643</v>
       </c>
       <c r="L81">
-        <v>0.1788617886178862</v>
+        <v>0.17886178861788621</v>
       </c>
       <c r="M81">
         <v>100</v>
@@ -5939,7 +5960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -5947,31 +5968,31 @@
         <v>46</v>
       </c>
       <c r="C82" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D82">
-        <v>13.79883624272652</v>
+        <v>13.798836242726519</v>
       </c>
       <c r="E82">
-        <v>52.49376558603491</v>
+        <v>52.493765586034911</v>
       </c>
       <c r="F82">
-        <v>3.50166251039069</v>
+        <v>3.5016625103906902</v>
       </c>
       <c r="G82">
-        <v>0.2805486284289276</v>
+        <v>0.28054862842892758</v>
       </c>
       <c r="H82">
-        <v>0.8935993349958437</v>
+        <v>0.89359933499584365</v>
       </c>
       <c r="I82">
         <v>28.51205320033251</v>
       </c>
       <c r="J82">
-        <v>0.1454696591853699</v>
+        <v>0.14546965918536989</v>
       </c>
       <c r="K82">
-        <v>0.06234413965087282</v>
+        <v>6.2344139650872821E-2</v>
       </c>
       <c r="L82">
         <v>0.3117206982543641</v>
@@ -6010,39 +6031,39 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D83">
         <v>13.51884744424709</v>
       </c>
       <c r="E83">
-        <v>52.11170317742253</v>
+        <v>52.111703177422527</v>
       </c>
       <c r="F83">
-        <v>3.956976514702981</v>
+        <v>3.9569765147029812</v>
       </c>
       <c r="G83">
-        <v>0.4045786461417012</v>
+        <v>0.40457864614170119</v>
       </c>
       <c r="H83">
         <v>1.01638050128281</v>
       </c>
       <c r="I83">
-        <v>28.42905072034734</v>
+        <v>28.429050720347341</v>
       </c>
       <c r="J83">
-        <v>0.1677521215709493</v>
+        <v>0.16775212157094929</v>
       </c>
       <c r="K83">
-        <v>0.0789421748569173</v>
+        <v>7.8942174856917305E-2</v>
       </c>
       <c r="L83">
-        <v>0.3157686994276692</v>
+        <v>0.31576869942766922</v>
       </c>
       <c r="M83">
         <v>100</v>
@@ -6069,42 +6090,42 @@
         <v>1</v>
       </c>
       <c r="U83">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="C84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D84">
         <v>15.9796558046011</v>
       </c>
       <c r="E84">
-        <v>50.8309184457981</v>
+        <v>50.830918445798098</v>
       </c>
       <c r="F84">
         <v>2.696788692412325</v>
       </c>
       <c r="G84">
-        <v>0.3193565556804069</v>
+        <v>0.31935655568040688</v>
       </c>
       <c r="H84">
         <v>1.040865811106511</v>
       </c>
       <c r="I84">
-        <v>28.32219528061978</v>
+        <v>28.322195280619781</v>
       </c>
       <c r="J84">
         <v>0.2602164527766278</v>
       </c>
       <c r="K84">
-        <v>0.09462416464604646</v>
+        <v>9.4624164646046463E-2</v>
       </c>
       <c r="L84">
-        <v>0.4553787923590987</v>
+        <v>0.45537879235909873</v>
       </c>
       <c r="M84">
         <v>100</v>
@@ -6131,42 +6152,42 @@
         <v>1</v>
       </c>
       <c r="U84">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D85">
-        <v>18.43665457894434</v>
+        <v>18.436654578944339</v>
       </c>
       <c r="E85">
-        <v>49.39849191273817</v>
+        <v>49.398491912738173</v>
       </c>
       <c r="F85">
-        <v>3.073735106199275</v>
+        <v>3.0737351061992748</v>
       </c>
       <c r="G85">
-        <v>0.2993150290680942</v>
+        <v>0.29931502906809421</v>
       </c>
       <c r="H85">
-        <v>0.9842859609739252</v>
+        <v>0.98428596097392518</v>
       </c>
       <c r="I85">
         <v>26.93835261612848</v>
       </c>
       <c r="J85">
-        <v>0.2302423300523802</v>
+        <v>0.23024233005238021</v>
       </c>
       <c r="K85">
-        <v>0.09209693202095208</v>
+        <v>9.209693202095208E-2</v>
       </c>
       <c r="L85">
-        <v>0.5468255338744029</v>
+        <v>0.54682553387440291</v>
       </c>
       <c r="M85">
         <v>100</v>
@@ -6193,10 +6214,10 @@
         <v>1</v>
       </c>
       <c r="U85">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -6204,13 +6225,13 @@
         <v>52</v>
       </c>
       <c r="C86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D86">
         <v>12.63024944742658</v>
       </c>
       <c r="E86">
-        <v>52.15841941449772</v>
+        <v>52.158419414497722</v>
       </c>
       <c r="F86">
         <v>2.810230502052415</v>
@@ -6222,16 +6243,16 @@
         <v>0.8254770174568089</v>
       </c>
       <c r="I86">
-        <v>30.64188732013171</v>
+        <v>30.641887320131708</v>
       </c>
       <c r="J86">
-        <v>0.4736343542784969</v>
+        <v>0.47363435427849693</v>
       </c>
       <c r="K86">
-        <v>0.08119446073345661</v>
+        <v>8.1194460733456611E-2</v>
       </c>
       <c r="L86">
-        <v>0.1353241012224277</v>
+        <v>0.13532410122242769</v>
       </c>
       <c r="M86">
         <v>100</v>
@@ -6258,21 +6279,21 @@
         <v>1</v>
       </c>
       <c r="U86">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="V86">
         <v>1</v>
       </c>
       <c r="W86">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D87">
         <v>12.32908034938492</v>
@@ -6281,28 +6302,28 @@
         <v>52.44432249508391</v>
       </c>
       <c r="F87">
-        <v>2.478620752732428</v>
+        <v>2.4786207527324282</v>
       </c>
       <c r="G87">
-        <v>0.1189006265148397</v>
+        <v>0.11890062651483969</v>
       </c>
       <c r="H87">
         <v>0.7728540723464582</v>
       </c>
       <c r="I87">
-        <v>31.17482965198701</v>
+        <v>31.174829651987011</v>
       </c>
       <c r="J87">
-        <v>0.4664563040197557</v>
+        <v>0.46645630401975569</v>
       </c>
       <c r="K87">
-        <v>0.07774271733662597</v>
+        <v>7.7742717336625966E-2</v>
       </c>
       <c r="L87">
-        <v>0.1371930305940458</v>
+        <v>0.13719303059404581</v>
       </c>
       <c r="M87">
-        <v>99.99999999999999</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -6326,10 +6347,10 @@
         <v>1</v>
       </c>
       <c r="U87">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -6337,37 +6358,37 @@
         <v>54</v>
       </c>
       <c r="C88" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D88">
-        <v>14.34970651838121</v>
+        <v>14.349706518381209</v>
       </c>
       <c r="E88">
-        <v>66.70270826897331</v>
+        <v>66.702708268973311</v>
       </c>
       <c r="F88">
-        <v>1.745443311708372</v>
+        <v>1.7454433117083721</v>
       </c>
       <c r="G88">
-        <v>0.1338688085676037</v>
+        <v>0.13386880856760369</v>
       </c>
       <c r="H88">
-        <v>0.5560704355885079</v>
+        <v>0.55607043558850788</v>
       </c>
       <c r="I88">
-        <v>16.12604263206673</v>
+        <v>16.126042632066731</v>
       </c>
       <c r="J88">
-        <v>0.0514880032952322</v>
+        <v>5.1488003295232197E-2</v>
       </c>
       <c r="K88">
-        <v>0.08238080527237153</v>
+        <v>8.238080527237153E-2</v>
       </c>
       <c r="L88">
         <v>0.2522912161466378</v>
       </c>
       <c r="M88">
-        <v>99.99999999999996</v>
+        <v>99.999999999999957</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -6400,39 +6421,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D89">
-        <v>12.31777314979428</v>
+        <v>12.317773149794281</v>
       </c>
       <c r="E89">
-        <v>68.23284400873673</v>
+        <v>68.232844008736734</v>
       </c>
       <c r="F89">
         <v>1.650835576776553</v>
       </c>
       <c r="G89">
-        <v>0.1269873520597349</v>
+        <v>0.12698735205973491</v>
       </c>
       <c r="H89">
-        <v>0.5485853608980547</v>
+        <v>0.54858536089805465</v>
       </c>
       <c r="I89">
         <v>16.70137654289633</v>
       </c>
       <c r="J89">
-        <v>0.04571544674150455</v>
+        <v>4.5715446741504552E-2</v>
       </c>
       <c r="K89">
-        <v>0.09651038756539849</v>
+        <v>9.6510387565398495E-2</v>
       </c>
       <c r="L89">
-        <v>0.2793721745314167</v>
+        <v>0.27937217453141672</v>
       </c>
       <c r="M89">
         <v>100</v>
@@ -6462,7 +6483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -6470,34 +6491,34 @@
         <v>55</v>
       </c>
       <c r="C90" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D90">
-        <v>15.11729564330468</v>
+        <v>15.117295643304679</v>
       </c>
       <c r="E90">
-        <v>51.27495264461606</v>
+        <v>51.274952644616057</v>
       </c>
       <c r="F90">
-        <v>3.912283258050415</v>
+        <v>3.9122832580504152</v>
       </c>
       <c r="G90">
-        <v>0.2549905289232114</v>
+        <v>0.25499052892321139</v>
       </c>
       <c r="H90">
-        <v>0.6921171499344307</v>
+        <v>0.69211714993443074</v>
       </c>
       <c r="I90">
-        <v>28.19466705522366</v>
+        <v>28.194667055223661</v>
       </c>
       <c r="J90">
-        <v>0.1967069794550488</v>
+        <v>0.19670697945504881</v>
       </c>
       <c r="K90">
         <v>0.1019962115692845</v>
       </c>
       <c r="L90">
-        <v>0.2549905289232114</v>
+        <v>0.25499052892321139</v>
       </c>
       <c r="M90">
         <v>100</v>
@@ -6524,36 +6545,36 @@
         <v>1</v>
       </c>
       <c r="U90">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="V90">
         <v>1</v>
       </c>
       <c r="W90">
-        <v>0.8888888888888888</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D91">
         <v>10.69492759485478</v>
       </c>
       <c r="E91">
-        <v>59.2589596310978</v>
+        <v>59.258959631097802</v>
       </c>
       <c r="F91">
-        <v>3.616212280559825</v>
+        <v>3.6162122805598251</v>
       </c>
       <c r="G91">
-        <v>0.1779791279022732</v>
+        <v>0.17797912790227319</v>
       </c>
       <c r="H91">
-        <v>0.5015775422700428</v>
+        <v>0.50157754227004281</v>
       </c>
       <c r="I91">
         <v>25.281126122482</v>
@@ -6562,10 +6583,10 @@
         <v>0.1617992071838848</v>
       </c>
       <c r="K91">
-        <v>0.09707952431033087</v>
+        <v>9.7079524310330872E-2</v>
       </c>
       <c r="L91">
-        <v>0.2103389693390502</v>
+        <v>0.21033896933905019</v>
       </c>
       <c r="M91">
         <v>100</v>
@@ -6595,39 +6616,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D92">
-        <v>7.190002640147847</v>
+        <v>7.1900026401478474</v>
       </c>
       <c r="E92">
-        <v>60.41538326146264</v>
+        <v>60.415383261462637</v>
       </c>
       <c r="F92">
-        <v>3.528997623866937</v>
+        <v>3.5289976238669372</v>
       </c>
       <c r="G92">
         <v>0.1496083780691719</v>
       </c>
       <c r="H92">
-        <v>0.563231540966294</v>
+        <v>0.56323154096629402</v>
       </c>
       <c r="I92">
-        <v>27.67754994279679</v>
+        <v>27.677549942796791</v>
       </c>
       <c r="J92">
-        <v>0.1760098565519669</v>
+        <v>0.17600985655196691</v>
       </c>
       <c r="K92">
-        <v>0.06160344979318841</v>
+        <v>6.1603449793188408E-2</v>
       </c>
       <c r="L92">
-        <v>0.2376133063451553</v>
+        <v>0.23761330634515529</v>
       </c>
       <c r="M92">
         <v>100</v>
@@ -6657,7 +6678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -6665,19 +6686,19 @@
         <v>57</v>
       </c>
       <c r="C93" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D93">
-        <v>18.92845684953481</v>
+        <v>18.928456849534811</v>
       </c>
       <c r="E93">
-        <v>49.44390974227356</v>
+        <v>49.443909742273561</v>
       </c>
       <c r="F93">
         <v>2.47032402951556</v>
       </c>
       <c r="G93">
-        <v>0.4598438669660999</v>
+        <v>0.45984386696609991</v>
       </c>
       <c r="H93">
         <v>0.9089936905143835</v>
@@ -6686,16 +6707,16 @@
         <v>27.19495241150679</v>
       </c>
       <c r="J93">
-        <v>0.1817987381028767</v>
+        <v>0.18179873810287669</v>
       </c>
       <c r="K93">
-        <v>0.09624639076034648</v>
+        <v>9.6246390760346481E-2</v>
       </c>
       <c r="L93">
         <v>0.3154742808255801</v>
       </c>
       <c r="M93">
-        <v>99.99999999999999</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -6719,16 +6740,16 @@
         <v>1</v>
       </c>
       <c r="U93">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="V93">
         <v>1</v>
       </c>
       <c r="W93">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -6736,37 +6757,37 @@
         <v>60</v>
       </c>
       <c r="C94" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D94">
-        <v>19.66412577417818</v>
+        <v>19.664125774178181</v>
       </c>
       <c r="E94">
-        <v>45.27751310147689</v>
+        <v>45.277513101476892</v>
       </c>
       <c r="F94">
-        <v>1.935445450214388</v>
+        <v>1.9354454502143881</v>
       </c>
       <c r="G94">
-        <v>0.3573130061934255</v>
+        <v>0.35731300619342549</v>
       </c>
       <c r="H94">
-        <v>1.107670319199619</v>
+        <v>1.1076703191996189</v>
       </c>
       <c r="I94">
         <v>31.21724630776561</v>
       </c>
       <c r="J94">
-        <v>0.1488804192472606</v>
+        <v>0.14888041924726059</v>
       </c>
       <c r="K94">
-        <v>0.08337303477846594</v>
+        <v>8.3373034778465943E-2</v>
       </c>
       <c r="L94">
         <v>0.2084325869461649</v>
       </c>
       <c r="M94">
-        <v>99.99999999999999</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -6790,48 +6811,48 @@
         <v>1</v>
       </c>
       <c r="U94">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="V94">
         <v>1</v>
       </c>
       <c r="W94">
-        <v>0.7666666666666667</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23">
+        <v>0.76666666666666672</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D95">
-        <v>15.81220790256338</v>
+        <v>15.812207902563379</v>
       </c>
       <c r="E95">
-        <v>45.19189916442431</v>
+        <v>45.191899164424314</v>
       </c>
       <c r="F95">
         <v>3.406033139781901</v>
       </c>
       <c r="G95">
-        <v>0.3682197988953407</v>
+        <v>0.36821979889534068</v>
       </c>
       <c r="H95">
-        <v>1.550771845347685</v>
+        <v>1.5507718453476851</v>
       </c>
       <c r="I95">
-        <v>33.30972950007082</v>
+        <v>33.309729500070823</v>
       </c>
       <c r="J95">
-        <v>0.1274606996176179</v>
+        <v>0.12746069961761791</v>
       </c>
       <c r="K95">
-        <v>0.05664919983005241</v>
+        <v>5.6649199830052413E-2</v>
       </c>
       <c r="L95">
-        <v>0.1770287494689138</v>
+        <v>0.17702874946891381</v>
       </c>
       <c r="M95">
         <v>100</v>
@@ -6858,42 +6879,42 @@
         <v>1</v>
       </c>
       <c r="U95">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D96">
         <v>20.11668611435239</v>
       </c>
       <c r="E96">
-        <v>41.80863477246208</v>
+        <v>41.808634772462078</v>
       </c>
       <c r="F96">
-        <v>3.733955659276546</v>
+        <v>3.7339556592765462</v>
       </c>
       <c r="G96">
-        <v>0.4200700116686114</v>
+        <v>0.42007001166861141</v>
       </c>
       <c r="H96">
         <v>1.796966161026837</v>
       </c>
       <c r="I96">
-        <v>31.77362893815635</v>
+        <v>31.773628938156349</v>
       </c>
       <c r="J96">
-        <v>0.1108518086347725</v>
+        <v>0.11085180863477249</v>
       </c>
       <c r="K96">
-        <v>0.05834305717619603</v>
+        <v>5.8343057176196027E-2</v>
       </c>
       <c r="L96">
-        <v>0.1808634772462077</v>
+        <v>0.18086347724620769</v>
       </c>
       <c r="M96">
         <v>100</v>
@@ -6920,24 +6941,24 @@
         <v>1</v>
       </c>
       <c r="U96">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D97">
-        <v>21.70809267311311</v>
+        <v>21.708092673113111</v>
       </c>
       <c r="E97">
         <v>42.70880654163151</v>
       </c>
       <c r="F97">
-        <v>3.465507171133753</v>
+        <v>3.4655071711337531</v>
       </c>
       <c r="G97">
         <v>0.3179959763774417</v>
@@ -6952,13 +6973,13 @@
         <v>0.1168148484651827</v>
       </c>
       <c r="K97">
-        <v>0.04542799662534881</v>
+        <v>4.5427996625348813E-2</v>
       </c>
       <c r="L97">
         <v>0.1687325588941527</v>
       </c>
       <c r="M97">
-        <v>99.99999999999999</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -6982,42 +7003,42 @@
         <v>1</v>
       </c>
       <c r="U97">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D98">
-        <v>26.35567890691716</v>
+        <v>26.355678906917159</v>
       </c>
       <c r="E98">
-        <v>38.87169086251068</v>
+        <v>38.871690862510683</v>
       </c>
       <c r="F98">
         <v>3.60802732707088</v>
       </c>
       <c r="G98">
-        <v>0.4002988898377455</v>
+        <v>0.40029888983774548</v>
       </c>
       <c r="H98">
-        <v>1.633219470538002</v>
+        <v>1.6332194705380021</v>
       </c>
       <c r="I98">
-        <v>28.80550811272417</v>
+        <v>28.805508112724169</v>
       </c>
       <c r="J98">
         <v>0.1067463706233988</v>
       </c>
       <c r="K98">
-        <v>0.0533731853116994</v>
+        <v>5.3373185311699399E-2</v>
       </c>
       <c r="L98">
-        <v>0.1654568744662681</v>
+        <v>0.16545687446626811</v>
       </c>
       <c r="M98">
         <v>100</v>
@@ -7047,7 +7068,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -7055,34 +7076,34 @@
         <v>61</v>
       </c>
       <c r="C99" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D99">
-        <v>11.94766983659959</v>
+        <v>11.947669836599591</v>
       </c>
       <c r="E99">
-        <v>65.48100667262123</v>
+        <v>65.481006672621234</v>
       </c>
       <c r="F99">
-        <v>1.166395208322388</v>
+        <v>1.1663952083223881</v>
       </c>
       <c r="G99">
         <v>0.1838911364472233</v>
       </c>
       <c r="H99">
-        <v>0.5096411495823046</v>
+        <v>0.50964114958230455</v>
       </c>
       <c r="I99">
-        <v>20.28056533389377</v>
+        <v>20.280565333893769</v>
       </c>
       <c r="J99">
-        <v>0.1628750065675406</v>
+        <v>0.16287500656754059</v>
       </c>
       <c r="K99">
-        <v>0.04728629222928598</v>
+        <v>4.728629222928598E-2</v>
       </c>
       <c r="L99">
-        <v>0.220669363736668</v>
+        <v>0.22066936373666801</v>
       </c>
       <c r="M99">
         <v>100</v>
@@ -7118,36 +7139,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D100">
         <v>10.95281513562799</v>
       </c>
       <c r="E100">
-        <v>66.45771597902896</v>
+        <v>66.457715979028961</v>
       </c>
       <c r="F100">
-        <v>0.9972646455436519</v>
+        <v>0.99726464554365191</v>
       </c>
       <c r="G100">
         <v>0.1310690677000228</v>
       </c>
       <c r="H100">
-        <v>0.5413722361522683</v>
+        <v>0.54137223615226826</v>
       </c>
       <c r="I100">
-        <v>20.47526783679052</v>
+        <v>20.475267836790518</v>
       </c>
       <c r="J100">
-        <v>0.1652609984043766</v>
+        <v>0.16526099840437661</v>
       </c>
       <c r="K100">
-        <v>0.05128789605653068</v>
+        <v>5.1287896056530682E-2</v>
       </c>
       <c r="L100">
         <v>0.2279462046956918</v>
@@ -7180,7 +7201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -7188,34 +7209,34 @@
         <v>64</v>
       </c>
       <c r="C101" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D101">
-        <v>8.958043348578247</v>
+        <v>8.9580433485782471</v>
       </c>
       <c r="E101">
-        <v>69.20361900974349</v>
+        <v>69.203619009743491</v>
       </c>
       <c r="F101">
-        <v>3.330682044143965</v>
+        <v>3.3306820441439648</v>
       </c>
       <c r="G101">
         <v>0.1541061841320342</v>
       </c>
       <c r="H101">
-        <v>0.5269437263869556</v>
+        <v>0.52694372638695564</v>
       </c>
       <c r="I101">
-        <v>17.47365281368065</v>
+        <v>17.473652813680651</v>
       </c>
       <c r="J101">
-        <v>0.03479817061045933</v>
+        <v>3.4798170610459332E-2</v>
       </c>
       <c r="K101">
-        <v>0.06462517399085305</v>
+        <v>6.4625173990853046E-2</v>
       </c>
       <c r="L101">
-        <v>0.2535295287333466</v>
+        <v>0.25352952873334661</v>
       </c>
       <c r="M101">
         <v>100</v>
@@ -7251,42 +7272,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D102">
-        <v>13.07884571688252</v>
+        <v>13.078845716882521</v>
       </c>
       <c r="E102">
-        <v>65.91229266075891</v>
+        <v>65.912292660758908</v>
       </c>
       <c r="F102">
-        <v>3.308339013860485</v>
+        <v>3.3083390138604849</v>
       </c>
       <c r="G102">
-        <v>0.1772324471710975</v>
+        <v>0.17723244717109751</v>
       </c>
       <c r="H102">
-        <v>0.540786184957964</v>
+        <v>0.54078618495796404</v>
       </c>
       <c r="I102">
-        <v>16.67348329925017</v>
+        <v>16.673483299250169</v>
       </c>
       <c r="J102">
-        <v>0.04089979550102249</v>
+        <v>4.089979550102249E-2</v>
       </c>
       <c r="K102">
-        <v>0.04544421722335832</v>
+        <v>4.544421722335832E-2</v>
       </c>
       <c r="L102">
         <v>0.2226766643944558</v>
       </c>
       <c r="M102">
-        <v>99.99999999999999</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -7313,39 +7334,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="C103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D103">
         <v>14.97584541062802</v>
       </c>
       <c r="E103">
-        <v>62.30786122090469</v>
+        <v>62.307861220904691</v>
       </c>
       <c r="F103">
-        <v>2.283706631532718</v>
+        <v>2.2837066315327181</v>
       </c>
       <c r="G103">
-        <v>0.1976284584980237</v>
+        <v>0.19762845849802371</v>
       </c>
       <c r="H103">
-        <v>0.779534475186649</v>
+        <v>0.77953447518664898</v>
       </c>
       <c r="I103">
-        <v>19.12604303908651</v>
+        <v>19.126043039086511</v>
       </c>
       <c r="J103">
-        <v>0.04391743522178305</v>
+        <v>4.3917435221783048E-2</v>
       </c>
       <c r="K103">
-        <v>0.05489679402722881</v>
+        <v>5.4896794027228808E-2</v>
       </c>
       <c r="L103">
-        <v>0.230566534914361</v>
+        <v>0.23056653491436099</v>
       </c>
       <c r="M103">
         <v>100</v>
@@ -7375,42 +7396,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D104">
         <v>16.29772542648254</v>
       </c>
       <c r="E104">
-        <v>61.39317627944762</v>
+        <v>61.393176279447623</v>
       </c>
       <c r="F104">
-        <v>2.548740861088546</v>
+        <v>2.5487408610885458</v>
       </c>
       <c r="G104">
-        <v>0.3350934199837531</v>
+        <v>0.33509341998375308</v>
       </c>
       <c r="H104">
-        <v>0.7514216084484159</v>
+        <v>0.75142160844841588</v>
       </c>
       <c r="I104">
         <v>18.31844029244516</v>
       </c>
       <c r="J104">
-        <v>0.05077173030056865</v>
+        <v>5.0771730300568647E-2</v>
       </c>
       <c r="K104">
-        <v>0.07108042242079611</v>
+        <v>7.1080422420796111E-2</v>
       </c>
       <c r="L104">
-        <v>0.2335499593826157</v>
+        <v>0.23354995938261569</v>
       </c>
       <c r="M104">
-        <v>99.99999999999999</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -7437,7 +7458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -7445,34 +7466,34 @@
         <v>66</v>
       </c>
       <c r="C105" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D105">
-        <v>14.0198968312454</v>
+        <v>14.019896831245401</v>
       </c>
       <c r="E105">
-        <v>51.16064848931467</v>
+        <v>51.160648489314667</v>
       </c>
       <c r="F105">
-        <v>3.196389093588799</v>
+        <v>3.1963890935887989</v>
       </c>
       <c r="G105">
-        <v>0.4145173176123803</v>
+        <v>0.41451731761238031</v>
       </c>
       <c r="H105">
-        <v>1.022476050110538</v>
+        <v>1.0224760501105381</v>
       </c>
       <c r="I105">
-        <v>29.68865143699337</v>
+        <v>29.688651436993371</v>
       </c>
       <c r="J105">
-        <v>0.08290346352247607</v>
+        <v>8.2903463522476073E-2</v>
       </c>
       <c r="K105">
-        <v>0.128960943257185</v>
+        <v>0.12896094325718499</v>
       </c>
       <c r="L105">
-        <v>0.2855563743551953</v>
+        <v>0.28555637435519532</v>
       </c>
       <c r="M105">
         <v>100</v>
@@ -7499,27 +7520,27 @@
         <v>1</v>
       </c>
       <c r="U105">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="V105">
         <v>1</v>
       </c>
       <c r="W105">
-        <v>0.7083333333333334</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D106">
         <v>12.95804139486189</v>
       </c>
       <c r="E106">
-        <v>51.23620842393493</v>
+        <v>51.236208423934933</v>
       </c>
       <c r="F106">
         <v>3.084480953531449</v>
@@ -7528,19 +7549,19 @@
         <v>0.3785133285012483</v>
       </c>
       <c r="H106">
-        <v>0.9905774341628413</v>
+        <v>0.99057743416284127</v>
       </c>
       <c r="I106">
-        <v>30.78038173471854</v>
+        <v>30.780381734718539</v>
       </c>
       <c r="J106">
-        <v>0.08053475074494645</v>
+        <v>8.0534750744946454E-2</v>
       </c>
       <c r="K106">
-        <v>0.1530160264153982</v>
+        <v>0.15301602641539819</v>
       </c>
       <c r="L106">
-        <v>0.3382459531287751</v>
+        <v>0.33824595312877509</v>
       </c>
       <c r="M106">
         <v>100</v>
@@ -7567,15 +7588,15 @@
         <v>1</v>
       </c>
       <c r="U106">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="107" spans="1:23">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
       <c r="C107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D107">
         <v>10.21777665231704</v>
@@ -7584,28 +7605,28 @@
         <v>48.93010888832616</v>
       </c>
       <c r="F107">
-        <v>3.178019751835907</v>
+        <v>3.1780197518359068</v>
       </c>
       <c r="G107">
-        <v>0.1899214991136997</v>
+        <v>0.18992149911369971</v>
       </c>
       <c r="H107">
         <v>1.380096226892884</v>
       </c>
       <c r="I107">
-        <v>35.61028108381868</v>
+        <v>35.610281083818677</v>
       </c>
       <c r="J107">
-        <v>0.0569764497341099</v>
+        <v>5.6976449734109903E-2</v>
       </c>
       <c r="K107">
-        <v>0.1266143327424664</v>
+        <v>0.12661433274246639</v>
       </c>
       <c r="L107">
-        <v>0.3102051152190428</v>
+        <v>0.31020511521904282</v>
       </c>
       <c r="M107">
-        <v>99.99999999999999</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -7629,45 +7650,45 @@
         <v>1</v>
       </c>
       <c r="U107">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="108" spans="1:23">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
       <c r="C108" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D108">
-        <v>6.894923258559622</v>
+        <v>6.8949232585596221</v>
       </c>
       <c r="E108">
-        <v>49.79929161747344</v>
+        <v>49.799291617473443</v>
       </c>
       <c r="F108">
-        <v>3.193624557260921</v>
+        <v>3.1936245572609212</v>
       </c>
       <c r="G108">
-        <v>0.2420306965761511</v>
+        <v>0.24203069657615109</v>
       </c>
       <c r="H108">
         <v>1.452184179456907</v>
       </c>
       <c r="I108">
-        <v>37.90436835891381</v>
+        <v>37.904368358913807</v>
       </c>
       <c r="J108">
-        <v>0.07083825265643447</v>
+        <v>7.0838252656434467E-2</v>
       </c>
       <c r="K108">
-        <v>0.1298701298701299</v>
+        <v>0.12987012987012991</v>
       </c>
       <c r="L108">
-        <v>0.3128689492325856</v>
+        <v>0.31286894923258562</v>
       </c>
       <c r="M108">
-        <v>99.99999999999999</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -7691,10 +7712,10 @@
         <v>1</v>
       </c>
       <c r="U108">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="109" spans="1:23">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -7702,22 +7723,22 @@
         <v>67</v>
       </c>
       <c r="C109" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D109">
-        <v>13.8107098381071</v>
+        <v>13.810709838107099</v>
       </c>
       <c r="E109">
-        <v>53.46201743462017</v>
+        <v>53.462017434620172</v>
       </c>
       <c r="F109">
         <v>2.814445828144458</v>
       </c>
       <c r="G109">
-        <v>0.386052303860523</v>
+        <v>0.38605230386052303</v>
       </c>
       <c r="H109">
-        <v>0.6351183063511829</v>
+        <v>0.63511830635118294</v>
       </c>
       <c r="I109">
         <v>28.5678704856787</v>
@@ -7726,7 +7747,7 @@
         <v>0.112079701120797</v>
       </c>
       <c r="K109">
-        <v>0.062266500622665</v>
+        <v>6.2266500622664998E-2</v>
       </c>
       <c r="L109">
         <v>0.149439601494396</v>
@@ -7765,27 +7786,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D110">
-        <v>12.93103448275862</v>
+        <v>12.931034482758619</v>
       </c>
       <c r="E110">
-        <v>56.35016998542984</v>
+        <v>56.350169985429837</v>
       </c>
       <c r="F110">
-        <v>2.671199611461876</v>
+        <v>2.6711996114618759</v>
       </c>
       <c r="G110">
-        <v>0.3399708596406024</v>
+        <v>0.33997085964060242</v>
       </c>
       <c r="H110">
-        <v>0.6920835356969405</v>
+        <v>0.69208353569694048</v>
       </c>
       <c r="I110">
         <v>26.68771248178728</v>
@@ -7794,7 +7815,7 @@
         <v>0.1092763477416222</v>
       </c>
       <c r="K110">
-        <v>0.06070908207867899</v>
+        <v>6.0709082078678991E-2</v>
       </c>
       <c r="L110">
         <v>0.1578436134045654</v>
@@ -7827,39 +7848,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="C111" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D111">
         <v>9.124290642038499</v>
       </c>
       <c r="E111">
-        <v>62.47357293868922</v>
+        <v>62.473572938689223</v>
       </c>
       <c r="F111">
-        <v>3.811060420607544</v>
+        <v>3.8110604206075438</v>
       </c>
       <c r="G111">
-        <v>0.09458106153332593</v>
+        <v>9.4581061533325933E-2</v>
       </c>
       <c r="H111">
         <v>0.6509402470234783</v>
       </c>
       <c r="I111">
-        <v>23.50061199510404</v>
+        <v>23.500611995104041</v>
       </c>
       <c r="J111">
-        <v>0.0890174696784244</v>
+        <v>8.9017469678424402E-2</v>
       </c>
       <c r="K111">
-        <v>0.07232669411371982</v>
+        <v>7.2326694113719822E-2</v>
       </c>
       <c r="L111">
-        <v>0.1835985312117503</v>
+        <v>0.18359853121175029</v>
       </c>
       <c r="M111">
         <v>100</v>
@@ -7889,18 +7910,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
       <c r="C112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D112">
-        <v>8.773903262092238</v>
+        <v>8.7739032620922384</v>
       </c>
       <c r="E112">
-        <v>62.62252932669131</v>
+        <v>62.622529326691307</v>
       </c>
       <c r="F112">
         <v>3.819165461460174</v>
@@ -7909,16 +7930,16 @@
         <v>0.1017729926616316</v>
       </c>
       <c r="H112">
-        <v>0.7070544753334405</v>
+        <v>0.70705447533344046</v>
       </c>
       <c r="I112">
-        <v>23.61669077079651</v>
+        <v>23.616690770796509</v>
       </c>
       <c r="J112">
         <v>0.1124859392575928</v>
       </c>
       <c r="K112">
-        <v>0.07499062617172852</v>
+        <v>7.4990626171728525E-2</v>
       </c>
       <c r="L112">
         <v>0.1714071455353795</v>
@@ -7951,7 +7972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -7959,28 +7980,28 @@
         <v>68</v>
       </c>
       <c r="C113" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D113">
-        <v>26.35166901739539</v>
+        <v>26.351669017395391</v>
       </c>
       <c r="E113">
-        <v>24.11847672778561</v>
+        <v>24.118476727785609</v>
       </c>
       <c r="F113">
-        <v>3.902209685002351</v>
+        <v>3.9022096850023509</v>
       </c>
       <c r="G113">
-        <v>0.77574047954866</v>
+        <v>0.77574047954865999</v>
       </c>
       <c r="H113">
-        <v>1.50446638457922</v>
+        <v>1.5044663845792201</v>
       </c>
       <c r="I113">
-        <v>42.87729196050775</v>
+        <v>42.877291960507748</v>
       </c>
       <c r="J113">
-        <v>0.2350728725905031</v>
+        <v>0.23507287259050311</v>
       </c>
       <c r="K113">
         <v>0.1175364362952515</v>
@@ -8019,45 +8040,45 @@
         <v>0</v>
       </c>
       <c r="W113">
-        <v>0.9444444444444444</v>
-      </c>
-    </row>
-    <row r="114" spans="1:23">
+        <v>0.94444444444444442</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="C114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D114">
-        <v>19.6020563594821</v>
+        <v>19.602056359482098</v>
       </c>
       <c r="E114">
-        <v>25.1047220106626</v>
+        <v>25.104722010662599</v>
       </c>
       <c r="F114">
-        <v>3.113099771515612</v>
+        <v>3.1130997715156119</v>
       </c>
       <c r="G114">
-        <v>0.476009139375476</v>
+        <v>0.47600913937547601</v>
       </c>
       <c r="H114">
         <v>1.009139375476009</v>
       </c>
       <c r="I114">
-        <v>50.19040365575018</v>
+        <v>50.190403655750181</v>
       </c>
       <c r="J114">
-        <v>0.276085300837776</v>
+        <v>0.27608530083777599</v>
       </c>
       <c r="K114">
-        <v>0.1237623762376237</v>
+        <v>0.12376237623762371</v>
       </c>
       <c r="L114">
         <v>0.1047220106626047</v>
       </c>
       <c r="M114">
-        <v>99.99999999999999</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -8084,42 +8105,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="C115" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D115">
-        <v>16.39625882802062</v>
+        <v>16.396258828020621</v>
       </c>
       <c r="E115">
-        <v>25.24336705478145</v>
+        <v>25.243367054781451</v>
       </c>
       <c r="F115">
-        <v>3.120824584844437</v>
+        <v>3.1208245848444371</v>
       </c>
       <c r="G115">
-        <v>0.5917159763313611</v>
+        <v>0.59171597633136108</v>
       </c>
       <c r="H115">
-        <v>1.01164344340523</v>
+        <v>1.0116434434052299</v>
       </c>
       <c r="I115">
-        <v>53.11128077877458</v>
+        <v>53.111280778774578</v>
       </c>
       <c r="J115">
-        <v>0.3054017942355411</v>
+        <v>0.30540179423554109</v>
       </c>
       <c r="K115">
         <v>0.1240694789081886</v>
       </c>
       <c r="L115">
-        <v>0.09543806069860661</v>
+        <v>9.5438060698606608E-2</v>
       </c>
       <c r="M115">
-        <v>99.99999999999999</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="N115">
         <v>1</v>
@@ -8143,10 +8164,10 @@
         <v>0</v>
       </c>
       <c r="U115">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="116" spans="1:23">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -8154,19 +8175,19 @@
         <v>69</v>
       </c>
       <c r="C116" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D116">
-        <v>12.2135217723453</v>
+        <v>12.213521772345301</v>
       </c>
       <c r="E116">
-        <v>38.42627960275018</v>
+        <v>38.426279602750178</v>
       </c>
       <c r="F116">
-        <v>2.941176470588235</v>
+        <v>2.9411764705882351</v>
       </c>
       <c r="G116">
-        <v>0.2960275019098548</v>
+        <v>0.29602750190985477</v>
       </c>
       <c r="H116">
         <v>2.024446142093201</v>
@@ -8175,13 +8196,13 @@
         <v>43.63063407181054</v>
       </c>
       <c r="J116">
-        <v>0.3055767761650114</v>
+        <v>0.30557677616501139</v>
       </c>
       <c r="K116">
-        <v>0.03819709702062642</v>
+        <v>3.8197097020626417E-2</v>
       </c>
       <c r="L116">
-        <v>0.1241405653170359</v>
+        <v>0.12414056531703591</v>
       </c>
       <c r="M116">
         <v>100</v>
@@ -8208,30 +8229,30 @@
         <v>1</v>
       </c>
       <c r="U116">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="V116">
         <v>1</v>
       </c>
       <c r="W116">
-        <v>0.7916666666666666</v>
-      </c>
-    </row>
-    <row r="117" spans="1:23">
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D117">
-        <v>9.218016578448019</v>
+        <v>9.2180165784480188</v>
       </c>
       <c r="E117">
         <v>37.59113152901228</v>
       </c>
       <c r="F117">
-        <v>2.546689303904924</v>
+        <v>2.5466893039049241</v>
       </c>
       <c r="G117">
         <v>0.1098571856586438</v>
@@ -8240,16 +8261,16 @@
         <v>1.967442324977529</v>
       </c>
       <c r="I117">
-        <v>48.01757714970539</v>
+        <v>48.017577149705389</v>
       </c>
       <c r="J117">
-        <v>0.2996105063417557</v>
+        <v>0.29961050634175568</v>
       </c>
       <c r="K117">
-        <v>0.05992210126835115</v>
+        <v>5.9922101268351152E-2</v>
       </c>
       <c r="L117">
-        <v>0.189753320683112</v>
+        <v>0.18975332068311199</v>
       </c>
       <c r="M117">
         <v>100</v>
@@ -8276,45 +8297,45 @@
         <v>1</v>
       </c>
       <c r="U117">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="118" spans="1:23">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
       <c r="C118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D118">
-        <v>16.21025858414582</v>
+        <v>16.210258584145819</v>
       </c>
       <c r="E118">
-        <v>40.78846969054683</v>
+        <v>40.788469690546833</v>
       </c>
       <c r="F118">
         <v>3.103009749894023</v>
       </c>
       <c r="G118">
-        <v>0.08478168715557438</v>
+        <v>8.4781687155574381E-2</v>
       </c>
       <c r="H118">
-        <v>0.7630351844001694</v>
+        <v>0.76303518440016938</v>
       </c>
       <c r="I118">
         <v>38.36371343789741</v>
       </c>
       <c r="J118">
-        <v>0.4069520983467569</v>
+        <v>0.40695209834675689</v>
       </c>
       <c r="K118">
-        <v>0.09325985587113181</v>
+        <v>9.3259855871131808E-2</v>
       </c>
       <c r="L118">
-        <v>0.1865197117422636</v>
+        <v>0.18651971174226359</v>
       </c>
       <c r="M118">
-        <v>99.99999999999997</v>
+        <v>99.999999999999972</v>
       </c>
       <c r="N118">
         <v>1</v>
@@ -8338,15 +8359,15 @@
         <v>1</v>
       </c>
       <c r="U118">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="119" spans="1:23">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="C119" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D119">
         <v>14.03225806451613</v>
@@ -8358,22 +8379,22 @@
         <v>3.064516129032258</v>
       </c>
       <c r="G119">
-        <v>0.2801358234295416</v>
+        <v>0.28013582342954158</v>
       </c>
       <c r="H119">
-        <v>0.9083191850594228</v>
+        <v>0.90831918505942277</v>
       </c>
       <c r="I119">
-        <v>39.96604414261461</v>
+        <v>39.966044142614606</v>
       </c>
       <c r="J119">
-        <v>0.432937181663837</v>
+        <v>0.43293718166383699</v>
       </c>
       <c r="K119">
         <v>0.1103565365025467</v>
       </c>
       <c r="L119">
-        <v>0.2292020373514431</v>
+        <v>0.22920203735144309</v>
       </c>
       <c r="M119">
         <v>100</v>
@@ -8400,10 +8421,10 @@
         <v>1</v>
       </c>
       <c r="U119">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="120" spans="1:23">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -8411,31 +8432,31 @@
         <v>70</v>
       </c>
       <c r="C120" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D120">
-        <v>27.06162548377494</v>
+        <v>27.061625483774939</v>
       </c>
       <c r="E120">
-        <v>18.08573980351295</v>
+        <v>18.085739803512951</v>
       </c>
       <c r="F120">
-        <v>4.167907115212862</v>
+        <v>4.1679071152128619</v>
       </c>
       <c r="G120">
-        <v>0.4614468591842811</v>
+        <v>0.46144685918428108</v>
       </c>
       <c r="H120">
-        <v>0.9675498660315572</v>
+        <v>0.96754986603155724</v>
       </c>
       <c r="I120">
-        <v>48.89848169097946</v>
+        <v>48.898481690979459</v>
       </c>
       <c r="J120">
-        <v>0.08931229532598992</v>
+        <v>8.9312295325989915E-2</v>
       </c>
       <c r="K120">
-        <v>0.1637392080976481</v>
+        <v>0.16373920809764811</v>
       </c>
       <c r="L120">
         <v>0.1041976778803216</v>
@@ -8474,39 +8495,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D121">
         <v>28.58097274184928</v>
       </c>
       <c r="E121">
-        <v>18.6932121859968</v>
+        <v>18.693212185996799</v>
       </c>
       <c r="F121">
-        <v>4.436130411544628</v>
+        <v>4.4361304115446281</v>
       </c>
       <c r="G121">
-        <v>0.7081774452164619</v>
+        <v>0.70817744521646186</v>
       </c>
       <c r="H121">
-        <v>0.9486905398182789</v>
+        <v>0.94869053981827889</v>
       </c>
       <c r="I121">
-        <v>46.28540887226082</v>
+        <v>46.285408872260817</v>
       </c>
       <c r="J121">
-        <v>0.1068947087119188</v>
+        <v>0.10689470871191881</v>
       </c>
       <c r="K121">
-        <v>0.1469802244788883</v>
+        <v>0.14698022447888831</v>
       </c>
       <c r="L121">
-        <v>0.09353287012292892</v>
+        <v>9.3532870122928921E-2</v>
       </c>
       <c r="M121">
         <v>100</v>
@@ -8536,7 +8557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -8544,34 +8565,34 @@
         <v>71</v>
       </c>
       <c r="C122" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D122">
         <v>22.8329372869098</v>
       </c>
       <c r="E122">
-        <v>34.49736543031305</v>
+        <v>34.497365430313053</v>
       </c>
       <c r="F122">
-        <v>4.349622894927162</v>
+        <v>4.3496228949271618</v>
       </c>
       <c r="G122">
-        <v>0.22729620828598</v>
+        <v>0.22729620828597999</v>
       </c>
       <c r="H122">
-        <v>0.547577229052588</v>
+        <v>0.54757722905258799</v>
       </c>
       <c r="I122">
-        <v>36.57402624238041</v>
+        <v>36.574026242380413</v>
       </c>
       <c r="J122">
-        <v>0.2066329166236182</v>
+        <v>0.20663291662361821</v>
       </c>
       <c r="K122">
         <v>0.216964562454799</v>
       </c>
       <c r="L122">
-        <v>0.547577229052588</v>
+        <v>0.54757722905258799</v>
       </c>
       <c r="M122">
         <v>100</v>
@@ -8598,51 +8619,51 @@
         <v>0</v>
       </c>
       <c r="U122">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="V122">
         <v>0</v>
       </c>
       <c r="W122">
-        <v>0.7916666666666666</v>
-      </c>
-    </row>
-    <row r="123" spans="1:23">
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D123">
-        <v>14.96804183614178</v>
+        <v>14.968041836141779</v>
       </c>
       <c r="E123">
-        <v>36.7576990122022</v>
+        <v>36.757699012202202</v>
       </c>
       <c r="F123">
-        <v>4.462521789657175</v>
+        <v>4.4625217896571749</v>
       </c>
       <c r="G123">
-        <v>0.220801859384079</v>
+        <v>0.22080185938407901</v>
       </c>
       <c r="H123">
-        <v>0.5810575246949446</v>
+        <v>0.58105752469494465</v>
       </c>
       <c r="I123">
-        <v>41.91748983149331</v>
+        <v>41.917489831493313</v>
       </c>
       <c r="J123">
         <v>0.2324230098779779</v>
       </c>
       <c r="K123">
-        <v>0.2440441603718768</v>
+        <v>0.24404416037187679</v>
       </c>
       <c r="L123">
-        <v>0.6159209761766414</v>
+        <v>0.61592097617664143</v>
       </c>
       <c r="M123">
-        <v>99.99999999999997</v>
+        <v>99.999999999999972</v>
       </c>
       <c r="N123">
         <v>1</v>
@@ -8666,45 +8687,45 @@
         <v>1</v>
       </c>
       <c r="U123">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="124" spans="1:23">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
       <c r="C124" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D124">
-        <v>21.96571272454067</v>
+        <v>21.965712724540669</v>
       </c>
       <c r="E124">
-        <v>19.93033262755277</v>
+        <v>19.930332627552769</v>
       </c>
       <c r="F124">
-        <v>4.15272180861963</v>
+        <v>4.1527218086196296</v>
       </c>
       <c r="G124">
-        <v>0.4098080732190424</v>
+        <v>0.40980807321904239</v>
       </c>
       <c r="H124">
-        <v>0.5669011679530087</v>
+        <v>0.56690116795300871</v>
       </c>
       <c r="I124">
-        <v>52.01830476060378</v>
+        <v>52.018304760603783</v>
       </c>
       <c r="J124">
-        <v>0.1502629601803155</v>
+        <v>0.15026296018031551</v>
       </c>
       <c r="K124">
         <v>0.1980739020558705</v>
       </c>
       <c r="L124">
-        <v>0.6078819752749128</v>
+        <v>0.60788197527491283</v>
       </c>
       <c r="M124">
-        <v>99.99999999999999</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -8731,42 +8752,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
       <c r="C125" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D125">
-        <v>18.15159072016927</v>
+        <v>18.151590720169271</v>
       </c>
       <c r="E125">
         <v>18.71079876067407</v>
       </c>
       <c r="F125">
-        <v>4.29229955414494</v>
+        <v>4.2922995541449396</v>
       </c>
       <c r="G125">
-        <v>0.3173883473135344</v>
+        <v>0.31738834731353438</v>
       </c>
       <c r="H125">
-        <v>0.4987531172069825</v>
+        <v>0.49875311720698251</v>
       </c>
       <c r="I125">
-        <v>57.09211818937504</v>
+        <v>57.092118189375043</v>
       </c>
       <c r="J125">
-        <v>0.1511373082445402</v>
+        <v>0.15113730824454019</v>
       </c>
       <c r="K125">
-        <v>0.1511373082445402</v>
+        <v>0.15113730824454019</v>
       </c>
       <c r="L125">
-        <v>0.6347766946270688</v>
+        <v>0.63477669462706876</v>
       </c>
       <c r="M125">
-        <v>99.99999999999999</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -8793,7 +8814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -8801,13 +8822,13 @@
         <v>74</v>
       </c>
       <c r="C126" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D126">
-        <v>19.88059238582616</v>
+        <v>19.880592385826159</v>
       </c>
       <c r="E126">
-        <v>46.05722260990929</v>
+        <v>46.057222609909289</v>
       </c>
       <c r="F126">
         <v>2.341629836396061</v>
@@ -8816,19 +8837,19 @@
         <v>0.1783360471427464</v>
       </c>
       <c r="H126">
-        <v>0.9304489416143289</v>
+        <v>0.93044894161432889</v>
       </c>
       <c r="I126">
         <v>29.82088857873925</v>
       </c>
       <c r="J126">
-        <v>0.05427618826083586</v>
+        <v>5.4276188260835863E-2</v>
       </c>
       <c r="K126">
         <v>0.209351011863224</v>
       </c>
       <c r="L126">
-        <v>0.5272544002481196</v>
+        <v>0.52725440024811965</v>
       </c>
       <c r="M126">
         <v>100</v>
@@ -8855,51 +8876,51 @@
         <v>1</v>
       </c>
       <c r="U126">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="V126">
         <v>0</v>
       </c>
       <c r="W126">
-        <v>0.6666666666666667</v>
-      </c>
-    </row>
-    <row r="127" spans="1:23">
+        <v>0.66666666666666674</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D127">
-        <v>19.57124842370743</v>
+        <v>19.571248423707431</v>
       </c>
       <c r="E127">
         <v>46.38923917612442</v>
       </c>
       <c r="F127">
-        <v>2.580916351408154</v>
+        <v>2.5809163514081539</v>
       </c>
       <c r="G127">
-        <v>0.1933585540142917</v>
+        <v>0.19335855401429169</v>
       </c>
       <c r="H127">
-        <v>0.9920134510298443</v>
+        <v>0.99201345102984428</v>
       </c>
       <c r="I127">
         <v>29.49978982765867</v>
       </c>
       <c r="J127">
-        <v>0.05044136191677175</v>
+        <v>5.0441361916771753E-2</v>
       </c>
       <c r="K127">
         <v>0.2101723413198823</v>
       </c>
       <c r="L127">
-        <v>0.5128205128205127</v>
+        <v>0.51282051282051266</v>
       </c>
       <c r="M127">
-        <v>99.99999999999997</v>
+        <v>99.999999999999972</v>
       </c>
       <c r="N127">
         <v>1</v>
@@ -8923,42 +8944,42 @@
         <v>1</v>
       </c>
       <c r="U127">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="128" spans="1:23">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
       <c r="C128" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D128">
-        <v>25.65587734241908</v>
+        <v>25.655877342419078</v>
       </c>
       <c r="E128">
-        <v>26.68654173764906</v>
+        <v>26.686541737649058</v>
       </c>
       <c r="F128">
-        <v>3.960817717206133</v>
+        <v>3.9608177172061332</v>
       </c>
       <c r="G128">
-        <v>0.5536626916524703</v>
+        <v>0.55366269165247028</v>
       </c>
       <c r="H128">
-        <v>0.7410562180579217</v>
+        <v>0.74105621805792166</v>
       </c>
       <c r="I128">
-        <v>41.83986371379898</v>
+        <v>41.839863713798977</v>
       </c>
       <c r="J128">
-        <v>0.06814310051107325</v>
+        <v>6.8143100511073251E-2</v>
       </c>
       <c r="K128">
-        <v>0.2214650766609881</v>
+        <v>0.22146507666098811</v>
       </c>
       <c r="L128">
-        <v>0.272572402044293</v>
+        <v>0.27257240204429301</v>
       </c>
       <c r="M128">
         <v>100</v>
@@ -8988,39 +9009,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
       <c r="C129" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D129">
-        <v>25.07529472506669</v>
+        <v>25.075294725066691</v>
       </c>
       <c r="E129">
         <v>26.97702435246536</v>
       </c>
       <c r="F129">
-        <v>3.734618363307805</v>
+        <v>3.7346183633078049</v>
       </c>
       <c r="G129">
-        <v>0.5679373547887445</v>
+        <v>0.56793735478874452</v>
       </c>
       <c r="H129">
-        <v>0.7486446949487994</v>
+        <v>0.74864469494879937</v>
       </c>
       <c r="I129">
-        <v>42.29412270888908</v>
+        <v>42.294122708889077</v>
       </c>
       <c r="J129">
-        <v>0.086051114361931</v>
+        <v>8.6051114361930997E-2</v>
       </c>
       <c r="K129">
-        <v>0.2323380087772136</v>
+        <v>0.23233800877721361</v>
       </c>
       <c r="L129">
-        <v>0.2839686773943723</v>
+        <v>0.28396867739437232</v>
       </c>
       <c r="M129">
         <v>100</v>
@@ -9050,42 +9071,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="C130" t="s">
         <v>86</v>
       </c>
       <c r="D130">
-        <v>19.94054505397222</v>
+        <v>19.940545053972219</v>
       </c>
       <c r="E130">
-        <v>40.39314708811605</v>
+        <v>40.393147088116052</v>
       </c>
       <c r="F130">
-        <v>3.993340241240204</v>
+        <v>3.9933402412402041</v>
       </c>
       <c r="G130">
-        <v>0.39737231270686</v>
+        <v>0.39737231270686002</v>
       </c>
       <c r="H130">
-        <v>0.6755329316016619</v>
+        <v>0.67553293160166195</v>
       </c>
       <c r="I130">
-        <v>34.4380954297154</v>
+        <v>34.438095429715403</v>
       </c>
       <c r="J130">
-        <v>0.02162912588151263</v>
+        <v>2.1629125881512629E-2</v>
       </c>
       <c r="K130">
-        <v>0.05533032202247416</v>
+        <v>5.5330322022474163E-2</v>
       </c>
       <c r="L130">
-        <v>0.08500749474361941</v>
+        <v>8.5007494743619405E-2</v>
       </c>
       <c r="M130">
         <v>100</v>
@@ -9121,42 +9142,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="C131" t="s">
         <v>87</v>
       </c>
       <c r="D131">
-        <v>20.63335980736987</v>
+        <v>20.633359807369871</v>
       </c>
       <c r="E131">
-        <v>25.97607251364674</v>
+        <v>25.976072513646741</v>
       </c>
       <c r="F131">
-        <v>2.446327042597985</v>
+        <v>2.4463270425979848</v>
       </c>
       <c r="G131">
-        <v>0.3655938378528296</v>
+        <v>0.36559383785282962</v>
       </c>
       <c r="H131">
-        <v>0.6013388298475852</v>
+        <v>0.60133882984758524</v>
       </c>
       <c r="I131">
-        <v>49.76551567641164</v>
+        <v>49.765515676411638</v>
       </c>
       <c r="J131">
-        <v>0.05294807306834083</v>
+        <v>5.2948073068340831E-2</v>
       </c>
       <c r="K131">
-        <v>0.06303342031945337</v>
+        <v>6.3033420319453373E-2</v>
       </c>
       <c r="L131">
-        <v>0.09581079888556913</v>
+        <v>9.5810798885569134E-2</v>
       </c>
       <c r="M131">
         <v>100</v>
@@ -9192,12 +9213,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="C132" t="s">
         <v>88</v>
@@ -9206,25 +9227,25 @@
         <v>19.65010141987829</v>
       </c>
       <c r="E132">
-        <v>21.35522312373225</v>
+        <v>21.355223123732252</v>
       </c>
       <c r="F132">
         <v>3.359533468559837</v>
       </c>
       <c r="G132">
-        <v>0.6782454361054766</v>
+        <v>0.67824543610547661</v>
       </c>
       <c r="H132">
-        <v>1.001521298174442</v>
+        <v>1.0015212981744419</v>
       </c>
       <c r="I132">
-        <v>53.68914807302232</v>
+        <v>53.689148073022317</v>
       </c>
       <c r="J132">
-        <v>0.08240365111561866</v>
+        <v>8.2403651115618662E-2</v>
       </c>
       <c r="K132">
-        <v>0.06338742393509127</v>
+        <v>6.3387423935091267E-2</v>
       </c>
       <c r="L132">
         <v>0.1204361054766734</v>
@@ -9263,42 +9284,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="C133" t="s">
         <v>89</v>
       </c>
       <c r="D133">
-        <v>20.50168837433671</v>
+        <v>20.501688374336709</v>
       </c>
       <c r="E133">
-        <v>36.64576298440264</v>
+        <v>36.645762984402637</v>
       </c>
       <c r="F133">
-        <v>3.48930696253417</v>
+        <v>3.4893069625341702</v>
       </c>
       <c r="G133">
-        <v>0.4019938896928767</v>
+        <v>0.40199388969287669</v>
       </c>
       <c r="H133">
-        <v>0.8683068017366138</v>
+        <v>0.86830680173661379</v>
       </c>
       <c r="I133">
-        <v>37.74722624216113</v>
+        <v>37.747226242161133</v>
       </c>
       <c r="J133">
-        <v>0.1125582891140055</v>
+        <v>0.11255828911400551</v>
       </c>
       <c r="K133">
-        <v>0.08843865573243287</v>
+        <v>8.8438655732432869E-2</v>
       </c>
       <c r="L133">
-        <v>0.1447178002894356</v>
+        <v>0.14471780028943559</v>
       </c>
       <c r="M133">
         <v>100</v>
@@ -9335,6 +9356,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>